--- a/planejamento/cronograma.xlsx
+++ b/planejamento/cronograma.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
     <sheet name="_old" sheetId="2" r:id="rId2"/>
     <sheet name="CRONOGRAMA" sheetId="6" r:id="rId3"/>
+    <sheet name="CRONOGRAMA_v2" sheetId="7" r:id="rId4"/>
+    <sheet name="Planilha2" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="127">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1167,6 +1169,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/m;@"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1365,7 +1370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1967,11 +1972,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2079,21 +2130,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2280,6 +2316,32 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2298,8 +2360,6 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2309,15 +2369,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2904,123 +3004,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="65" t="s">
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="225" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="65" t="s">
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="226"/>
+      <c r="AA1" s="226"/>
+      <c r="AB1" s="226"/>
+      <c r="AC1" s="226"/>
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="226"/>
+      <c r="AH1" s="226"/>
+      <c r="AI1" s="226"/>
+      <c r="AJ1" s="226"/>
+      <c r="AK1" s="226"/>
+      <c r="AL1" s="226"/>
+      <c r="AM1" s="227"/>
+      <c r="AN1" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="65" t="s">
+      <c r="AO1" s="226"/>
+      <c r="AP1" s="226"/>
+      <c r="AQ1" s="226"/>
+      <c r="AR1" s="226"/>
+      <c r="AS1" s="226"/>
+      <c r="AT1" s="227"/>
+      <c r="AU1" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="66"/>
-      <c r="BM1" s="66"/>
-      <c r="BN1" s="66"/>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="66"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="65" t="s">
+      <c r="AV1" s="226"/>
+      <c r="AW1" s="226"/>
+      <c r="AX1" s="226"/>
+      <c r="AY1" s="226"/>
+      <c r="AZ1" s="226"/>
+      <c r="BA1" s="226"/>
+      <c r="BB1" s="226"/>
+      <c r="BC1" s="226"/>
+      <c r="BD1" s="226"/>
+      <c r="BE1" s="226"/>
+      <c r="BF1" s="226"/>
+      <c r="BG1" s="226"/>
+      <c r="BH1" s="226"/>
+      <c r="BI1" s="226"/>
+      <c r="BJ1" s="226"/>
+      <c r="BK1" s="226"/>
+      <c r="BL1" s="226"/>
+      <c r="BM1" s="226"/>
+      <c r="BN1" s="226"/>
+      <c r="BO1" s="226"/>
+      <c r="BP1" s="226"/>
+      <c r="BQ1" s="227"/>
+      <c r="BR1" s="225" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="66"/>
-      <c r="BT1" s="66"/>
-      <c r="BU1" s="66"/>
-      <c r="BV1" s="66"/>
-      <c r="BW1" s="66"/>
-      <c r="BX1" s="66"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="66"/>
-      <c r="CA1" s="66"/>
-      <c r="CB1" s="66"/>
-      <c r="CC1" s="66"/>
-      <c r="CD1" s="66"/>
-      <c r="CE1" s="66"/>
-      <c r="CF1" s="66"/>
-      <c r="CG1" s="66"/>
-      <c r="CH1" s="66"/>
-      <c r="CI1" s="66"/>
-      <c r="CJ1" s="66"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="65" t="s">
+      <c r="BS1" s="226"/>
+      <c r="BT1" s="226"/>
+      <c r="BU1" s="226"/>
+      <c r="BV1" s="226"/>
+      <c r="BW1" s="226"/>
+      <c r="BX1" s="226"/>
+      <c r="BY1" s="226"/>
+      <c r="BZ1" s="226"/>
+      <c r="CA1" s="226"/>
+      <c r="CB1" s="226"/>
+      <c r="CC1" s="226"/>
+      <c r="CD1" s="226"/>
+      <c r="CE1" s="226"/>
+      <c r="CF1" s="226"/>
+      <c r="CG1" s="226"/>
+      <c r="CH1" s="226"/>
+      <c r="CI1" s="226"/>
+      <c r="CJ1" s="226"/>
+      <c r="CK1" s="227"/>
+      <c r="CL1" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="66"/>
-      <c r="CN1" s="66"/>
-      <c r="CO1" s="66"/>
-      <c r="CP1" s="66"/>
-      <c r="CQ1" s="66"/>
-      <c r="CR1" s="66"/>
-      <c r="CS1" s="66"/>
-      <c r="CT1" s="66"/>
-      <c r="CU1" s="66"/>
-      <c r="CV1" s="66"/>
-      <c r="CW1" s="66"/>
-      <c r="CX1" s="66"/>
-      <c r="CY1" s="66"/>
-      <c r="CZ1" s="66"/>
-      <c r="DA1" s="66"/>
-      <c r="DB1" s="66"/>
+      <c r="CM1" s="226"/>
+      <c r="CN1" s="226"/>
+      <c r="CO1" s="226"/>
+      <c r="CP1" s="226"/>
+      <c r="CQ1" s="226"/>
+      <c r="CR1" s="226"/>
+      <c r="CS1" s="226"/>
+      <c r="CT1" s="226"/>
+      <c r="CU1" s="226"/>
+      <c r="CV1" s="226"/>
+      <c r="CW1" s="226"/>
+      <c r="CX1" s="226"/>
+      <c r="CY1" s="226"/>
+      <c r="CZ1" s="226"/>
+      <c r="DA1" s="226"/>
+      <c r="DB1" s="226"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -21647,15 +21747,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="63" t="s">
+      <c r="CW86" s="223" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="63"/>
-      <c r="CY86" s="63"/>
-      <c r="CZ86" s="63"/>
-      <c r="DA86" s="63"/>
-      <c r="DB86" s="63"/>
-      <c r="DC86" s="64"/>
+      <c r="CX86" s="223"/>
+      <c r="CY86" s="223"/>
+      <c r="CZ86" s="223"/>
+      <c r="DA86" s="223"/>
+      <c r="DB86" s="223"/>
+      <c r="DC86" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -21676,2193 +21776,2193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CR10" sqref="CR10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92" style="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="102"/>
-    <col min="3" max="15" width="8.28515625" style="68"/>
-    <col min="16" max="16" width="8.28515625" style="81"/>
-    <col min="17" max="17" width="8.28515625" style="103"/>
-    <col min="18" max="18" width="8.28515625" style="102"/>
-    <col min="19" max="33" width="8.28515625" style="68"/>
-    <col min="34" max="34" width="8.28515625" style="212"/>
-    <col min="35" max="35" width="8.28515625" style="68"/>
-    <col min="36" max="36" width="8.28515625" style="81"/>
-    <col min="37" max="37" width="8.28515625" style="68"/>
-    <col min="38" max="38" width="8.28515625" style="103"/>
-    <col min="39" max="39" width="8.28515625" style="102"/>
-    <col min="40" max="55" width="8.28515625" style="68"/>
-    <col min="56" max="56" width="8.28515625" style="81"/>
-    <col min="57" max="59" width="8.28515625" style="68"/>
-    <col min="60" max="60" width="8.28515625" style="103"/>
-    <col min="61" max="61" width="8.28515625" style="81"/>
-    <col min="62" max="73" width="8.28515625" style="68"/>
-    <col min="74" max="74" width="8.28515625" style="81"/>
-    <col min="75" max="81" width="8.28515625" style="68"/>
-    <col min="82" max="82" width="8.28515625" style="212"/>
-    <col min="83" max="83" width="8.28515625" style="102"/>
-    <col min="84" max="90" width="8.28515625" style="68"/>
-    <col min="91" max="91" width="8.28515625" style="103"/>
-    <col min="92" max="92" width="8.28515625" style="102"/>
-    <col min="93" max="100" width="8.28515625" style="68"/>
-    <col min="101" max="101" width="8.28515625" style="103"/>
-    <col min="102" max="102" width="8.28515625" style="81"/>
-    <col min="103" max="16384" width="8.28515625" style="68"/>
+    <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="97"/>
+    <col min="3" max="15" width="8.28515625" style="63"/>
+    <col min="16" max="16" width="8.28515625" style="76"/>
+    <col min="17" max="17" width="8.28515625" style="98"/>
+    <col min="18" max="18" width="8.28515625" style="97"/>
+    <col min="19" max="33" width="8.28515625" style="63"/>
+    <col min="34" max="34" width="8.28515625" style="207"/>
+    <col min="35" max="35" width="8.28515625" style="63"/>
+    <col min="36" max="36" width="8.28515625" style="76"/>
+    <col min="37" max="37" width="8.28515625" style="63"/>
+    <col min="38" max="38" width="8.28515625" style="98"/>
+    <col min="39" max="39" width="8.28515625" style="97"/>
+    <col min="40" max="55" width="8.28515625" style="63"/>
+    <col min="56" max="56" width="8.28515625" style="76"/>
+    <col min="57" max="59" width="8.28515625" style="63"/>
+    <col min="60" max="60" width="8.28515625" style="98"/>
+    <col min="61" max="61" width="8.28515625" style="76"/>
+    <col min="62" max="73" width="8.28515625" style="63"/>
+    <col min="74" max="74" width="8.28515625" style="76"/>
+    <col min="75" max="81" width="8.28515625" style="63"/>
+    <col min="82" max="82" width="8.28515625" style="207"/>
+    <col min="83" max="83" width="8.28515625" style="97"/>
+    <col min="84" max="90" width="8.28515625" style="63"/>
+    <col min="91" max="91" width="8.28515625" style="98"/>
+    <col min="92" max="92" width="8.28515625" style="97"/>
+    <col min="93" max="100" width="8.28515625" style="63"/>
+    <col min="101" max="101" width="8.28515625" style="98"/>
+    <col min="102" max="102" width="8.28515625" style="76"/>
+    <col min="103" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="234" t="s">
+    <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77"/>
+      <c r="B1" s="237" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="237" t="s">
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="228" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="238"/>
-      <c r="AJ1" s="238"/>
-      <c r="AK1" s="238"/>
-      <c r="AL1" s="239"/>
-      <c r="AM1" s="237" t="s">
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="229"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="230"/>
+      <c r="AM1" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="238"/>
-      <c r="AO1" s="238"/>
-      <c r="AP1" s="238"/>
-      <c r="AQ1" s="238"/>
-      <c r="AR1" s="238"/>
-      <c r="AS1" s="238"/>
-      <c r="AT1" s="238"/>
-      <c r="AU1" s="238"/>
-      <c r="AV1" s="238"/>
-      <c r="AW1" s="238"/>
-      <c r="AX1" s="238"/>
-      <c r="AY1" s="238"/>
-      <c r="AZ1" s="238"/>
-      <c r="BA1" s="238"/>
-      <c r="BB1" s="238"/>
-      <c r="BC1" s="238"/>
-      <c r="BD1" s="238"/>
-      <c r="BE1" s="238"/>
-      <c r="BF1" s="238"/>
-      <c r="BG1" s="238"/>
-      <c r="BH1" s="239"/>
-      <c r="BI1" s="237" t="s">
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229"/>
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229"/>
+      <c r="AY1" s="229"/>
+      <c r="AZ1" s="229"/>
+      <c r="BA1" s="229"/>
+      <c r="BB1" s="229"/>
+      <c r="BC1" s="229"/>
+      <c r="BD1" s="229"/>
+      <c r="BE1" s="229"/>
+      <c r="BF1" s="229"/>
+      <c r="BG1" s="229"/>
+      <c r="BH1" s="230"/>
+      <c r="BI1" s="228" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="238"/>
-      <c r="BK1" s="238"/>
-      <c r="BL1" s="238"/>
-      <c r="BM1" s="238"/>
-      <c r="BN1" s="238"/>
-      <c r="BO1" s="238"/>
-      <c r="BP1" s="238"/>
-      <c r="BQ1" s="238"/>
-      <c r="BR1" s="238"/>
-      <c r="BS1" s="238"/>
-      <c r="BT1" s="238"/>
-      <c r="BU1" s="238"/>
-      <c r="BV1" s="238"/>
-      <c r="BW1" s="238"/>
-      <c r="BX1" s="238"/>
-      <c r="BY1" s="238"/>
-      <c r="BZ1" s="238"/>
-      <c r="CA1" s="238"/>
-      <c r="CB1" s="238"/>
-      <c r="CC1" s="238"/>
-      <c r="CD1" s="239"/>
-      <c r="CE1" s="237" t="s">
+      <c r="BJ1" s="229"/>
+      <c r="BK1" s="229"/>
+      <c r="BL1" s="229"/>
+      <c r="BM1" s="229"/>
+      <c r="BN1" s="229"/>
+      <c r="BO1" s="229"/>
+      <c r="BP1" s="229"/>
+      <c r="BQ1" s="229"/>
+      <c r="BR1" s="229"/>
+      <c r="BS1" s="229"/>
+      <c r="BT1" s="229"/>
+      <c r="BU1" s="229"/>
+      <c r="BV1" s="229"/>
+      <c r="BW1" s="229"/>
+      <c r="BX1" s="229"/>
+      <c r="BY1" s="229"/>
+      <c r="BZ1" s="229"/>
+      <c r="CA1" s="229"/>
+      <c r="CB1" s="229"/>
+      <c r="CC1" s="229"/>
+      <c r="CD1" s="230"/>
+      <c r="CE1" s="228" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="238"/>
-      <c r="CG1" s="238"/>
-      <c r="CH1" s="238"/>
-      <c r="CI1" s="238"/>
-      <c r="CJ1" s="238"/>
-      <c r="CK1" s="238"/>
-      <c r="CL1" s="238"/>
-      <c r="CM1" s="239"/>
-      <c r="CN1" s="237" t="s">
+      <c r="CF1" s="229"/>
+      <c r="CG1" s="229"/>
+      <c r="CH1" s="229"/>
+      <c r="CI1" s="229"/>
+      <c r="CJ1" s="229"/>
+      <c r="CK1" s="229"/>
+      <c r="CL1" s="229"/>
+      <c r="CM1" s="230"/>
+      <c r="CN1" s="228" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="238"/>
-      <c r="CP1" s="238"/>
-      <c r="CQ1" s="238"/>
-      <c r="CR1" s="238"/>
-      <c r="CS1" s="238"/>
-      <c r="CT1" s="238"/>
-      <c r="CU1" s="238"/>
-      <c r="CV1" s="238"/>
-      <c r="CW1" s="239"/>
-      <c r="CX1" s="104"/>
+      <c r="CO1" s="229"/>
+      <c r="CP1" s="229"/>
+      <c r="CQ1" s="229"/>
+      <c r="CR1" s="229"/>
+      <c r="CS1" s="229"/>
+      <c r="CT1" s="229"/>
+      <c r="CU1" s="229"/>
+      <c r="CV1" s="229"/>
+      <c r="CW1" s="230"/>
+      <c r="CX1" s="99"/>
     </row>
-    <row r="2" spans="1:102" s="112" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="107">
+      <c r="B2" s="102">
         <v>43669</v>
       </c>
-      <c r="C2" s="108">
+      <c r="C2" s="103">
         <v>43670</v>
       </c>
-      <c r="D2" s="108">
+      <c r="D2" s="103">
         <v>43671</v>
       </c>
-      <c r="E2" s="108">
+      <c r="E2" s="103">
         <v>43672</v>
       </c>
-      <c r="F2" s="109">
+      <c r="F2" s="104">
         <v>43675</v>
       </c>
-      <c r="G2" s="109">
+      <c r="G2" s="104">
         <v>43676</v>
       </c>
-      <c r="H2" s="109">
+      <c r="H2" s="104">
         <v>43677</v>
       </c>
-      <c r="I2" s="109">
+      <c r="I2" s="104">
         <v>43678</v>
       </c>
-      <c r="J2" s="109">
+      <c r="J2" s="104">
         <v>43679</v>
       </c>
-      <c r="K2" s="108">
+      <c r="K2" s="103">
         <v>43682</v>
       </c>
-      <c r="L2" s="108">
+      <c r="L2" s="103">
         <v>43683</v>
       </c>
-      <c r="M2" s="108">
+      <c r="M2" s="103">
         <v>43684</v>
       </c>
-      <c r="N2" s="108">
+      <c r="N2" s="103">
         <v>43685</v>
       </c>
-      <c r="O2" s="108">
+      <c r="O2" s="103">
         <v>43686</v>
       </c>
-      <c r="P2" s="111">
+      <c r="P2" s="106">
         <v>43689</v>
       </c>
-      <c r="Q2" s="232">
+      <c r="Q2" s="221">
         <v>43690</v>
       </c>
-      <c r="R2" s="170">
+      <c r="R2" s="165">
         <v>43691</v>
       </c>
-      <c r="S2" s="109">
+      <c r="S2" s="104">
         <v>43692</v>
       </c>
-      <c r="T2" s="109">
+      <c r="T2" s="104">
         <v>43693</v>
       </c>
-      <c r="U2" s="108">
+      <c r="U2" s="103">
         <v>43696</v>
       </c>
-      <c r="V2" s="108">
+      <c r="V2" s="103">
         <v>43697</v>
       </c>
-      <c r="W2" s="108">
+      <c r="W2" s="103">
         <v>43698</v>
       </c>
-      <c r="X2" s="108">
+      <c r="X2" s="103">
         <v>43699</v>
       </c>
-      <c r="Y2" s="108">
+      <c r="Y2" s="103">
         <v>43700</v>
       </c>
-      <c r="Z2" s="109">
+      <c r="Z2" s="104">
         <v>43703</v>
       </c>
-      <c r="AA2" s="109">
+      <c r="AA2" s="104">
         <v>43704</v>
       </c>
-      <c r="AB2" s="109">
+      <c r="AB2" s="104">
         <v>43705</v>
       </c>
-      <c r="AC2" s="109">
+      <c r="AC2" s="104">
         <v>43706</v>
       </c>
-      <c r="AD2" s="109">
+      <c r="AD2" s="104">
         <v>43707</v>
       </c>
-      <c r="AE2" s="108">
+      <c r="AE2" s="103">
         <v>43710</v>
       </c>
-      <c r="AF2" s="108">
+      <c r="AF2" s="103">
         <v>43711</v>
       </c>
-      <c r="AG2" s="108">
+      <c r="AG2" s="103">
         <v>43712</v>
       </c>
-      <c r="AH2" s="194">
+      <c r="AH2" s="189">
         <v>43713</v>
       </c>
-      <c r="AI2" s="108">
+      <c r="AI2" s="103">
         <v>43714</v>
       </c>
-      <c r="AJ2" s="111">
+      <c r="AJ2" s="106">
         <v>43717</v>
       </c>
-      <c r="AK2" s="109">
+      <c r="AK2" s="104">
         <v>43718</v>
       </c>
-      <c r="AL2" s="232">
+      <c r="AL2" s="221">
         <v>43719</v>
       </c>
-      <c r="AM2" s="170">
+      <c r="AM2" s="165">
         <v>43720</v>
       </c>
-      <c r="AN2" s="109">
+      <c r="AN2" s="104">
         <v>43721</v>
       </c>
-      <c r="AO2" s="108">
+      <c r="AO2" s="103">
         <v>43724</v>
       </c>
-      <c r="AP2" s="108">
+      <c r="AP2" s="103">
         <v>43725</v>
       </c>
-      <c r="AQ2" s="108">
+      <c r="AQ2" s="103">
         <v>43726</v>
       </c>
-      <c r="AR2" s="108">
+      <c r="AR2" s="103">
         <v>43727</v>
       </c>
-      <c r="AS2" s="108">
+      <c r="AS2" s="103">
         <v>43728</v>
       </c>
-      <c r="AT2" s="109">
+      <c r="AT2" s="104">
         <v>43731</v>
       </c>
-      <c r="AU2" s="109">
+      <c r="AU2" s="104">
         <v>43732</v>
       </c>
-      <c r="AV2" s="109">
+      <c r="AV2" s="104">
         <v>43733</v>
       </c>
-      <c r="AW2" s="109">
+      <c r="AW2" s="104">
         <v>43734</v>
       </c>
-      <c r="AX2" s="109">
+      <c r="AX2" s="104">
         <v>43735</v>
       </c>
-      <c r="AY2" s="108">
+      <c r="AY2" s="103">
         <v>43738</v>
       </c>
-      <c r="AZ2" s="108">
+      <c r="AZ2" s="103">
         <v>43739</v>
       </c>
-      <c r="BA2" s="108">
+      <c r="BA2" s="103">
         <v>43740</v>
       </c>
-      <c r="BB2" s="108">
+      <c r="BB2" s="103">
         <v>43741</v>
       </c>
-      <c r="BC2" s="108">
+      <c r="BC2" s="103">
         <v>43742</v>
       </c>
-      <c r="BD2" s="111">
+      <c r="BD2" s="106">
         <v>43745</v>
       </c>
-      <c r="BE2" s="109">
+      <c r="BE2" s="104">
         <v>43746</v>
       </c>
-      <c r="BF2" s="109">
+      <c r="BF2" s="104">
         <v>43747</v>
       </c>
-      <c r="BG2" s="109">
+      <c r="BG2" s="104">
         <v>43748</v>
       </c>
-      <c r="BH2" s="232">
+      <c r="BH2" s="221">
         <v>43749</v>
       </c>
-      <c r="BI2" s="233">
+      <c r="BI2" s="222">
         <v>43754</v>
       </c>
-      <c r="BJ2" s="108">
+      <c r="BJ2" s="103">
         <v>43755</v>
       </c>
-      <c r="BK2" s="108">
+      <c r="BK2" s="103">
         <v>43756</v>
       </c>
-      <c r="BL2" s="109">
+      <c r="BL2" s="104">
         <v>43759</v>
       </c>
-      <c r="BM2" s="109">
+      <c r="BM2" s="104">
         <v>43760</v>
       </c>
-      <c r="BN2" s="109">
+      <c r="BN2" s="104">
         <v>43761</v>
       </c>
-      <c r="BO2" s="109">
+      <c r="BO2" s="104">
         <v>43762</v>
       </c>
-      <c r="BP2" s="109">
+      <c r="BP2" s="104">
         <v>43763</v>
       </c>
-      <c r="BQ2" s="108">
+      <c r="BQ2" s="103">
         <v>43766</v>
       </c>
-      <c r="BR2" s="108">
+      <c r="BR2" s="103">
         <v>43767</v>
       </c>
-      <c r="BS2" s="108">
+      <c r="BS2" s="103">
         <v>43768</v>
       </c>
-      <c r="BT2" s="108">
+      <c r="BT2" s="103">
         <v>43769</v>
       </c>
-      <c r="BU2" s="108">
+      <c r="BU2" s="103">
         <v>43770</v>
       </c>
-      <c r="BV2" s="111">
+      <c r="BV2" s="106">
         <v>43773</v>
       </c>
-      <c r="BW2" s="109">
+      <c r="BW2" s="104">
         <v>43774</v>
       </c>
-      <c r="BX2" s="109">
+      <c r="BX2" s="104">
         <v>43775</v>
       </c>
-      <c r="BY2" s="109">
+      <c r="BY2" s="104">
         <v>43776</v>
       </c>
-      <c r="BZ2" s="109">
+      <c r="BZ2" s="104">
         <v>43777</v>
       </c>
-      <c r="CA2" s="108">
+      <c r="CA2" s="103">
         <v>43780</v>
       </c>
-      <c r="CB2" s="108">
+      <c r="CB2" s="103">
         <v>43781</v>
       </c>
-      <c r="CC2" s="108">
+      <c r="CC2" s="103">
         <v>43782</v>
       </c>
-      <c r="CD2" s="194">
+      <c r="CD2" s="189">
         <v>43783</v>
       </c>
-      <c r="CE2" s="170">
+      <c r="CE2" s="165">
         <v>43787</v>
       </c>
-      <c r="CF2" s="109">
+      <c r="CF2" s="104">
         <v>43788</v>
       </c>
-      <c r="CG2" s="109">
+      <c r="CG2" s="104">
         <v>43790</v>
       </c>
-      <c r="CH2" s="109">
+      <c r="CH2" s="104">
         <v>43791</v>
       </c>
-      <c r="CI2" s="108">
+      <c r="CI2" s="103">
         <v>43794</v>
       </c>
-      <c r="CJ2" s="108">
+      <c r="CJ2" s="103">
         <v>43795</v>
       </c>
-      <c r="CK2" s="108">
+      <c r="CK2" s="103">
         <v>43796</v>
       </c>
-      <c r="CL2" s="108">
+      <c r="CL2" s="103">
         <v>43797</v>
       </c>
-      <c r="CM2" s="110">
+      <c r="CM2" s="105">
         <v>43798</v>
       </c>
-      <c r="CN2" s="170">
+      <c r="CN2" s="165">
         <v>43801</v>
       </c>
-      <c r="CO2" s="109">
+      <c r="CO2" s="104">
         <v>43802</v>
       </c>
-      <c r="CP2" s="109">
+      <c r="CP2" s="104">
         <v>43803</v>
       </c>
-      <c r="CQ2" s="109">
+      <c r="CQ2" s="104">
         <v>43804</v>
       </c>
-      <c r="CR2" s="109">
+      <c r="CR2" s="104">
         <v>43805</v>
       </c>
-      <c r="CS2" s="108">
+      <c r="CS2" s="103">
         <v>43808</v>
       </c>
-      <c r="CT2" s="108">
+      <c r="CT2" s="103">
         <v>43809</v>
       </c>
-      <c r="CU2" s="108">
+      <c r="CU2" s="103">
         <v>43810</v>
       </c>
-      <c r="CV2" s="108">
+      <c r="CV2" s="103">
         <v>43811</v>
       </c>
-      <c r="CW2" s="110">
+      <c r="CW2" s="105">
         <v>43812</v>
       </c>
-      <c r="CX2" s="213"/>
+      <c r="CX2" s="208"/>
     </row>
-    <row r="3" spans="1:102" s="118" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:102" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="195"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="116"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="115"/>
-      <c r="AO3" s="115"/>
-      <c r="AP3" s="115"/>
-      <c r="AQ3" s="115"/>
-      <c r="AR3" s="115"/>
-      <c r="AS3" s="115"/>
-      <c r="AT3" s="115"/>
-      <c r="AU3" s="115"/>
-      <c r="AV3" s="115"/>
-      <c r="AW3" s="115"/>
-      <c r="AX3" s="115"/>
-      <c r="AY3" s="115"/>
-      <c r="AZ3" s="115"/>
-      <c r="BA3" s="115"/>
-      <c r="BB3" s="115"/>
-      <c r="BC3" s="115"/>
-      <c r="BD3" s="117"/>
-      <c r="BE3" s="115"/>
-      <c r="BF3" s="115"/>
-      <c r="BG3" s="115"/>
-      <c r="BH3" s="116"/>
-      <c r="BI3" s="117"/>
-      <c r="BJ3" s="115"/>
-      <c r="BK3" s="115"/>
-      <c r="BL3" s="115"/>
-      <c r="BM3" s="115"/>
-      <c r="BN3" s="115"/>
-      <c r="BO3" s="115"/>
-      <c r="BP3" s="115"/>
-      <c r="BQ3" s="115"/>
-      <c r="BR3" s="115"/>
-      <c r="BS3" s="115"/>
-      <c r="BT3" s="115"/>
-      <c r="BU3" s="115"/>
-      <c r="BV3" s="117"/>
-      <c r="BW3" s="115"/>
-      <c r="BX3" s="115"/>
-      <c r="BY3" s="115"/>
-      <c r="BZ3" s="115"/>
-      <c r="CA3" s="115"/>
-      <c r="CB3" s="115"/>
-      <c r="CC3" s="115"/>
-      <c r="CD3" s="195"/>
-      <c r="CE3" s="114"/>
-      <c r="CF3" s="115"/>
-      <c r="CG3" s="115"/>
-      <c r="CH3" s="115"/>
-      <c r="CI3" s="115"/>
-      <c r="CJ3" s="115"/>
-      <c r="CK3" s="115"/>
-      <c r="CL3" s="115"/>
-      <c r="CM3" s="116"/>
-      <c r="CN3" s="114"/>
-      <c r="CO3" s="115"/>
-      <c r="CP3" s="115"/>
-      <c r="CQ3" s="115"/>
-      <c r="CR3" s="115"/>
-      <c r="CS3" s="115"/>
-      <c r="CT3" s="115"/>
-      <c r="CU3" s="115"/>
-      <c r="CV3" s="115"/>
-      <c r="CW3" s="116"/>
-      <c r="CX3" s="214"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="190"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="112"/>
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="111"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="110"/>
+      <c r="AQ3" s="110"/>
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="110"/>
+      <c r="AV3" s="110"/>
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="110"/>
+      <c r="AY3" s="110"/>
+      <c r="AZ3" s="110"/>
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="110"/>
+      <c r="BC3" s="110"/>
+      <c r="BD3" s="112"/>
+      <c r="BE3" s="110"/>
+      <c r="BF3" s="110"/>
+      <c r="BG3" s="110"/>
+      <c r="BH3" s="111"/>
+      <c r="BI3" s="112"/>
+      <c r="BJ3" s="110"/>
+      <c r="BK3" s="110"/>
+      <c r="BL3" s="110"/>
+      <c r="BM3" s="110"/>
+      <c r="BN3" s="110"/>
+      <c r="BO3" s="110"/>
+      <c r="BP3" s="110"/>
+      <c r="BQ3" s="110"/>
+      <c r="BR3" s="110"/>
+      <c r="BS3" s="110"/>
+      <c r="BT3" s="110"/>
+      <c r="BU3" s="110"/>
+      <c r="BV3" s="112"/>
+      <c r="BW3" s="110"/>
+      <c r="BX3" s="110"/>
+      <c r="BY3" s="110"/>
+      <c r="BZ3" s="110"/>
+      <c r="CA3" s="110"/>
+      <c r="CB3" s="110"/>
+      <c r="CC3" s="110"/>
+      <c r="CD3" s="190"/>
+      <c r="CE3" s="109"/>
+      <c r="CF3" s="110"/>
+      <c r="CG3" s="110"/>
+      <c r="CH3" s="110"/>
+      <c r="CI3" s="110"/>
+      <c r="CJ3" s="110"/>
+      <c r="CK3" s="110"/>
+      <c r="CL3" s="110"/>
+      <c r="CM3" s="111"/>
+      <c r="CN3" s="109"/>
+      <c r="CO3" s="110"/>
+      <c r="CP3" s="110"/>
+      <c r="CQ3" s="110"/>
+      <c r="CR3" s="110"/>
+      <c r="CS3" s="110"/>
+      <c r="CT3" s="110"/>
+      <c r="CU3" s="110"/>
+      <c r="CV3" s="110"/>
+      <c r="CW3" s="111"/>
+      <c r="CX3" s="209"/>
     </row>
-    <row r="4" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+    <row r="4" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="93"/>
-      <c r="AH4" s="196"/>
-      <c r="AJ4" s="76"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="93"/>
-      <c r="BD4" s="76"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="76"/>
-      <c r="BV4" s="76"/>
-      <c r="CD4" s="196"/>
-      <c r="CE4" s="93"/>
-      <c r="CM4" s="92"/>
-      <c r="CN4" s="93"/>
-      <c r="CW4" s="92"/>
-      <c r="CX4" s="76"/>
+      <c r="B4" s="86"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="88"/>
+      <c r="AH4" s="191"/>
+      <c r="AJ4" s="71"/>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="88"/>
+      <c r="BD4" s="71"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="71"/>
+      <c r="BV4" s="71"/>
+      <c r="CD4" s="191"/>
+      <c r="CE4" s="88"/>
+      <c r="CM4" s="87"/>
+      <c r="CN4" s="88"/>
+      <c r="CW4" s="87"/>
+      <c r="CX4" s="71"/>
     </row>
-    <row r="5" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+    <row r="5" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="93"/>
-      <c r="AH5" s="196"/>
-      <c r="AJ5" s="76"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="93"/>
-      <c r="BD5" s="76"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="76"/>
-      <c r="BV5" s="76"/>
-      <c r="CD5" s="196"/>
-      <c r="CE5" s="93"/>
-      <c r="CM5" s="92"/>
-      <c r="CN5" s="93"/>
-      <c r="CW5" s="92"/>
-      <c r="CX5" s="76"/>
+      <c r="B5" s="86"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="88"/>
+      <c r="AH5" s="191"/>
+      <c r="AJ5" s="71"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="88"/>
+      <c r="BD5" s="71"/>
+      <c r="BH5" s="87"/>
+      <c r="BI5" s="71"/>
+      <c r="BV5" s="71"/>
+      <c r="CD5" s="191"/>
+      <c r="CE5" s="88"/>
+      <c r="CM5" s="87"/>
+      <c r="CN5" s="88"/>
+      <c r="CW5" s="87"/>
+      <c r="CX5" s="71"/>
     </row>
-    <row r="6" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="93"/>
-      <c r="AH6" s="196"/>
-      <c r="AJ6" s="76"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="93"/>
-      <c r="BD6" s="76"/>
-      <c r="BH6" s="92"/>
-      <c r="BI6" s="76"/>
-      <c r="BV6" s="76"/>
-      <c r="CD6" s="196"/>
-      <c r="CE6" s="93"/>
-      <c r="CM6" s="92"/>
-      <c r="CN6" s="93"/>
-      <c r="CW6" s="92"/>
-      <c r="CX6" s="76"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="88"/>
+      <c r="AH6" s="191"/>
+      <c r="AJ6" s="71"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="88"/>
+      <c r="BD6" s="71"/>
+      <c r="BH6" s="87"/>
+      <c r="BI6" s="71"/>
+      <c r="BV6" s="71"/>
+      <c r="CD6" s="191"/>
+      <c r="CE6" s="88"/>
+      <c r="CM6" s="87"/>
+      <c r="CN6" s="88"/>
+      <c r="CW6" s="87"/>
+      <c r="CX6" s="71"/>
     </row>
-    <row r="7" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+    <row r="7" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="93"/>
-      <c r="AH7" s="196"/>
-      <c r="AJ7" s="76"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="93"/>
-      <c r="BD7" s="76"/>
-      <c r="BH7" s="92"/>
-      <c r="BI7" s="76"/>
-      <c r="BV7" s="76"/>
-      <c r="CD7" s="196"/>
-      <c r="CE7" s="93"/>
-      <c r="CM7" s="92"/>
-      <c r="CN7" s="93"/>
-      <c r="CW7" s="92"/>
-      <c r="CX7" s="76"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="88"/>
+      <c r="AH7" s="191"/>
+      <c r="AJ7" s="71"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="88"/>
+      <c r="BD7" s="71"/>
+      <c r="BH7" s="87"/>
+      <c r="BI7" s="71"/>
+      <c r="BV7" s="71"/>
+      <c r="CD7" s="191"/>
+      <c r="CE7" s="88"/>
+      <c r="CM7" s="87"/>
+      <c r="CN7" s="88"/>
+      <c r="CW7" s="87"/>
+      <c r="CX7" s="71"/>
     </row>
-    <row r="8" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+    <row r="8" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="93"/>
-      <c r="AH8" s="196"/>
-      <c r="AJ8" s="76"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="93"/>
-      <c r="BD8" s="76"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="76"/>
-      <c r="BV8" s="76"/>
-      <c r="CD8" s="196"/>
-      <c r="CE8" s="93"/>
-      <c r="CM8" s="92"/>
-      <c r="CN8" s="93"/>
-      <c r="CW8" s="92"/>
-      <c r="CX8" s="76"/>
+      <c r="B8" s="88"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="88"/>
+      <c r="AH8" s="191"/>
+      <c r="AJ8" s="71"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="88"/>
+      <c r="BD8" s="71"/>
+      <c r="BH8" s="87"/>
+      <c r="BI8" s="71"/>
+      <c r="BV8" s="71"/>
+      <c r="CD8" s="191"/>
+      <c r="CE8" s="88"/>
+      <c r="CM8" s="87"/>
+      <c r="CN8" s="88"/>
+      <c r="CW8" s="87"/>
+      <c r="CX8" s="71"/>
     </row>
-    <row r="9" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+    <row r="9" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="93"/>
-      <c r="AH9" s="196"/>
-      <c r="AJ9" s="76"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="93"/>
-      <c r="BD9" s="76"/>
-      <c r="BH9" s="92"/>
-      <c r="BI9" s="76"/>
-      <c r="BV9" s="76"/>
-      <c r="CD9" s="196"/>
-      <c r="CE9" s="93"/>
-      <c r="CM9" s="92"/>
-      <c r="CN9" s="93"/>
-      <c r="CW9" s="92"/>
-      <c r="CX9" s="76"/>
+      <c r="B9" s="88"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="88"/>
+      <c r="AH9" s="191"/>
+      <c r="AJ9" s="71"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="88"/>
+      <c r="BD9" s="71"/>
+      <c r="BH9" s="87"/>
+      <c r="BI9" s="71"/>
+      <c r="BV9" s="71"/>
+      <c r="CD9" s="191"/>
+      <c r="CE9" s="88"/>
+      <c r="CM9" s="87"/>
+      <c r="CN9" s="88"/>
+      <c r="CW9" s="87"/>
+      <c r="CX9" s="71"/>
     </row>
-    <row r="10" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+    <row r="10" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="93"/>
-      <c r="AH10" s="196"/>
-      <c r="AJ10" s="76"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="93"/>
-      <c r="BD10" s="76"/>
-      <c r="BH10" s="92"/>
-      <c r="BI10" s="76"/>
-      <c r="BV10" s="76"/>
-      <c r="CD10" s="196"/>
-      <c r="CE10" s="93"/>
-      <c r="CM10" s="92"/>
-      <c r="CN10" s="93"/>
-      <c r="CW10" s="92"/>
-      <c r="CX10" s="76"/>
+      <c r="B10" s="88"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="88"/>
+      <c r="AH10" s="191"/>
+      <c r="AJ10" s="71"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="88"/>
+      <c r="BD10" s="71"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="71"/>
+      <c r="BV10" s="71"/>
+      <c r="CD10" s="191"/>
+      <c r="CE10" s="88"/>
+      <c r="CM10" s="87"/>
+      <c r="CN10" s="88"/>
+      <c r="CW10" s="87"/>
+      <c r="CX10" s="71"/>
     </row>
-    <row r="11" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+    <row r="11" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="93"/>
-      <c r="AH11" s="196"/>
-      <c r="AJ11" s="76"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="93"/>
-      <c r="BD11" s="76"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="76"/>
-      <c r="BV11" s="76"/>
-      <c r="CD11" s="196"/>
-      <c r="CE11" s="93"/>
-      <c r="CM11" s="92"/>
-      <c r="CN11" s="93"/>
-      <c r="CW11" s="92"/>
-      <c r="CX11" s="76"/>
+      <c r="B11" s="88"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="88"/>
+      <c r="AH11" s="191"/>
+      <c r="AJ11" s="71"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="88"/>
+      <c r="BD11" s="71"/>
+      <c r="BH11" s="87"/>
+      <c r="BI11" s="71"/>
+      <c r="BV11" s="71"/>
+      <c r="CD11" s="191"/>
+      <c r="CE11" s="88"/>
+      <c r="CM11" s="87"/>
+      <c r="CN11" s="88"/>
+      <c r="CW11" s="87"/>
+      <c r="CX11" s="71"/>
     </row>
-    <row r="12" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+    <row r="12" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="I12" s="70"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="93"/>
-      <c r="AH12" s="196"/>
-      <c r="AJ12" s="76"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="93"/>
-      <c r="BD12" s="76"/>
-      <c r="BH12" s="92"/>
-      <c r="BI12" s="76"/>
-      <c r="BV12" s="76"/>
-      <c r="CD12" s="196"/>
-      <c r="CE12" s="93"/>
-      <c r="CM12" s="92"/>
-      <c r="CN12" s="93"/>
-      <c r="CW12" s="92"/>
-      <c r="CX12" s="76"/>
+      <c r="B12" s="88"/>
+      <c r="I12" s="65"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
+      <c r="AH12" s="191"/>
+      <c r="AJ12" s="71"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="88"/>
+      <c r="BD12" s="71"/>
+      <c r="BH12" s="87"/>
+      <c r="BI12" s="71"/>
+      <c r="BV12" s="71"/>
+      <c r="CD12" s="191"/>
+      <c r="CE12" s="88"/>
+      <c r="CM12" s="87"/>
+      <c r="CN12" s="88"/>
+      <c r="CW12" s="87"/>
+      <c r="CX12" s="71"/>
     </row>
-    <row r="13" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+    <row r="13" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="J13" s="70"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="93"/>
-      <c r="AH13" s="196"/>
-      <c r="AJ13" s="76"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="93"/>
-      <c r="BD13" s="76"/>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="76"/>
-      <c r="BV13" s="76"/>
-      <c r="CD13" s="196"/>
-      <c r="CE13" s="93"/>
-      <c r="CM13" s="92"/>
-      <c r="CN13" s="93"/>
-      <c r="CW13" s="92"/>
-      <c r="CX13" s="76"/>
+      <c r="B13" s="88"/>
+      <c r="J13" s="65"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="AH13" s="191"/>
+      <c r="AJ13" s="71"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="88"/>
+      <c r="BD13" s="71"/>
+      <c r="BH13" s="87"/>
+      <c r="BI13" s="71"/>
+      <c r="BV13" s="71"/>
+      <c r="CD13" s="191"/>
+      <c r="CE13" s="88"/>
+      <c r="CM13" s="87"/>
+      <c r="CN13" s="88"/>
+      <c r="CW13" s="87"/>
+      <c r="CX13" s="71"/>
     </row>
-    <row r="14" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+    <row r="14" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="J14" s="70"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="93"/>
-      <c r="AH14" s="196"/>
-      <c r="AJ14" s="76"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="93"/>
-      <c r="BD14" s="76"/>
-      <c r="BH14" s="92"/>
-      <c r="BI14" s="76"/>
-      <c r="BV14" s="76"/>
-      <c r="CD14" s="196"/>
-      <c r="CE14" s="93"/>
-      <c r="CM14" s="92"/>
-      <c r="CN14" s="93"/>
-      <c r="CW14" s="92"/>
-      <c r="CX14" s="76"/>
+      <c r="B14" s="88"/>
+      <c r="J14" s="65"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+      <c r="AH14" s="191"/>
+      <c r="AJ14" s="71"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="88"/>
+      <c r="BD14" s="71"/>
+      <c r="BH14" s="87"/>
+      <c r="BI14" s="71"/>
+      <c r="BV14" s="71"/>
+      <c r="CD14" s="191"/>
+      <c r="CE14" s="88"/>
+      <c r="CM14" s="87"/>
+      <c r="CN14" s="88"/>
+      <c r="CW14" s="87"/>
+      <c r="CX14" s="71"/>
     </row>
-    <row r="15" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+    <row r="15" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="93"/>
-      <c r="AH15" s="196"/>
-      <c r="AJ15" s="76"/>
-      <c r="AL15" s="92"/>
-      <c r="AM15" s="93"/>
-      <c r="BD15" s="76"/>
-      <c r="BH15" s="92"/>
-      <c r="BI15" s="76"/>
-      <c r="BV15" s="76"/>
-      <c r="CD15" s="196"/>
-      <c r="CE15" s="93"/>
-      <c r="CM15" s="92"/>
-      <c r="CN15" s="93"/>
-      <c r="CW15" s="92"/>
-      <c r="CX15" s="76"/>
+      <c r="B15" s="88"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="AH15" s="191"/>
+      <c r="AJ15" s="71"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="88"/>
+      <c r="BD15" s="71"/>
+      <c r="BH15" s="87"/>
+      <c r="BI15" s="71"/>
+      <c r="BV15" s="71"/>
+      <c r="CD15" s="191"/>
+      <c r="CE15" s="88"/>
+      <c r="CM15" s="87"/>
+      <c r="CN15" s="88"/>
+      <c r="CW15" s="87"/>
+      <c r="CX15" s="71"/>
     </row>
-    <row r="16" spans="1:102" s="121" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="119" t="s">
+    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="173">
+      <c r="B16" s="115"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="168">
         <v>16</v>
       </c>
-      <c r="R16" s="120"/>
-      <c r="AH16" s="197"/>
-      <c r="AJ16" s="123"/>
-      <c r="AL16" s="171"/>
-      <c r="AM16" s="120"/>
-      <c r="BD16" s="123"/>
-      <c r="BH16" s="171"/>
-      <c r="BI16" s="123"/>
-      <c r="BV16" s="123"/>
-      <c r="CD16" s="197"/>
-      <c r="CE16" s="120"/>
-      <c r="CM16" s="171"/>
-      <c r="CN16" s="120"/>
-      <c r="CW16" s="171"/>
-      <c r="CX16" s="123"/>
+      <c r="R16" s="115"/>
+      <c r="AH16" s="192"/>
+      <c r="AJ16" s="118"/>
+      <c r="AL16" s="166"/>
+      <c r="AM16" s="115"/>
+      <c r="BD16" s="118"/>
+      <c r="BH16" s="166"/>
+      <c r="BI16" s="118"/>
+      <c r="BV16" s="118"/>
+      <c r="CD16" s="192"/>
+      <c r="CE16" s="115"/>
+      <c r="CM16" s="166"/>
+      <c r="CN16" s="115"/>
+      <c r="CW16" s="166"/>
+      <c r="CX16" s="118"/>
     </row>
-    <row r="17" spans="1:102" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="124" t="s">
+    <row r="17" spans="1:102" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="125"/>
-      <c r="AH17" s="198"/>
-      <c r="AJ17" s="128"/>
-      <c r="AL17" s="127"/>
-      <c r="AM17" s="125"/>
-      <c r="BD17" s="128"/>
-      <c r="BH17" s="127"/>
-      <c r="BI17" s="128"/>
-      <c r="BV17" s="128"/>
-      <c r="CD17" s="198"/>
-      <c r="CE17" s="125"/>
-      <c r="CM17" s="127"/>
-      <c r="CN17" s="125"/>
-      <c r="CW17" s="127"/>
-      <c r="CX17" s="128"/>
+      <c r="B17" s="120"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="120"/>
+      <c r="AH17" s="193"/>
+      <c r="AJ17" s="123"/>
+      <c r="AL17" s="122"/>
+      <c r="AM17" s="120"/>
+      <c r="BD17" s="123"/>
+      <c r="BH17" s="122"/>
+      <c r="BI17" s="123"/>
+      <c r="BV17" s="123"/>
+      <c r="CD17" s="193"/>
+      <c r="CE17" s="120"/>
+      <c r="CM17" s="122"/>
+      <c r="CN17" s="120"/>
+      <c r="CW17" s="122"/>
+      <c r="CX17" s="123"/>
     </row>
-    <row r="18" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+    <row r="18" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="172"/>
-      <c r="AK18" s="199"/>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="94"/>
-      <c r="BD18" s="77"/>
-      <c r="BH18" s="95"/>
-      <c r="BI18" s="77"/>
-      <c r="BV18" s="77"/>
-      <c r="CD18" s="199"/>
-      <c r="CE18" s="94"/>
-      <c r="CM18" s="95"/>
-      <c r="CN18" s="94"/>
-      <c r="CW18" s="95"/>
-      <c r="CX18" s="77"/>
+      <c r="B18" s="89"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="167"/>
+      <c r="AK18" s="194"/>
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="89"/>
+      <c r="BD18" s="72"/>
+      <c r="BH18" s="90"/>
+      <c r="BI18" s="72"/>
+      <c r="BV18" s="72"/>
+      <c r="CD18" s="194"/>
+      <c r="CE18" s="89"/>
+      <c r="CM18" s="90"/>
+      <c r="CN18" s="89"/>
+      <c r="CW18" s="90"/>
+      <c r="CX18" s="72"/>
     </row>
-    <row r="19" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+    <row r="19" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="172"/>
-      <c r="AK19" s="199"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="94"/>
-      <c r="BD19" s="77"/>
-      <c r="BH19" s="95"/>
-      <c r="BI19" s="77"/>
-      <c r="BV19" s="77"/>
-      <c r="CD19" s="199"/>
-      <c r="CE19" s="94"/>
-      <c r="CM19" s="95"/>
-      <c r="CN19" s="94"/>
-      <c r="CW19" s="95"/>
-      <c r="CX19" s="77"/>
+      <c r="B19" s="89"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="167"/>
+      <c r="AK19" s="194"/>
+      <c r="AL19" s="90"/>
+      <c r="AM19" s="89"/>
+      <c r="BD19" s="72"/>
+      <c r="BH19" s="90"/>
+      <c r="BI19" s="72"/>
+      <c r="BV19" s="72"/>
+      <c r="CD19" s="194"/>
+      <c r="CE19" s="89"/>
+      <c r="CM19" s="90"/>
+      <c r="CN19" s="89"/>
+      <c r="CW19" s="90"/>
+      <c r="CX19" s="72"/>
     </row>
-    <row r="20" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+    <row r="20" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="72"/>
-      <c r="AK20" s="199"/>
-      <c r="AL20" s="95"/>
-      <c r="AM20" s="94"/>
-      <c r="BD20" s="77"/>
-      <c r="BH20" s="95"/>
-      <c r="BI20" s="77"/>
-      <c r="BV20" s="77"/>
-      <c r="CD20" s="199"/>
-      <c r="CE20" s="94"/>
-      <c r="CM20" s="95"/>
-      <c r="CN20" s="94"/>
-      <c r="CW20" s="95"/>
-      <c r="CX20" s="77"/>
+      <c r="B20" s="89"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="67"/>
+      <c r="AK20" s="194"/>
+      <c r="AL20" s="90"/>
+      <c r="AM20" s="89"/>
+      <c r="BD20" s="72"/>
+      <c r="BH20" s="90"/>
+      <c r="BI20" s="72"/>
+      <c r="BV20" s="72"/>
+      <c r="CD20" s="194"/>
+      <c r="CE20" s="89"/>
+      <c r="CM20" s="90"/>
+      <c r="CN20" s="89"/>
+      <c r="CW20" s="90"/>
+      <c r="CX20" s="72"/>
     </row>
-    <row r="21" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
+    <row r="21" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="94"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AK21" s="199"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="94"/>
-      <c r="BD21" s="77"/>
-      <c r="BH21" s="95"/>
-      <c r="BI21" s="77"/>
-      <c r="BV21" s="77"/>
-      <c r="CD21" s="199"/>
-      <c r="CE21" s="94"/>
-      <c r="CM21" s="95"/>
-      <c r="CN21" s="94"/>
-      <c r="CW21" s="95"/>
-      <c r="CX21" s="77"/>
+      <c r="B21" s="89"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="89"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AK21" s="194"/>
+      <c r="AL21" s="90"/>
+      <c r="AM21" s="89"/>
+      <c r="BD21" s="72"/>
+      <c r="BH21" s="90"/>
+      <c r="BI21" s="72"/>
+      <c r="BV21" s="72"/>
+      <c r="CD21" s="194"/>
+      <c r="CE21" s="89"/>
+      <c r="CM21" s="90"/>
+      <c r="CN21" s="89"/>
+      <c r="CW21" s="90"/>
+      <c r="CX21" s="72"/>
     </row>
-    <row r="22" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+    <row r="22" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="94"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="AK22" s="199"/>
-      <c r="AL22" s="95"/>
-      <c r="AM22" s="94"/>
-      <c r="BD22" s="77"/>
-      <c r="BH22" s="95"/>
-      <c r="BI22" s="77"/>
-      <c r="BV22" s="77"/>
-      <c r="CD22" s="199"/>
-      <c r="CE22" s="94"/>
-      <c r="CM22" s="95"/>
-      <c r="CN22" s="94"/>
-      <c r="CW22" s="95"/>
-      <c r="CX22" s="77"/>
+      <c r="B22" s="89"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="89"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="AK22" s="194"/>
+      <c r="AL22" s="90"/>
+      <c r="AM22" s="89"/>
+      <c r="BD22" s="72"/>
+      <c r="BH22" s="90"/>
+      <c r="BI22" s="72"/>
+      <c r="BV22" s="72"/>
+      <c r="CD22" s="194"/>
+      <c r="CE22" s="89"/>
+      <c r="CM22" s="90"/>
+      <c r="CN22" s="89"/>
+      <c r="CW22" s="90"/>
+      <c r="CX22" s="72"/>
     </row>
-    <row r="23" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
+    <row r="23" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="174" t="s">
+      <c r="B23" s="89"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="AK23" s="199"/>
-      <c r="AL23" s="95"/>
-      <c r="AM23" s="94"/>
-      <c r="BD23" s="77"/>
-      <c r="BH23" s="95"/>
-      <c r="BI23" s="77"/>
-      <c r="BV23" s="77"/>
-      <c r="CD23" s="199"/>
-      <c r="CE23" s="94"/>
-      <c r="CM23" s="95"/>
-      <c r="CN23" s="94"/>
-      <c r="CW23" s="95"/>
-      <c r="CX23" s="77"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="AK23" s="194"/>
+      <c r="AL23" s="90"/>
+      <c r="AM23" s="89"/>
+      <c r="BD23" s="72"/>
+      <c r="BH23" s="90"/>
+      <c r="BI23" s="72"/>
+      <c r="BV23" s="72"/>
+      <c r="CD23" s="194"/>
+      <c r="CE23" s="89"/>
+      <c r="CM23" s="90"/>
+      <c r="CN23" s="89"/>
+      <c r="CW23" s="90"/>
+      <c r="CX23" s="72"/>
     </row>
-    <row r="24" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+    <row r="24" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="94"/>
-      <c r="AK24" s="199"/>
-      <c r="AL24" s="95"/>
-      <c r="AM24" s="94"/>
-      <c r="BD24" s="77"/>
-      <c r="BH24" s="95"/>
-      <c r="BI24" s="77"/>
-      <c r="BV24" s="77"/>
-      <c r="CD24" s="199"/>
-      <c r="CE24" s="94"/>
-      <c r="CM24" s="95"/>
-      <c r="CN24" s="94"/>
-      <c r="CW24" s="95"/>
-      <c r="CX24" s="77"/>
+      <c r="B24" s="89"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="89"/>
+      <c r="AK24" s="194"/>
+      <c r="AL24" s="90"/>
+      <c r="AM24" s="89"/>
+      <c r="BD24" s="72"/>
+      <c r="BH24" s="90"/>
+      <c r="BI24" s="72"/>
+      <c r="BV24" s="72"/>
+      <c r="CD24" s="194"/>
+      <c r="CE24" s="89"/>
+      <c r="CM24" s="90"/>
+      <c r="CN24" s="89"/>
+      <c r="CW24" s="90"/>
+      <c r="CX24" s="72"/>
     </row>
-    <row r="25" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+    <row r="25" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="94"/>
-      <c r="AB25" s="72"/>
-      <c r="AK25" s="199"/>
-      <c r="AL25" s="95"/>
-      <c r="AM25" s="94"/>
-      <c r="BD25" s="77"/>
-      <c r="BH25" s="95"/>
-      <c r="BI25" s="77"/>
-      <c r="BV25" s="77"/>
-      <c r="CD25" s="199"/>
-      <c r="CE25" s="94"/>
-      <c r="CM25" s="95"/>
-      <c r="CN25" s="94"/>
-      <c r="CW25" s="95"/>
-      <c r="CX25" s="77"/>
+      <c r="B25" s="89"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="89"/>
+      <c r="AB25" s="67"/>
+      <c r="AK25" s="194"/>
+      <c r="AL25" s="90"/>
+      <c r="AM25" s="89"/>
+      <c r="BD25" s="72"/>
+      <c r="BH25" s="90"/>
+      <c r="BI25" s="72"/>
+      <c r="BV25" s="72"/>
+      <c r="CD25" s="194"/>
+      <c r="CE25" s="89"/>
+      <c r="CM25" s="90"/>
+      <c r="CN25" s="89"/>
+      <c r="CW25" s="90"/>
+      <c r="CX25" s="72"/>
     </row>
-    <row r="26" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+    <row r="26" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="94"/>
-      <c r="AC26" s="72"/>
-      <c r="AK26" s="199"/>
-      <c r="AL26" s="95"/>
-      <c r="AM26" s="94"/>
-      <c r="BD26" s="77"/>
-      <c r="BH26" s="95"/>
-      <c r="BI26" s="77"/>
-      <c r="BV26" s="77"/>
-      <c r="CD26" s="199"/>
-      <c r="CE26" s="94"/>
-      <c r="CM26" s="95"/>
-      <c r="CN26" s="94"/>
-      <c r="CW26" s="95"/>
-      <c r="CX26" s="77"/>
+      <c r="B26" s="89"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="89"/>
+      <c r="AC26" s="67"/>
+      <c r="AK26" s="194"/>
+      <c r="AL26" s="90"/>
+      <c r="AM26" s="89"/>
+      <c r="BD26" s="72"/>
+      <c r="BH26" s="90"/>
+      <c r="BI26" s="72"/>
+      <c r="BV26" s="72"/>
+      <c r="CD26" s="194"/>
+      <c r="CE26" s="89"/>
+      <c r="CM26" s="90"/>
+      <c r="CN26" s="89"/>
+      <c r="CW26" s="90"/>
+      <c r="CX26" s="72"/>
     </row>
-    <row r="27" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="94"/>
-      <c r="AA27" s="72"/>
-      <c r="AK27" s="199"/>
-      <c r="AL27" s="95"/>
-      <c r="AM27" s="94"/>
-      <c r="BD27" s="77"/>
-      <c r="BH27" s="95"/>
-      <c r="BI27" s="77"/>
-      <c r="BV27" s="77"/>
-      <c r="CD27" s="199"/>
-      <c r="CE27" s="94"/>
-      <c r="CM27" s="95"/>
-      <c r="CN27" s="94"/>
-      <c r="CW27" s="95"/>
-      <c r="CX27" s="77"/>
+      <c r="B27" s="89"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="89"/>
+      <c r="AA27" s="67"/>
+      <c r="AK27" s="194"/>
+      <c r="AL27" s="90"/>
+      <c r="AM27" s="89"/>
+      <c r="BD27" s="72"/>
+      <c r="BH27" s="90"/>
+      <c r="BI27" s="72"/>
+      <c r="BV27" s="72"/>
+      <c r="CD27" s="194"/>
+      <c r="CE27" s="89"/>
+      <c r="CM27" s="90"/>
+      <c r="CN27" s="89"/>
+      <c r="CW27" s="90"/>
+      <c r="CX27" s="72"/>
     </row>
-    <row r="28" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86" t="s">
+    <row r="28" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="94"/>
-      <c r="Z28" s="72"/>
-      <c r="AK28" s="199"/>
-      <c r="AL28" s="95"/>
-      <c r="AM28" s="94"/>
-      <c r="BD28" s="77"/>
-      <c r="BH28" s="95"/>
-      <c r="BI28" s="77"/>
-      <c r="BV28" s="77"/>
-      <c r="CD28" s="199"/>
-      <c r="CE28" s="94"/>
-      <c r="CM28" s="95"/>
-      <c r="CN28" s="94"/>
-      <c r="CW28" s="95"/>
-      <c r="CX28" s="77"/>
+      <c r="B28" s="89"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="89"/>
+      <c r="Z28" s="67"/>
+      <c r="AK28" s="194"/>
+      <c r="AL28" s="90"/>
+      <c r="AM28" s="89"/>
+      <c r="BD28" s="72"/>
+      <c r="BH28" s="90"/>
+      <c r="BI28" s="72"/>
+      <c r="BV28" s="72"/>
+      <c r="CD28" s="194"/>
+      <c r="CE28" s="89"/>
+      <c r="CM28" s="90"/>
+      <c r="CN28" s="89"/>
+      <c r="CW28" s="90"/>
+      <c r="CX28" s="72"/>
     </row>
-    <row r="29" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
+    <row r="29" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="94"/>
-      <c r="Y29" s="72"/>
-      <c r="AK29" s="199"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="94"/>
-      <c r="BD29" s="77"/>
-      <c r="BH29" s="95"/>
-      <c r="BI29" s="77"/>
-      <c r="BV29" s="77"/>
-      <c r="CD29" s="199"/>
-      <c r="CE29" s="94"/>
-      <c r="CM29" s="95"/>
-      <c r="CN29" s="94"/>
-      <c r="CW29" s="95"/>
-      <c r="CX29" s="77"/>
+      <c r="B29" s="89"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="89"/>
+      <c r="Y29" s="67"/>
+      <c r="AK29" s="194"/>
+      <c r="AL29" s="90"/>
+      <c r="AM29" s="89"/>
+      <c r="BD29" s="72"/>
+      <c r="BH29" s="90"/>
+      <c r="BI29" s="72"/>
+      <c r="BV29" s="72"/>
+      <c r="CD29" s="194"/>
+      <c r="CE29" s="89"/>
+      <c r="CM29" s="90"/>
+      <c r="CN29" s="89"/>
+      <c r="CW29" s="90"/>
+      <c r="CX29" s="72"/>
     </row>
-    <row r="30" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+    <row r="30" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="94"/>
-      <c r="AD30" s="72"/>
-      <c r="AK30" s="199"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="94"/>
-      <c r="BD30" s="77"/>
-      <c r="BH30" s="95"/>
-      <c r="BI30" s="77"/>
-      <c r="BV30" s="77"/>
-      <c r="CD30" s="199"/>
-      <c r="CE30" s="94"/>
-      <c r="CM30" s="95"/>
-      <c r="CN30" s="94"/>
-      <c r="CW30" s="95"/>
-      <c r="CX30" s="77"/>
+      <c r="B30" s="89"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="89"/>
+      <c r="AD30" s="67"/>
+      <c r="AK30" s="194"/>
+      <c r="AL30" s="90"/>
+      <c r="AM30" s="89"/>
+      <c r="BD30" s="72"/>
+      <c r="BH30" s="90"/>
+      <c r="BI30" s="72"/>
+      <c r="BV30" s="72"/>
+      <c r="CD30" s="194"/>
+      <c r="CE30" s="89"/>
+      <c r="CM30" s="90"/>
+      <c r="CN30" s="89"/>
+      <c r="CW30" s="90"/>
+      <c r="CX30" s="72"/>
     </row>
-    <row r="31" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="85" t="s">
+    <row r="31" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="72"/>
-      <c r="AK31" s="199"/>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="94"/>
-      <c r="BD31" s="77"/>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="77"/>
-      <c r="BV31" s="77"/>
-      <c r="CD31" s="199"/>
-      <c r="CE31" s="94"/>
-      <c r="CM31" s="95"/>
-      <c r="CN31" s="94"/>
-      <c r="CW31" s="95"/>
-      <c r="CX31" s="77"/>
+      <c r="B31" s="89"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="67"/>
+      <c r="AK31" s="194"/>
+      <c r="AL31" s="90"/>
+      <c r="AM31" s="89"/>
+      <c r="BD31" s="72"/>
+      <c r="BH31" s="90"/>
+      <c r="BI31" s="72"/>
+      <c r="BV31" s="72"/>
+      <c r="CD31" s="194"/>
+      <c r="CE31" s="89"/>
+      <c r="CM31" s="90"/>
+      <c r="CN31" s="89"/>
+      <c r="CW31" s="90"/>
+      <c r="CX31" s="72"/>
     </row>
-    <row r="32" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
+    <row r="32" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="94"/>
-      <c r="AE32" s="72"/>
-      <c r="AK32" s="199"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="94"/>
-      <c r="BD32" s="77"/>
-      <c r="BH32" s="95"/>
-      <c r="BI32" s="77"/>
-      <c r="BV32" s="77"/>
-      <c r="CD32" s="199"/>
-      <c r="CE32" s="94"/>
-      <c r="CM32" s="95"/>
-      <c r="CN32" s="94"/>
-      <c r="CW32" s="95"/>
-      <c r="CX32" s="77"/>
+      <c r="B32" s="89"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="89"/>
+      <c r="AE32" s="67"/>
+      <c r="AK32" s="194"/>
+      <c r="AL32" s="90"/>
+      <c r="AM32" s="89"/>
+      <c r="BD32" s="72"/>
+      <c r="BH32" s="90"/>
+      <c r="BI32" s="72"/>
+      <c r="BV32" s="72"/>
+      <c r="CD32" s="194"/>
+      <c r="CE32" s="89"/>
+      <c r="CM32" s="90"/>
+      <c r="CN32" s="89"/>
+      <c r="CW32" s="90"/>
+      <c r="CX32" s="72"/>
     </row>
-    <row r="33" spans="1:102" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="85" t="s">
+    <row r="33" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="94"/>
-      <c r="AE33" s="72"/>
-      <c r="AK33" s="199"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="94"/>
-      <c r="BD33" s="77"/>
-      <c r="BH33" s="95"/>
-      <c r="BI33" s="77"/>
-      <c r="BV33" s="77"/>
-      <c r="CD33" s="199"/>
-      <c r="CE33" s="94"/>
-      <c r="CM33" s="95"/>
-      <c r="CN33" s="94"/>
-      <c r="CW33" s="95"/>
-      <c r="CX33" s="77"/>
+      <c r="B33" s="89"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="89"/>
+      <c r="AE33" s="67"/>
+      <c r="AK33" s="194"/>
+      <c r="AL33" s="90"/>
+      <c r="AM33" s="89"/>
+      <c r="BD33" s="72"/>
+      <c r="BH33" s="90"/>
+      <c r="BI33" s="72"/>
+      <c r="BV33" s="72"/>
+      <c r="CD33" s="194"/>
+      <c r="CE33" s="89"/>
+      <c r="CM33" s="90"/>
+      <c r="CN33" s="89"/>
+      <c r="CW33" s="90"/>
+      <c r="CX33" s="72"/>
     </row>
-    <row r="34" spans="1:102" s="131" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="129" t="s">
+    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="130"/>
-      <c r="P34" s="133"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="133"/>
-      <c r="AF34" s="169"/>
-      <c r="AG34" s="169"/>
-      <c r="AH34" s="169"/>
-      <c r="AI34" s="169"/>
-      <c r="AJ34" s="169"/>
-      <c r="AK34" s="222"/>
-      <c r="AL34" s="175">
+      <c r="B34" s="125"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="128"/>
+      <c r="AF34" s="164"/>
+      <c r="AG34" s="164"/>
+      <c r="AH34" s="164"/>
+      <c r="AI34" s="164"/>
+      <c r="AJ34" s="164"/>
+      <c r="AK34" s="217"/>
+      <c r="AL34" s="170">
         <v>21</v>
       </c>
-      <c r="AM34" s="130"/>
-      <c r="BD34" s="133"/>
-      <c r="BH34" s="132"/>
-      <c r="BI34" s="133"/>
-      <c r="BV34" s="133"/>
-      <c r="CD34" s="200"/>
-      <c r="CE34" s="130"/>
-      <c r="CM34" s="132"/>
-      <c r="CN34" s="130"/>
-      <c r="CW34" s="132"/>
-      <c r="CX34" s="133"/>
+      <c r="AM34" s="125"/>
+      <c r="BD34" s="128"/>
+      <c r="BH34" s="127"/>
+      <c r="BI34" s="128"/>
+      <c r="BV34" s="128"/>
+      <c r="CD34" s="195"/>
+      <c r="CE34" s="125"/>
+      <c r="CM34" s="127"/>
+      <c r="CN34" s="125"/>
+      <c r="CW34" s="127"/>
+      <c r="CX34" s="128"/>
     </row>
-    <row r="35" spans="1:102" s="136" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="134" t="s">
+    <row r="35" spans="1:102" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="135"/>
-      <c r="P35" s="138"/>
-      <c r="Q35" s="137"/>
-      <c r="R35" s="135"/>
-      <c r="AH35" s="201"/>
-      <c r="AJ35" s="138"/>
-      <c r="AL35" s="137"/>
-      <c r="AM35" s="135"/>
-      <c r="BD35" s="138"/>
-      <c r="BH35" s="137"/>
-      <c r="BI35" s="138"/>
-      <c r="BV35" s="138"/>
-      <c r="CD35" s="201"/>
-      <c r="CE35" s="135"/>
-      <c r="CM35" s="137"/>
-      <c r="CN35" s="135"/>
-      <c r="CW35" s="137"/>
-      <c r="CX35" s="138"/>
+      <c r="B35" s="130"/>
+      <c r="P35" s="133"/>
+      <c r="Q35" s="132"/>
+      <c r="R35" s="130"/>
+      <c r="AH35" s="196"/>
+      <c r="AJ35" s="133"/>
+      <c r="AL35" s="132"/>
+      <c r="AM35" s="130"/>
+      <c r="BD35" s="133"/>
+      <c r="BH35" s="132"/>
+      <c r="BI35" s="133"/>
+      <c r="BV35" s="133"/>
+      <c r="CD35" s="196"/>
+      <c r="CE35" s="130"/>
+      <c r="CM35" s="132"/>
+      <c r="CN35" s="130"/>
+      <c r="CW35" s="132"/>
+      <c r="CX35" s="133"/>
     </row>
-    <row r="36" spans="1:102" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="87" t="s">
+    <row r="36" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="96"/>
-      <c r="AH36" s="202"/>
-      <c r="AL36" s="97"/>
-      <c r="AM36" s="184"/>
-      <c r="BH36" s="97"/>
-      <c r="BI36" s="78"/>
-      <c r="BV36" s="78"/>
-      <c r="CD36" s="202"/>
-      <c r="CE36" s="96"/>
-      <c r="CM36" s="97"/>
-      <c r="CN36" s="96"/>
-      <c r="CW36" s="97"/>
-      <c r="CX36" s="78"/>
+      <c r="B36" s="91"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="91"/>
+      <c r="AH36" s="197"/>
+      <c r="AL36" s="92"/>
+      <c r="AM36" s="179"/>
+      <c r="BH36" s="92"/>
+      <c r="BI36" s="73"/>
+      <c r="BV36" s="73"/>
+      <c r="CD36" s="197"/>
+      <c r="CE36" s="91"/>
+      <c r="CM36" s="92"/>
+      <c r="CN36" s="91"/>
+      <c r="CW36" s="92"/>
+      <c r="CX36" s="73"/>
     </row>
-    <row r="37" spans="1:102" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
+    <row r="37" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="96"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="96"/>
-      <c r="AH37" s="202"/>
-      <c r="AL37" s="97"/>
-      <c r="AM37" s="96"/>
-      <c r="AN37" s="176"/>
-      <c r="AO37" s="176"/>
-      <c r="BH37" s="97"/>
-      <c r="BI37" s="78"/>
-      <c r="BV37" s="78"/>
-      <c r="CD37" s="202"/>
-      <c r="CE37" s="96"/>
-      <c r="CM37" s="97"/>
-      <c r="CN37" s="96"/>
-      <c r="CW37" s="97"/>
-      <c r="CX37" s="78"/>
+      <c r="B37" s="91"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="91"/>
+      <c r="AH37" s="197"/>
+      <c r="AL37" s="92"/>
+      <c r="AM37" s="91"/>
+      <c r="AN37" s="171"/>
+      <c r="AO37" s="171"/>
+      <c r="BH37" s="92"/>
+      <c r="BI37" s="73"/>
+      <c r="BV37" s="73"/>
+      <c r="CD37" s="197"/>
+      <c r="CE37" s="91"/>
+      <c r="CM37" s="92"/>
+      <c r="CN37" s="91"/>
+      <c r="CW37" s="92"/>
+      <c r="CX37" s="73"/>
     </row>
-    <row r="38" spans="1:102" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87" t="s">
+    <row r="38" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="96"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="96"/>
-      <c r="AH38" s="202"/>
-      <c r="AL38" s="97"/>
-      <c r="AM38" s="96"/>
-      <c r="AP38" s="176"/>
-      <c r="BH38" s="97"/>
-      <c r="BI38" s="78"/>
-      <c r="BV38" s="78"/>
-      <c r="CD38" s="202"/>
-      <c r="CE38" s="96"/>
-      <c r="CM38" s="97"/>
-      <c r="CN38" s="96"/>
-      <c r="CW38" s="97"/>
-      <c r="CX38" s="78"/>
+      <c r="B38" s="91"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="91"/>
+      <c r="AH38" s="197"/>
+      <c r="AL38" s="92"/>
+      <c r="AM38" s="91"/>
+      <c r="AP38" s="171"/>
+      <c r="BH38" s="92"/>
+      <c r="BI38" s="73"/>
+      <c r="BV38" s="73"/>
+      <c r="CD38" s="197"/>
+      <c r="CE38" s="91"/>
+      <c r="CM38" s="92"/>
+      <c r="CN38" s="91"/>
+      <c r="CW38" s="92"/>
+      <c r="CX38" s="73"/>
     </row>
-    <row r="39" spans="1:102" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
+    <row r="39" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="96"/>
-      <c r="AH39" s="202"/>
-      <c r="AL39" s="97"/>
-      <c r="AM39" s="96"/>
-      <c r="BH39" s="97"/>
-      <c r="BI39" s="78"/>
-      <c r="BV39" s="78"/>
-      <c r="CD39" s="202"/>
-      <c r="CE39" s="96"/>
-      <c r="CM39" s="97"/>
-      <c r="CN39" s="96"/>
-      <c r="CW39" s="97"/>
-      <c r="CX39" s="78"/>
+      <c r="B39" s="91"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="91"/>
+      <c r="AH39" s="197"/>
+      <c r="AL39" s="92"/>
+      <c r="AM39" s="91"/>
+      <c r="BH39" s="92"/>
+      <c r="BI39" s="73"/>
+      <c r="BV39" s="73"/>
+      <c r="CD39" s="197"/>
+      <c r="CE39" s="91"/>
+      <c r="CM39" s="92"/>
+      <c r="CN39" s="91"/>
+      <c r="CW39" s="92"/>
+      <c r="CX39" s="73"/>
     </row>
-    <row r="40" spans="1:102" s="179" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="177" t="s">
+    <row r="40" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="178"/>
-      <c r="P40" s="181"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="178"/>
-      <c r="AH40" s="203"/>
-      <c r="AL40" s="180"/>
-      <c r="AM40" s="178"/>
-      <c r="AT40" s="182"/>
-      <c r="BH40" s="180"/>
-      <c r="BI40" s="181"/>
-      <c r="BV40" s="181"/>
-      <c r="CD40" s="203"/>
-      <c r="CE40" s="178"/>
-      <c r="CM40" s="180"/>
-      <c r="CN40" s="178"/>
-      <c r="CW40" s="180"/>
-      <c r="CX40" s="181"/>
+      <c r="B40" s="173"/>
+      <c r="P40" s="176"/>
+      <c r="Q40" s="175"/>
+      <c r="R40" s="173"/>
+      <c r="AH40" s="198"/>
+      <c r="AL40" s="175"/>
+      <c r="AM40" s="173"/>
+      <c r="AT40" s="177"/>
+      <c r="BH40" s="175"/>
+      <c r="BI40" s="176"/>
+      <c r="BV40" s="176"/>
+      <c r="CD40" s="198"/>
+      <c r="CE40" s="173"/>
+      <c r="CM40" s="175"/>
+      <c r="CN40" s="173"/>
+      <c r="CW40" s="175"/>
+      <c r="CX40" s="176"/>
     </row>
-    <row r="41" spans="1:102" s="179" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="177" t="s">
+    <row r="41" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="178"/>
-      <c r="P41" s="181"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="178"/>
-      <c r="AH41" s="203"/>
-      <c r="AL41" s="180"/>
-      <c r="AM41" s="178"/>
-      <c r="AU41" s="182"/>
-      <c r="BH41" s="180"/>
-      <c r="BI41" s="181"/>
-      <c r="BV41" s="181"/>
-      <c r="CD41" s="203"/>
-      <c r="CE41" s="178"/>
-      <c r="CM41" s="180"/>
-      <c r="CN41" s="178"/>
-      <c r="CW41" s="180"/>
-      <c r="CX41" s="181"/>
+      <c r="B41" s="173"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="175"/>
+      <c r="R41" s="173"/>
+      <c r="AH41" s="198"/>
+      <c r="AL41" s="175"/>
+      <c r="AM41" s="173"/>
+      <c r="AU41" s="177"/>
+      <c r="BH41" s="175"/>
+      <c r="BI41" s="176"/>
+      <c r="BV41" s="176"/>
+      <c r="CD41" s="198"/>
+      <c r="CE41" s="173"/>
+      <c r="CM41" s="175"/>
+      <c r="CN41" s="173"/>
+      <c r="CW41" s="175"/>
+      <c r="CX41" s="176"/>
     </row>
-    <row r="42" spans="1:102" s="179" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="177" t="s">
+    <row r="42" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="178"/>
-      <c r="P42" s="181"/>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="178"/>
-      <c r="AH42" s="203"/>
-      <c r="AL42" s="180"/>
-      <c r="AM42" s="178"/>
-      <c r="AU42" s="182"/>
-      <c r="BH42" s="180"/>
-      <c r="BI42" s="181"/>
-      <c r="BV42" s="181"/>
-      <c r="CD42" s="203"/>
-      <c r="CE42" s="178"/>
-      <c r="CM42" s="180"/>
-      <c r="CN42" s="178"/>
-      <c r="CW42" s="180"/>
-      <c r="CX42" s="181"/>
+      <c r="B42" s="173"/>
+      <c r="P42" s="176"/>
+      <c r="Q42" s="175"/>
+      <c r="R42" s="173"/>
+      <c r="AH42" s="198"/>
+      <c r="AL42" s="175"/>
+      <c r="AM42" s="173"/>
+      <c r="AU42" s="177"/>
+      <c r="BH42" s="175"/>
+      <c r="BI42" s="176"/>
+      <c r="BV42" s="176"/>
+      <c r="CD42" s="198"/>
+      <c r="CE42" s="173"/>
+      <c r="CM42" s="175"/>
+      <c r="CN42" s="173"/>
+      <c r="CW42" s="175"/>
+      <c r="CX42" s="176"/>
     </row>
-    <row r="43" spans="1:102" s="179" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="177" t="s">
+    <row r="43" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="178"/>
-      <c r="P43" s="181"/>
-      <c r="Q43" s="180"/>
-      <c r="R43" s="178"/>
-      <c r="AH43" s="203"/>
-      <c r="AL43" s="180"/>
-      <c r="AM43" s="178"/>
-      <c r="AS43" s="182"/>
-      <c r="BH43" s="180"/>
-      <c r="BI43" s="181"/>
-      <c r="BV43" s="181"/>
-      <c r="CD43" s="203"/>
-      <c r="CE43" s="178"/>
-      <c r="CM43" s="180"/>
-      <c r="CN43" s="178"/>
-      <c r="CW43" s="180"/>
-      <c r="CX43" s="181"/>
+      <c r="B43" s="173"/>
+      <c r="P43" s="176"/>
+      <c r="Q43" s="175"/>
+      <c r="R43" s="173"/>
+      <c r="AH43" s="198"/>
+      <c r="AL43" s="175"/>
+      <c r="AM43" s="173"/>
+      <c r="AS43" s="177"/>
+      <c r="BH43" s="175"/>
+      <c r="BI43" s="176"/>
+      <c r="BV43" s="176"/>
+      <c r="CD43" s="198"/>
+      <c r="CE43" s="173"/>
+      <c r="CM43" s="175"/>
+      <c r="CN43" s="173"/>
+      <c r="CW43" s="175"/>
+      <c r="CX43" s="176"/>
     </row>
-    <row r="44" spans="1:102" s="179" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="177" t="s">
+    <row r="44" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="178"/>
-      <c r="P44" s="181"/>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="178"/>
-      <c r="AH44" s="203"/>
-      <c r="AL44" s="180"/>
-      <c r="AM44" s="178"/>
-      <c r="AR44" s="182"/>
-      <c r="BH44" s="180"/>
-      <c r="BI44" s="181"/>
-      <c r="BV44" s="181"/>
-      <c r="CD44" s="203"/>
-      <c r="CE44" s="178"/>
-      <c r="CM44" s="180"/>
-      <c r="CN44" s="178"/>
-      <c r="CW44" s="180"/>
-      <c r="CX44" s="181"/>
+      <c r="B44" s="173"/>
+      <c r="P44" s="176"/>
+      <c r="Q44" s="175"/>
+      <c r="R44" s="173"/>
+      <c r="AH44" s="198"/>
+      <c r="AL44" s="175"/>
+      <c r="AM44" s="173"/>
+      <c r="AR44" s="177"/>
+      <c r="BH44" s="175"/>
+      <c r="BI44" s="176"/>
+      <c r="BV44" s="176"/>
+      <c r="CD44" s="198"/>
+      <c r="CE44" s="173"/>
+      <c r="CM44" s="175"/>
+      <c r="CN44" s="173"/>
+      <c r="CW44" s="175"/>
+      <c r="CX44" s="176"/>
     </row>
-    <row r="45" spans="1:102" s="179" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="177" t="s">
+    <row r="45" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="178"/>
-      <c r="P45" s="181"/>
-      <c r="Q45" s="180"/>
-      <c r="R45" s="178"/>
-      <c r="AH45" s="203"/>
-      <c r="AL45" s="180"/>
-      <c r="AM45" s="178"/>
-      <c r="AQ45" s="182"/>
-      <c r="BH45" s="180"/>
-      <c r="BI45" s="181"/>
-      <c r="BV45" s="181"/>
-      <c r="CD45" s="203"/>
-      <c r="CE45" s="178"/>
-      <c r="CM45" s="180"/>
-      <c r="CN45" s="178"/>
-      <c r="CW45" s="180"/>
-      <c r="CX45" s="181"/>
+      <c r="B45" s="173"/>
+      <c r="P45" s="176"/>
+      <c r="Q45" s="175"/>
+      <c r="R45" s="173"/>
+      <c r="AH45" s="198"/>
+      <c r="AL45" s="175"/>
+      <c r="AM45" s="173"/>
+      <c r="AQ45" s="177"/>
+      <c r="BH45" s="175"/>
+      <c r="BI45" s="176"/>
+      <c r="BV45" s="176"/>
+      <c r="CD45" s="198"/>
+      <c r="CE45" s="173"/>
+      <c r="CM45" s="175"/>
+      <c r="CN45" s="173"/>
+      <c r="CW45" s="175"/>
+      <c r="CX45" s="176"/>
     </row>
-    <row r="46" spans="1:102" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="87" t="s">
+    <row r="46" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="96"/>
-      <c r="AH46" s="202"/>
-      <c r="AL46" s="97"/>
-      <c r="AM46" s="96"/>
-      <c r="AV46" s="176"/>
-      <c r="AW46" s="176"/>
-      <c r="BH46" s="97"/>
-      <c r="BI46" s="78"/>
-      <c r="BV46" s="78"/>
-      <c r="CD46" s="202"/>
-      <c r="CE46" s="96"/>
-      <c r="CM46" s="97"/>
-      <c r="CN46" s="96"/>
-      <c r="CW46" s="97"/>
-      <c r="CX46" s="78"/>
+      <c r="B46" s="91"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="91"/>
+      <c r="AH46" s="197"/>
+      <c r="AL46" s="92"/>
+      <c r="AM46" s="91"/>
+      <c r="AV46" s="171"/>
+      <c r="AW46" s="171"/>
+      <c r="BH46" s="92"/>
+      <c r="BI46" s="73"/>
+      <c r="BV46" s="73"/>
+      <c r="CD46" s="197"/>
+      <c r="CE46" s="91"/>
+      <c r="CM46" s="92"/>
+      <c r="CN46" s="91"/>
+      <c r="CW46" s="92"/>
+      <c r="CX46" s="73"/>
     </row>
-    <row r="47" spans="1:102" s="141" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="139" t="s">
+    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="140"/>
-      <c r="P47" s="143"/>
-      <c r="Q47" s="142"/>
-      <c r="R47" s="140"/>
-      <c r="AH47" s="204"/>
-      <c r="AL47" s="142"/>
-      <c r="AM47" s="140"/>
-      <c r="AX47" s="226" t="s">
+      <c r="B47" s="135"/>
+      <c r="P47" s="138"/>
+      <c r="Q47" s="137"/>
+      <c r="R47" s="135"/>
+      <c r="AH47" s="199"/>
+      <c r="AL47" s="137"/>
+      <c r="AM47" s="135"/>
+      <c r="AX47" s="231" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="227"/>
-      <c r="AZ47" s="228"/>
-      <c r="BA47" s="183"/>
-      <c r="BB47" s="183"/>
-      <c r="BC47" s="183"/>
-      <c r="BD47" s="183"/>
-      <c r="BE47" s="183"/>
-      <c r="BF47" s="183"/>
-      <c r="BG47" s="183"/>
-      <c r="BH47" s="185">
+      <c r="AY47" s="232"/>
+      <c r="AZ47" s="233"/>
+      <c r="BA47" s="178"/>
+      <c r="BB47" s="178"/>
+      <c r="BC47" s="178"/>
+      <c r="BD47" s="178"/>
+      <c r="BE47" s="178"/>
+      <c r="BF47" s="178"/>
+      <c r="BG47" s="178"/>
+      <c r="BH47" s="180">
         <v>22</v>
       </c>
-      <c r="BI47" s="143"/>
-      <c r="BV47" s="143"/>
-      <c r="CD47" s="204"/>
-      <c r="CE47" s="140"/>
-      <c r="CM47" s="142"/>
-      <c r="CN47" s="140"/>
-      <c r="CW47" s="142"/>
-      <c r="CX47" s="143"/>
+      <c r="BI47" s="138"/>
+      <c r="BV47" s="138"/>
+      <c r="CD47" s="199"/>
+      <c r="CE47" s="135"/>
+      <c r="CM47" s="137"/>
+      <c r="CN47" s="135"/>
+      <c r="CW47" s="137"/>
+      <c r="CX47" s="138"/>
     </row>
-    <row r="48" spans="1:102" s="146" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="144" t="s">
+    <row r="48" spans="1:102" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="145"/>
-      <c r="P48" s="148"/>
-      <c r="Q48" s="147"/>
-      <c r="R48" s="145"/>
-      <c r="AH48" s="205"/>
-      <c r="AJ48" s="148"/>
-      <c r="AL48" s="147"/>
-      <c r="AM48" s="145"/>
-      <c r="BD48" s="148"/>
-      <c r="BH48" s="147"/>
-      <c r="BI48" s="148"/>
-      <c r="BV48" s="148"/>
-      <c r="CD48" s="205"/>
-      <c r="CE48" s="145"/>
-      <c r="CM48" s="147"/>
-      <c r="CN48" s="145"/>
-      <c r="CW48" s="147"/>
-      <c r="CX48" s="148"/>
+      <c r="B48" s="140"/>
+      <c r="P48" s="143"/>
+      <c r="Q48" s="142"/>
+      <c r="R48" s="140"/>
+      <c r="AH48" s="200"/>
+      <c r="AJ48" s="143"/>
+      <c r="AL48" s="142"/>
+      <c r="AM48" s="140"/>
+      <c r="BD48" s="143"/>
+      <c r="BH48" s="142"/>
+      <c r="BI48" s="143"/>
+      <c r="BV48" s="143"/>
+      <c r="CD48" s="200"/>
+      <c r="CE48" s="140"/>
+      <c r="CM48" s="142"/>
+      <c r="CN48" s="140"/>
+      <c r="CW48" s="142"/>
+      <c r="CX48" s="143"/>
     </row>
-    <row r="49" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="88" t="s">
+    <row r="49" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="98"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="98"/>
-      <c r="AH49" s="206"/>
-      <c r="AJ49" s="79"/>
-      <c r="AL49" s="99"/>
-      <c r="AM49" s="98"/>
-      <c r="BH49" s="99"/>
-      <c r="BI49" s="79"/>
-      <c r="BJ49" s="188"/>
-      <c r="CD49" s="79"/>
-      <c r="CE49" s="98"/>
-      <c r="CM49" s="99"/>
-      <c r="CN49" s="98"/>
-      <c r="CW49" s="99"/>
-      <c r="CX49" s="79"/>
+      <c r="B49" s="93"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="93"/>
+      <c r="AH49" s="201"/>
+      <c r="AJ49" s="74"/>
+      <c r="AL49" s="94"/>
+      <c r="AM49" s="93"/>
+      <c r="BH49" s="94"/>
+      <c r="BI49" s="74"/>
+      <c r="BJ49" s="183"/>
+      <c r="CD49" s="74"/>
+      <c r="CE49" s="93"/>
+      <c r="CM49" s="94"/>
+      <c r="CN49" s="93"/>
+      <c r="CW49" s="94"/>
+      <c r="CX49" s="74"/>
     </row>
-    <row r="50" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="88" t="s">
+    <row r="50" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="98"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="99"/>
-      <c r="R50" s="98"/>
-      <c r="AH50" s="206"/>
-      <c r="AJ50" s="79"/>
-      <c r="AL50" s="99"/>
-      <c r="AM50" s="98"/>
-      <c r="BH50" s="99"/>
-      <c r="BI50" s="187"/>
-      <c r="CD50" s="79"/>
-      <c r="CE50" s="98"/>
-      <c r="CM50" s="99"/>
-      <c r="CN50" s="98"/>
-      <c r="CW50" s="99"/>
-      <c r="CX50" s="79"/>
+      <c r="B50" s="93"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="93"/>
+      <c r="AH50" s="201"/>
+      <c r="AJ50" s="74"/>
+      <c r="AL50" s="94"/>
+      <c r="AM50" s="93"/>
+      <c r="BH50" s="94"/>
+      <c r="BI50" s="182"/>
+      <c r="CD50" s="74"/>
+      <c r="CE50" s="93"/>
+      <c r="CM50" s="94"/>
+      <c r="CN50" s="93"/>
+      <c r="CW50" s="94"/>
+      <c r="CX50" s="74"/>
     </row>
-    <row r="51" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="88" t="s">
+    <row r="51" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="98"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="99"/>
-      <c r="R51" s="98"/>
-      <c r="AH51" s="206"/>
-      <c r="AJ51" s="79"/>
-      <c r="AL51" s="99"/>
-      <c r="AM51" s="98"/>
-      <c r="BH51" s="99"/>
-      <c r="BI51" s="79"/>
-      <c r="BK51" s="188"/>
-      <c r="CD51" s="79"/>
-      <c r="CE51" s="98"/>
-      <c r="CM51" s="99"/>
-      <c r="CN51" s="98"/>
-      <c r="CW51" s="99"/>
-      <c r="CX51" s="79"/>
+      <c r="B51" s="93"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="93"/>
+      <c r="AH51" s="201"/>
+      <c r="AJ51" s="74"/>
+      <c r="AL51" s="94"/>
+      <c r="AM51" s="93"/>
+      <c r="BH51" s="94"/>
+      <c r="BI51" s="74"/>
+      <c r="BK51" s="183"/>
+      <c r="CD51" s="74"/>
+      <c r="CE51" s="93"/>
+      <c r="CM51" s="94"/>
+      <c r="CN51" s="93"/>
+      <c r="CW51" s="94"/>
+      <c r="CX51" s="74"/>
     </row>
-    <row r="52" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="88" t="s">
+    <row r="52" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="99"/>
-      <c r="R52" s="98"/>
-      <c r="AH52" s="206"/>
-      <c r="AJ52" s="79"/>
-      <c r="AL52" s="99"/>
-      <c r="AM52" s="98"/>
-      <c r="BH52" s="99"/>
-      <c r="BI52" s="79"/>
-      <c r="BL52" s="188"/>
-      <c r="CD52" s="79"/>
-      <c r="CE52" s="98"/>
-      <c r="CM52" s="99"/>
-      <c r="CN52" s="98"/>
-      <c r="CW52" s="99"/>
-      <c r="CX52" s="79"/>
+      <c r="B52" s="93"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="93"/>
+      <c r="AH52" s="201"/>
+      <c r="AJ52" s="74"/>
+      <c r="AL52" s="94"/>
+      <c r="AM52" s="93"/>
+      <c r="BH52" s="94"/>
+      <c r="BI52" s="74"/>
+      <c r="BL52" s="183"/>
+      <c r="CD52" s="74"/>
+      <c r="CE52" s="93"/>
+      <c r="CM52" s="94"/>
+      <c r="CN52" s="93"/>
+      <c r="CW52" s="94"/>
+      <c r="CX52" s="74"/>
     </row>
-    <row r="53" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="88" t="s">
+    <row r="53" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="98"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="98"/>
-      <c r="AH53" s="206"/>
-      <c r="AJ53" s="79"/>
-      <c r="AL53" s="99"/>
-      <c r="AM53" s="98"/>
-      <c r="BH53" s="99"/>
-      <c r="BI53" s="79"/>
-      <c r="BQ53" s="188"/>
-      <c r="CD53" s="79"/>
-      <c r="CE53" s="98"/>
-      <c r="CM53" s="99"/>
-      <c r="CN53" s="98"/>
-      <c r="CW53" s="99"/>
-      <c r="CX53" s="79"/>
+      <c r="B53" s="93"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="93"/>
+      <c r="AH53" s="201"/>
+      <c r="AJ53" s="74"/>
+      <c r="AL53" s="94"/>
+      <c r="AM53" s="93"/>
+      <c r="BH53" s="94"/>
+      <c r="BI53" s="74"/>
+      <c r="BQ53" s="183"/>
+      <c r="CD53" s="74"/>
+      <c r="CE53" s="93"/>
+      <c r="CM53" s="94"/>
+      <c r="CN53" s="93"/>
+      <c r="CW53" s="94"/>
+      <c r="CX53" s="74"/>
     </row>
-    <row r="54" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="88" t="s">
+    <row r="54" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="98"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="99"/>
-      <c r="R54" s="98"/>
-      <c r="AH54" s="206"/>
-      <c r="AJ54" s="79"/>
-      <c r="AL54" s="99"/>
-      <c r="AM54" s="98"/>
-      <c r="BH54" s="99"/>
-      <c r="BI54" s="79"/>
-      <c r="BM54" s="188"/>
-      <c r="CD54" s="79"/>
-      <c r="CE54" s="98"/>
-      <c r="CM54" s="99"/>
-      <c r="CN54" s="98"/>
-      <c r="CW54" s="99"/>
-      <c r="CX54" s="79"/>
+      <c r="B54" s="93"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="93"/>
+      <c r="AH54" s="201"/>
+      <c r="AJ54" s="74"/>
+      <c r="AL54" s="94"/>
+      <c r="AM54" s="93"/>
+      <c r="BH54" s="94"/>
+      <c r="BI54" s="74"/>
+      <c r="BM54" s="183"/>
+      <c r="CD54" s="74"/>
+      <c r="CE54" s="93"/>
+      <c r="CM54" s="94"/>
+      <c r="CN54" s="93"/>
+      <c r="CW54" s="94"/>
+      <c r="CX54" s="74"/>
     </row>
-    <row r="55" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="88" t="s">
+    <row r="55" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="98"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="99"/>
-      <c r="R55" s="98"/>
-      <c r="AH55" s="206"/>
-      <c r="AJ55" s="79"/>
-      <c r="AL55" s="99"/>
-      <c r="AM55" s="98"/>
-      <c r="BH55" s="99"/>
-      <c r="BI55" s="79"/>
-      <c r="CD55" s="79"/>
-      <c r="CE55" s="98"/>
-      <c r="CM55" s="99"/>
-      <c r="CN55" s="98"/>
-      <c r="CW55" s="99"/>
-      <c r="CX55" s="79"/>
+      <c r="B55" s="93"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="94"/>
+      <c r="R55" s="93"/>
+      <c r="AH55" s="201"/>
+      <c r="AJ55" s="74"/>
+      <c r="AL55" s="94"/>
+      <c r="AM55" s="93"/>
+      <c r="BH55" s="94"/>
+      <c r="BI55" s="74"/>
+      <c r="CD55" s="74"/>
+      <c r="CE55" s="93"/>
+      <c r="CM55" s="94"/>
+      <c r="CN55" s="93"/>
+      <c r="CW55" s="94"/>
+      <c r="CX55" s="74"/>
     </row>
-    <row r="56" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="186" t="s">
+    <row r="56" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="98"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="99"/>
-      <c r="R56" s="98"/>
-      <c r="AH56" s="206"/>
-      <c r="AJ56" s="79"/>
-      <c r="AL56" s="99"/>
-      <c r="AM56" s="98"/>
-      <c r="BH56" s="99"/>
-      <c r="BI56" s="79"/>
-      <c r="BR56" s="188"/>
-      <c r="CD56" s="79"/>
-      <c r="CE56" s="98"/>
-      <c r="CM56" s="99"/>
-      <c r="CN56" s="98"/>
-      <c r="CW56" s="99"/>
-      <c r="CX56" s="79"/>
+      <c r="B56" s="93"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="93"/>
+      <c r="AH56" s="201"/>
+      <c r="AJ56" s="74"/>
+      <c r="AL56" s="94"/>
+      <c r="AM56" s="93"/>
+      <c r="BH56" s="94"/>
+      <c r="BI56" s="74"/>
+      <c r="BR56" s="183"/>
+      <c r="CD56" s="74"/>
+      <c r="CE56" s="93"/>
+      <c r="CM56" s="94"/>
+      <c r="CN56" s="93"/>
+      <c r="CW56" s="94"/>
+      <c r="CX56" s="74"/>
     </row>
-    <row r="57" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="186" t="s">
+    <row r="57" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="98"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="99"/>
-      <c r="R57" s="98"/>
-      <c r="AH57" s="206"/>
-      <c r="AJ57" s="79"/>
-      <c r="AL57" s="99"/>
-      <c r="AM57" s="98"/>
-      <c r="BH57" s="99"/>
-      <c r="BI57" s="79"/>
-      <c r="BN57" s="188"/>
-      <c r="BO57" s="188"/>
-      <c r="CD57" s="79"/>
-      <c r="CE57" s="98"/>
-      <c r="CM57" s="99"/>
-      <c r="CN57" s="98"/>
-      <c r="CW57" s="99"/>
-      <c r="CX57" s="79"/>
+      <c r="B57" s="93"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="93"/>
+      <c r="AH57" s="201"/>
+      <c r="AJ57" s="74"/>
+      <c r="AL57" s="94"/>
+      <c r="AM57" s="93"/>
+      <c r="BH57" s="94"/>
+      <c r="BI57" s="74"/>
+      <c r="BN57" s="183"/>
+      <c r="BO57" s="183"/>
+      <c r="CD57" s="74"/>
+      <c r="CE57" s="93"/>
+      <c r="CM57" s="94"/>
+      <c r="CN57" s="93"/>
+      <c r="CW57" s="94"/>
+      <c r="CX57" s="74"/>
     </row>
-    <row r="58" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="186" t="s">
+    <row r="58" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="98"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="99"/>
-      <c r="R58" s="98"/>
-      <c r="AH58" s="206"/>
-      <c r="AJ58" s="79"/>
-      <c r="AL58" s="99"/>
-      <c r="AM58" s="98"/>
-      <c r="BH58" s="99"/>
-      <c r="BI58" s="79"/>
-      <c r="BP58" s="188"/>
-      <c r="CD58" s="79"/>
-      <c r="CE58" s="98"/>
-      <c r="CM58" s="99"/>
-      <c r="CN58" s="98"/>
-      <c r="CW58" s="99"/>
-      <c r="CX58" s="79"/>
+      <c r="B58" s="93"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="94"/>
+      <c r="R58" s="93"/>
+      <c r="AH58" s="201"/>
+      <c r="AJ58" s="74"/>
+      <c r="AL58" s="94"/>
+      <c r="AM58" s="93"/>
+      <c r="BH58" s="94"/>
+      <c r="BI58" s="74"/>
+      <c r="BP58" s="183"/>
+      <c r="CD58" s="74"/>
+      <c r="CE58" s="93"/>
+      <c r="CM58" s="94"/>
+      <c r="CN58" s="93"/>
+      <c r="CW58" s="94"/>
+      <c r="CX58" s="74"/>
     </row>
-    <row r="59" spans="1:102" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="186" t="s">
+    <row r="59" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="98"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="99"/>
-      <c r="R59" s="98"/>
-      <c r="AH59" s="206"/>
-      <c r="AJ59" s="79"/>
-      <c r="AL59" s="99"/>
-      <c r="AM59" s="98"/>
-      <c r="BH59" s="99"/>
-      <c r="BI59" s="79"/>
-      <c r="BP59" s="188"/>
-      <c r="CD59" s="79"/>
-      <c r="CE59" s="98"/>
-      <c r="CM59" s="99"/>
-      <c r="CN59" s="98"/>
-      <c r="CW59" s="99"/>
-      <c r="CX59" s="79"/>
+      <c r="B59" s="93"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="93"/>
+      <c r="AH59" s="201"/>
+      <c r="AJ59" s="74"/>
+      <c r="AL59" s="94"/>
+      <c r="AM59" s="93"/>
+      <c r="BH59" s="94"/>
+      <c r="BI59" s="74"/>
+      <c r="BP59" s="183"/>
+      <c r="CD59" s="74"/>
+      <c r="CE59" s="93"/>
+      <c r="CM59" s="94"/>
+      <c r="CN59" s="93"/>
+      <c r="CW59" s="94"/>
+      <c r="CX59" s="74"/>
     </row>
-    <row r="60" spans="1:102" s="151" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="149" t="s">
+    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="150"/>
-      <c r="P60" s="153"/>
-      <c r="Q60" s="152"/>
-      <c r="R60" s="150"/>
-      <c r="AH60" s="207"/>
-      <c r="AJ60" s="153"/>
-      <c r="AL60" s="152"/>
-      <c r="AM60" s="150"/>
-      <c r="BH60" s="152"/>
-      <c r="BI60" s="153"/>
-      <c r="BL60" s="153"/>
-      <c r="BS60" s="229" t="s">
+      <c r="B60" s="145"/>
+      <c r="P60" s="148"/>
+      <c r="Q60" s="147"/>
+      <c r="R60" s="145"/>
+      <c r="AH60" s="202"/>
+      <c r="AJ60" s="148"/>
+      <c r="AL60" s="147"/>
+      <c r="AM60" s="145"/>
+      <c r="BH60" s="147"/>
+      <c r="BI60" s="148"/>
+      <c r="BL60" s="148"/>
+      <c r="BS60" s="234" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="230"/>
-      <c r="BU60" s="231"/>
-      <c r="BV60" s="189"/>
-      <c r="BW60" s="189"/>
-      <c r="BX60" s="189"/>
-      <c r="BY60" s="189"/>
-      <c r="BZ60" s="189"/>
-      <c r="CA60" s="189"/>
-      <c r="CB60" s="189"/>
-      <c r="CC60" s="189"/>
-      <c r="CD60" s="225">
+      <c r="BT60" s="235"/>
+      <c r="BU60" s="236"/>
+      <c r="BV60" s="184"/>
+      <c r="BW60" s="184"/>
+      <c r="BX60" s="184"/>
+      <c r="BY60" s="184"/>
+      <c r="BZ60" s="184"/>
+      <c r="CA60" s="184"/>
+      <c r="CB60" s="184"/>
+      <c r="CC60" s="184"/>
+      <c r="CD60" s="220">
         <v>22</v>
       </c>
-      <c r="CE60" s="150"/>
-      <c r="CM60" s="152"/>
-      <c r="CN60" s="150"/>
-      <c r="CW60" s="152"/>
-      <c r="CX60" s="153"/>
+      <c r="CE60" s="145"/>
+      <c r="CM60" s="147"/>
+      <c r="CN60" s="145"/>
+      <c r="CW60" s="147"/>
+      <c r="CX60" s="148"/>
     </row>
-    <row r="61" spans="1:102" s="161" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="159" t="s">
+    <row r="61" spans="1:102" s="156" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="160"/>
-      <c r="P61" s="163"/>
-      <c r="Q61" s="162"/>
-      <c r="R61" s="160"/>
-      <c r="AH61" s="208"/>
-      <c r="AJ61" s="163"/>
-      <c r="AL61" s="162"/>
-      <c r="AM61" s="160"/>
-      <c r="BD61" s="163"/>
-      <c r="BH61" s="162"/>
-      <c r="BI61" s="163"/>
-      <c r="BV61" s="163"/>
-      <c r="CD61" s="208"/>
-      <c r="CE61" s="160"/>
-      <c r="CM61" s="162"/>
-      <c r="CN61" s="160"/>
-      <c r="CW61" s="162"/>
-      <c r="CX61" s="163"/>
+      <c r="B61" s="155"/>
+      <c r="P61" s="158"/>
+      <c r="Q61" s="157"/>
+      <c r="R61" s="155"/>
+      <c r="AH61" s="203"/>
+      <c r="AJ61" s="158"/>
+      <c r="AL61" s="157"/>
+      <c r="AM61" s="155"/>
+      <c r="BD61" s="158"/>
+      <c r="BH61" s="157"/>
+      <c r="BI61" s="158"/>
+      <c r="BV61" s="158"/>
+      <c r="CD61" s="203"/>
+      <c r="CE61" s="155"/>
+      <c r="CM61" s="157"/>
+      <c r="CN61" s="155"/>
+      <c r="CW61" s="157"/>
+      <c r="CX61" s="158"/>
     </row>
-    <row r="62" spans="1:102" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="90" t="s">
+    <row r="62" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="100"/>
-      <c r="P62" s="80"/>
-      <c r="Q62" s="101"/>
-      <c r="R62" s="100"/>
-      <c r="AH62" s="209"/>
-      <c r="AJ62" s="80"/>
-      <c r="AL62" s="101"/>
-      <c r="AM62" s="100"/>
-      <c r="BD62" s="80"/>
-      <c r="BH62" s="101"/>
-      <c r="BI62" s="80"/>
-      <c r="BV62" s="223"/>
-      <c r="CD62" s="209"/>
-      <c r="CE62" s="192"/>
-      <c r="CF62" s="190"/>
-      <c r="CM62" s="101"/>
-      <c r="CN62" s="100"/>
-      <c r="CW62" s="101"/>
-      <c r="CX62" s="80"/>
+      <c r="B62" s="95"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="95"/>
+      <c r="AH62" s="204"/>
+      <c r="AJ62" s="75"/>
+      <c r="AL62" s="96"/>
+      <c r="AM62" s="95"/>
+      <c r="BD62" s="75"/>
+      <c r="BH62" s="96"/>
+      <c r="BI62" s="75"/>
+      <c r="BV62" s="218"/>
+      <c r="CD62" s="204"/>
+      <c r="CE62" s="187"/>
+      <c r="CF62" s="185"/>
+      <c r="CM62" s="96"/>
+      <c r="CN62" s="95"/>
+      <c r="CW62" s="96"/>
+      <c r="CX62" s="75"/>
     </row>
-    <row r="63" spans="1:102" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="90" t="s">
+    <row r="63" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="100"/>
-      <c r="P63" s="80"/>
-      <c r="Q63" s="101"/>
-      <c r="R63" s="100"/>
-      <c r="AH63" s="209"/>
-      <c r="AJ63" s="80"/>
-      <c r="AL63" s="101"/>
-      <c r="AM63" s="100"/>
-      <c r="BD63" s="80"/>
-      <c r="BH63" s="101"/>
-      <c r="BI63" s="80"/>
-      <c r="BV63" s="223"/>
-      <c r="CD63" s="209"/>
-      <c r="CE63" s="100"/>
-      <c r="CG63" s="190"/>
-      <c r="CM63" s="101"/>
-      <c r="CN63" s="100"/>
-      <c r="CW63" s="101"/>
-      <c r="CX63" s="80"/>
+      <c r="B63" s="95"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="96"/>
+      <c r="R63" s="95"/>
+      <c r="AH63" s="204"/>
+      <c r="AJ63" s="75"/>
+      <c r="AL63" s="96"/>
+      <c r="AM63" s="95"/>
+      <c r="BD63" s="75"/>
+      <c r="BH63" s="96"/>
+      <c r="BI63" s="75"/>
+      <c r="BV63" s="218"/>
+      <c r="CD63" s="204"/>
+      <c r="CE63" s="95"/>
+      <c r="CG63" s="185"/>
+      <c r="CM63" s="96"/>
+      <c r="CN63" s="95"/>
+      <c r="CW63" s="96"/>
+      <c r="CX63" s="75"/>
     </row>
-    <row r="64" spans="1:102" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="89" t="s">
+    <row r="64" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="100"/>
-      <c r="P64" s="80"/>
-      <c r="Q64" s="101"/>
-      <c r="R64" s="100"/>
-      <c r="AH64" s="209"/>
-      <c r="AJ64" s="80"/>
-      <c r="AL64" s="101"/>
-      <c r="AM64" s="100"/>
-      <c r="BD64" s="80"/>
-      <c r="BH64" s="101"/>
-      <c r="BI64" s="80"/>
-      <c r="BV64" s="223"/>
-      <c r="CD64" s="209"/>
-      <c r="CE64" s="100"/>
-      <c r="CM64" s="101"/>
-      <c r="CN64" s="100"/>
-      <c r="CW64" s="101"/>
-      <c r="CX64" s="80"/>
+      <c r="B64" s="95"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="95"/>
+      <c r="AH64" s="204"/>
+      <c r="AJ64" s="75"/>
+      <c r="AL64" s="96"/>
+      <c r="AM64" s="95"/>
+      <c r="BD64" s="75"/>
+      <c r="BH64" s="96"/>
+      <c r="BI64" s="75"/>
+      <c r="BV64" s="218"/>
+      <c r="CD64" s="204"/>
+      <c r="CE64" s="95"/>
+      <c r="CM64" s="96"/>
+      <c r="CN64" s="95"/>
+      <c r="CW64" s="96"/>
+      <c r="CX64" s="75"/>
     </row>
-    <row r="65" spans="1:102" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="90" t="s">
+    <row r="65" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="100"/>
-      <c r="P65" s="80"/>
-      <c r="Q65" s="101"/>
-      <c r="R65" s="100"/>
-      <c r="AH65" s="209"/>
-      <c r="AJ65" s="80"/>
-      <c r="AL65" s="101"/>
-      <c r="AM65" s="100"/>
-      <c r="BD65" s="80"/>
-      <c r="BH65" s="101"/>
-      <c r="BI65" s="80"/>
-      <c r="BV65" s="223"/>
-      <c r="CD65" s="209"/>
-      <c r="CE65" s="100"/>
-      <c r="CH65" s="190"/>
-      <c r="CM65" s="101"/>
-      <c r="CN65" s="100"/>
-      <c r="CW65" s="101"/>
-      <c r="CX65" s="80"/>
+      <c r="B65" s="95"/>
+      <c r="P65" s="75"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="95"/>
+      <c r="AH65" s="204"/>
+      <c r="AJ65" s="75"/>
+      <c r="AL65" s="96"/>
+      <c r="AM65" s="95"/>
+      <c r="BD65" s="75"/>
+      <c r="BH65" s="96"/>
+      <c r="BI65" s="75"/>
+      <c r="BV65" s="218"/>
+      <c r="CD65" s="204"/>
+      <c r="CE65" s="95"/>
+      <c r="CH65" s="185"/>
+      <c r="CM65" s="96"/>
+      <c r="CN65" s="95"/>
+      <c r="CW65" s="96"/>
+      <c r="CX65" s="75"/>
     </row>
-    <row r="66" spans="1:102" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="90" t="s">
+    <row r="66" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="100"/>
-      <c r="P66" s="80"/>
-      <c r="Q66" s="101"/>
-      <c r="R66" s="100"/>
-      <c r="AH66" s="209"/>
-      <c r="AJ66" s="80"/>
-      <c r="AL66" s="101"/>
-      <c r="AM66" s="100"/>
-      <c r="BD66" s="80"/>
-      <c r="BH66" s="101"/>
-      <c r="BI66" s="80"/>
-      <c r="BV66" s="223"/>
-      <c r="CD66" s="209"/>
-      <c r="CE66" s="100"/>
-      <c r="CI66" s="190"/>
-      <c r="CM66" s="101"/>
-      <c r="CN66" s="100"/>
-      <c r="CW66" s="101"/>
-      <c r="CX66" s="80"/>
+      <c r="B66" s="95"/>
+      <c r="P66" s="75"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="95"/>
+      <c r="AH66" s="204"/>
+      <c r="AJ66" s="75"/>
+      <c r="AL66" s="96"/>
+      <c r="AM66" s="95"/>
+      <c r="BD66" s="75"/>
+      <c r="BH66" s="96"/>
+      <c r="BI66" s="75"/>
+      <c r="BV66" s="218"/>
+      <c r="CD66" s="204"/>
+      <c r="CE66" s="95"/>
+      <c r="CI66" s="185"/>
+      <c r="CM66" s="96"/>
+      <c r="CN66" s="95"/>
+      <c r="CW66" s="96"/>
+      <c r="CX66" s="75"/>
     </row>
-    <row r="67" spans="1:102" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="89" t="s">
+    <row r="67" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="100"/>
-      <c r="P67" s="80"/>
-      <c r="Q67" s="101"/>
-      <c r="R67" s="100"/>
-      <c r="AH67" s="209"/>
-      <c r="AJ67" s="80"/>
-      <c r="AL67" s="101"/>
-      <c r="AM67" s="100"/>
-      <c r="BD67" s="80"/>
-      <c r="BH67" s="101"/>
-      <c r="BI67" s="80"/>
-      <c r="BV67" s="223"/>
-      <c r="CD67" s="209"/>
-      <c r="CE67" s="100"/>
-      <c r="CM67" s="101"/>
-      <c r="CN67" s="100"/>
-      <c r="CW67" s="101"/>
-      <c r="CX67" s="80"/>
+      <c r="B67" s="95"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="95"/>
+      <c r="AH67" s="204"/>
+      <c r="AJ67" s="75"/>
+      <c r="AL67" s="96"/>
+      <c r="AM67" s="95"/>
+      <c r="BD67" s="75"/>
+      <c r="BH67" s="96"/>
+      <c r="BI67" s="75"/>
+      <c r="BV67" s="218"/>
+      <c r="CD67" s="204"/>
+      <c r="CE67" s="95"/>
+      <c r="CM67" s="96"/>
+      <c r="CN67" s="95"/>
+      <c r="CW67" s="96"/>
+      <c r="CX67" s="75"/>
     </row>
-    <row r="68" spans="1:102" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="90" t="s">
+    <row r="68" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="100"/>
-      <c r="P68" s="80"/>
-      <c r="Q68" s="101"/>
-      <c r="R68" s="100"/>
-      <c r="AH68" s="209"/>
-      <c r="AJ68" s="80"/>
-      <c r="AL68" s="101"/>
-      <c r="AM68" s="100"/>
-      <c r="BD68" s="80"/>
-      <c r="BH68" s="101"/>
-      <c r="BI68" s="80"/>
-      <c r="BV68" s="223"/>
-      <c r="CD68" s="209"/>
-      <c r="CE68" s="100"/>
-      <c r="CH68" s="190"/>
-      <c r="CI68" s="190"/>
-      <c r="CM68" s="101"/>
-      <c r="CN68" s="100"/>
-      <c r="CW68" s="101"/>
-      <c r="CX68" s="80"/>
+      <c r="B68" s="95"/>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="95"/>
+      <c r="AH68" s="204"/>
+      <c r="AJ68" s="75"/>
+      <c r="AL68" s="96"/>
+      <c r="AM68" s="95"/>
+      <c r="BD68" s="75"/>
+      <c r="BH68" s="96"/>
+      <c r="BI68" s="75"/>
+      <c r="BV68" s="218"/>
+      <c r="CD68" s="204"/>
+      <c r="CE68" s="95"/>
+      <c r="CH68" s="185"/>
+      <c r="CI68" s="185"/>
+      <c r="CM68" s="96"/>
+      <c r="CN68" s="95"/>
+      <c r="CW68" s="96"/>
+      <c r="CX68" s="75"/>
     </row>
-    <row r="69" spans="1:102" s="166" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="164" t="s">
+    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="165"/>
-      <c r="P69" s="168"/>
-      <c r="Q69" s="167"/>
-      <c r="R69" s="165"/>
-      <c r="AH69" s="210"/>
-      <c r="AJ69" s="168"/>
-      <c r="AL69" s="167"/>
-      <c r="AM69" s="165"/>
-      <c r="BD69" s="168"/>
-      <c r="BH69" s="167"/>
-      <c r="BI69" s="168"/>
-      <c r="BV69" s="224"/>
-      <c r="CD69" s="210"/>
-      <c r="CE69" s="165"/>
-      <c r="CJ69" s="191"/>
-      <c r="CK69" s="191"/>
-      <c r="CL69" s="191"/>
-      <c r="CM69" s="193">
+      <c r="B69" s="160"/>
+      <c r="P69" s="163"/>
+      <c r="Q69" s="162"/>
+      <c r="R69" s="160"/>
+      <c r="AH69" s="205"/>
+      <c r="AJ69" s="163"/>
+      <c r="AL69" s="162"/>
+      <c r="AM69" s="160"/>
+      <c r="BD69" s="163"/>
+      <c r="BH69" s="162"/>
+      <c r="BI69" s="163"/>
+      <c r="BV69" s="219"/>
+      <c r="CD69" s="205"/>
+      <c r="CE69" s="160"/>
+      <c r="CJ69" s="186"/>
+      <c r="CK69" s="186"/>
+      <c r="CL69" s="186"/>
+      <c r="CM69" s="188">
         <v>9</v>
       </c>
-      <c r="CN69" s="165"/>
-      <c r="CW69" s="167"/>
-      <c r="CX69" s="168"/>
+      <c r="CN69" s="160"/>
+      <c r="CW69" s="162"/>
+      <c r="CX69" s="163"/>
     </row>
-    <row r="70" spans="1:102" s="217" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="215" t="s">
+    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="216"/>
-      <c r="P70" s="219"/>
-      <c r="Q70" s="218"/>
-      <c r="R70" s="216"/>
-      <c r="AH70" s="220"/>
-      <c r="AJ70" s="219"/>
-      <c r="AL70" s="218"/>
-      <c r="AM70" s="216"/>
-      <c r="BD70" s="219"/>
-      <c r="BH70" s="218"/>
-      <c r="BI70" s="219"/>
-      <c r="BV70" s="219"/>
-      <c r="CD70" s="220"/>
-      <c r="CE70" s="216"/>
-      <c r="CM70" s="218"/>
-      <c r="CN70" s="216"/>
-      <c r="CW70" s="221">
+      <c r="B70" s="211"/>
+      <c r="P70" s="214"/>
+      <c r="Q70" s="213"/>
+      <c r="R70" s="211"/>
+      <c r="AH70" s="215"/>
+      <c r="AJ70" s="214"/>
+      <c r="AL70" s="213"/>
+      <c r="AM70" s="211"/>
+      <c r="BD70" s="214"/>
+      <c r="BH70" s="213"/>
+      <c r="BI70" s="214"/>
+      <c r="BV70" s="214"/>
+      <c r="CD70" s="215"/>
+      <c r="CE70" s="211"/>
+      <c r="CM70" s="213"/>
+      <c r="CN70" s="211"/>
+      <c r="CW70" s="216">
         <v>10</v>
       </c>
-      <c r="CX70" s="219"/>
+      <c r="CX70" s="214"/>
     </row>
-    <row r="71" spans="1:102" s="156" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="154"/>
-      <c r="B71" s="155"/>
-      <c r="P71" s="158"/>
-      <c r="Q71" s="157"/>
-      <c r="R71" s="155"/>
-      <c r="AH71" s="211"/>
-      <c r="AJ71" s="158"/>
-      <c r="AL71" s="157"/>
-      <c r="AM71" s="155"/>
-      <c r="BD71" s="158"/>
-      <c r="BH71" s="157"/>
-      <c r="BI71" s="158"/>
-      <c r="BV71" s="158"/>
-      <c r="CD71" s="211"/>
-      <c r="CE71" s="155"/>
-      <c r="CM71" s="157"/>
-      <c r="CN71" s="155"/>
-      <c r="CW71" s="157"/>
-      <c r="CX71" s="158"/>
+    <row r="71" spans="1:102" s="151" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="149"/>
+      <c r="B71" s="150"/>
+      <c r="P71" s="153"/>
+      <c r="Q71" s="152"/>
+      <c r="R71" s="150"/>
+      <c r="AH71" s="206"/>
+      <c r="AJ71" s="153"/>
+      <c r="AL71" s="152"/>
+      <c r="AM71" s="150"/>
+      <c r="BD71" s="153"/>
+      <c r="BH71" s="152"/>
+      <c r="BI71" s="153"/>
+      <c r="BV71" s="153"/>
+      <c r="CD71" s="206"/>
+      <c r="CE71" s="150"/>
+      <c r="CM71" s="152"/>
+      <c r="CN71" s="150"/>
+      <c r="CW71" s="152"/>
+      <c r="CX71" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -23878,4 +23978,3037 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CX71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BZ8" sqref="BZ8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="97" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="4" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="260" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="98" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="97" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="4" style="63" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4" style="207" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4" style="63" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5" style="76" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5" style="207" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5" style="286" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5" style="97" bestFit="1" customWidth="1"/>
+    <col min="41" max="55" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5" style="76" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6" style="207" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="6" style="76" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6" style="98" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6" style="97" bestFit="1" customWidth="1"/>
+    <col min="64" max="71" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="5" style="76" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="78" max="80" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="6" style="207" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="6" style="76" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6" style="98" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="6" style="97" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6" style="207" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="5" style="76" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="5" style="63" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="5" style="98" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="5" style="97" bestFit="1" customWidth="1"/>
+    <col min="97" max="99" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="6" style="207" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="6" style="98" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.28515625" style="76"/>
+    <col min="103" max="16384" width="8.28515625" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77"/>
+      <c r="B1" s="237" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="228" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="229"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="230"/>
+      <c r="AN1" s="228" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229"/>
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229"/>
+      <c r="AY1" s="229"/>
+      <c r="AZ1" s="229"/>
+      <c r="BA1" s="229"/>
+      <c r="BB1" s="229"/>
+      <c r="BC1" s="229"/>
+      <c r="BD1" s="229"/>
+      <c r="BE1" s="229"/>
+      <c r="BF1" s="229"/>
+      <c r="BG1" s="229"/>
+      <c r="BH1" s="229"/>
+      <c r="BI1" s="229"/>
+      <c r="BJ1" s="230"/>
+      <c r="BK1" s="228" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL1" s="229"/>
+      <c r="BM1" s="229"/>
+      <c r="BN1" s="229"/>
+      <c r="BO1" s="229"/>
+      <c r="BP1" s="229"/>
+      <c r="BQ1" s="229"/>
+      <c r="BR1" s="229"/>
+      <c r="BS1" s="229"/>
+      <c r="BT1" s="229"/>
+      <c r="BU1" s="229"/>
+      <c r="BV1" s="229"/>
+      <c r="BW1" s="229"/>
+      <c r="BX1" s="229"/>
+      <c r="BY1" s="229"/>
+      <c r="BZ1" s="229"/>
+      <c r="CA1" s="229"/>
+      <c r="CB1" s="229"/>
+      <c r="CC1" s="229"/>
+      <c r="CD1" s="229"/>
+      <c r="CE1" s="229"/>
+      <c r="CF1" s="229"/>
+      <c r="CG1" s="230"/>
+      <c r="CH1" s="228" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI1" s="229"/>
+      <c r="CJ1" s="229"/>
+      <c r="CK1" s="229"/>
+      <c r="CL1" s="229"/>
+      <c r="CM1" s="229"/>
+      <c r="CN1" s="229"/>
+      <c r="CO1" s="229"/>
+      <c r="CP1" s="229"/>
+      <c r="CQ1" s="230"/>
+      <c r="CR1" s="228" t="s">
+        <v>126</v>
+      </c>
+      <c r="CS1" s="229"/>
+      <c r="CT1" s="229"/>
+      <c r="CU1" s="229"/>
+      <c r="CV1" s="229"/>
+      <c r="CW1" s="230"/>
+      <c r="CX1" s="99"/>
+    </row>
+    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="265">
+        <v>43670</v>
+      </c>
+      <c r="C2" s="261">
+        <v>43671</v>
+      </c>
+      <c r="D2" s="261">
+        <v>43672</v>
+      </c>
+      <c r="E2" s="262">
+        <v>43675</v>
+      </c>
+      <c r="F2" s="262">
+        <v>43676</v>
+      </c>
+      <c r="G2" s="262">
+        <v>43677</v>
+      </c>
+      <c r="H2" s="262">
+        <v>43678</v>
+      </c>
+      <c r="I2" s="262">
+        <v>43679</v>
+      </c>
+      <c r="J2" s="261">
+        <v>43682</v>
+      </c>
+      <c r="K2" s="261">
+        <v>43683</v>
+      </c>
+      <c r="L2" s="261">
+        <v>43684</v>
+      </c>
+      <c r="M2" s="261">
+        <v>43685</v>
+      </c>
+      <c r="N2" s="261">
+        <v>43686</v>
+      </c>
+      <c r="O2" s="262">
+        <v>43689</v>
+      </c>
+      <c r="P2" s="262">
+        <v>43690</v>
+      </c>
+      <c r="Q2" s="266">
+        <v>43691</v>
+      </c>
+      <c r="R2" s="268">
+        <v>43692</v>
+      </c>
+      <c r="S2" s="262">
+        <v>43693</v>
+      </c>
+      <c r="T2" s="261">
+        <v>43696</v>
+      </c>
+      <c r="U2" s="261">
+        <v>43697</v>
+      </c>
+      <c r="V2" s="261">
+        <v>43698</v>
+      </c>
+      <c r="W2" s="261">
+        <v>43699</v>
+      </c>
+      <c r="X2" s="261">
+        <v>43700</v>
+      </c>
+      <c r="Y2" s="262">
+        <v>43703</v>
+      </c>
+      <c r="Z2" s="262">
+        <v>43704</v>
+      </c>
+      <c r="AA2" s="262">
+        <v>43705</v>
+      </c>
+      <c r="AB2" s="262">
+        <v>43706</v>
+      </c>
+      <c r="AC2" s="262">
+        <v>43707</v>
+      </c>
+      <c r="AD2" s="261">
+        <v>43710</v>
+      </c>
+      <c r="AE2" s="261">
+        <v>43711</v>
+      </c>
+      <c r="AF2" s="261">
+        <v>43712</v>
+      </c>
+      <c r="AG2" s="261">
+        <v>43713</v>
+      </c>
+      <c r="AH2" s="261">
+        <v>43714</v>
+      </c>
+      <c r="AI2" s="262">
+        <v>43717</v>
+      </c>
+      <c r="AJ2" s="262">
+        <v>43718</v>
+      </c>
+      <c r="AK2" s="262">
+        <v>43719</v>
+      </c>
+      <c r="AL2" s="263">
+        <v>43720</v>
+      </c>
+      <c r="AM2" s="267">
+        <v>43721</v>
+      </c>
+      <c r="AN2" s="265">
+        <v>43724</v>
+      </c>
+      <c r="AO2" s="261">
+        <v>43725</v>
+      </c>
+      <c r="AP2" s="261">
+        <v>43726</v>
+      </c>
+      <c r="AQ2" s="261">
+        <v>43727</v>
+      </c>
+      <c r="AR2" s="261">
+        <v>43728</v>
+      </c>
+      <c r="AS2" s="262">
+        <v>43731</v>
+      </c>
+      <c r="AT2" s="262">
+        <v>43732</v>
+      </c>
+      <c r="AU2" s="262">
+        <v>43733</v>
+      </c>
+      <c r="AV2" s="262">
+        <v>43734</v>
+      </c>
+      <c r="AW2" s="262">
+        <v>43735</v>
+      </c>
+      <c r="AX2" s="261">
+        <v>43738</v>
+      </c>
+      <c r="AY2" s="261">
+        <v>43739</v>
+      </c>
+      <c r="AZ2" s="261">
+        <v>43740</v>
+      </c>
+      <c r="BA2" s="261">
+        <v>43741</v>
+      </c>
+      <c r="BB2" s="261">
+        <v>43742</v>
+      </c>
+      <c r="BC2" s="262">
+        <v>43745</v>
+      </c>
+      <c r="BD2" s="262">
+        <v>43746</v>
+      </c>
+      <c r="BE2" s="262">
+        <v>43747</v>
+      </c>
+      <c r="BF2" s="262">
+        <v>43748</v>
+      </c>
+      <c r="BG2" s="262">
+        <v>43749</v>
+      </c>
+      <c r="BH2" s="264">
+        <v>43754</v>
+      </c>
+      <c r="BI2" s="261">
+        <v>43755</v>
+      </c>
+      <c r="BJ2" s="271">
+        <v>43756</v>
+      </c>
+      <c r="BK2" s="268">
+        <v>43759</v>
+      </c>
+      <c r="BL2" s="262">
+        <v>43760</v>
+      </c>
+      <c r="BM2" s="262">
+        <v>43761</v>
+      </c>
+      <c r="BN2" s="262">
+        <v>43762</v>
+      </c>
+      <c r="BO2" s="262">
+        <v>43763</v>
+      </c>
+      <c r="BP2" s="261">
+        <v>43766</v>
+      </c>
+      <c r="BQ2" s="261">
+        <v>43767</v>
+      </c>
+      <c r="BR2" s="261">
+        <v>43768</v>
+      </c>
+      <c r="BS2" s="261">
+        <v>43769</v>
+      </c>
+      <c r="BT2" s="261">
+        <v>43770</v>
+      </c>
+      <c r="BU2" s="262">
+        <v>43773</v>
+      </c>
+      <c r="BV2" s="262">
+        <v>43774</v>
+      </c>
+      <c r="BW2" s="262">
+        <v>43775</v>
+      </c>
+      <c r="BX2" s="262">
+        <v>43776</v>
+      </c>
+      <c r="BY2" s="262">
+        <v>43777</v>
+      </c>
+      <c r="BZ2" s="261">
+        <v>43780</v>
+      </c>
+      <c r="CA2" s="261">
+        <v>43781</v>
+      </c>
+      <c r="CB2" s="261">
+        <v>43782</v>
+      </c>
+      <c r="CC2" s="261">
+        <v>43783</v>
+      </c>
+      <c r="CD2" s="263">
+        <v>43787</v>
+      </c>
+      <c r="CE2" s="262">
+        <v>43788</v>
+      </c>
+      <c r="CF2" s="262">
+        <v>43790</v>
+      </c>
+      <c r="CG2" s="267">
+        <v>43791</v>
+      </c>
+      <c r="CH2" s="265">
+        <v>43794</v>
+      </c>
+      <c r="CI2" s="261">
+        <v>43795</v>
+      </c>
+      <c r="CJ2" s="261">
+        <v>43796</v>
+      </c>
+      <c r="CK2" s="261">
+        <v>43797</v>
+      </c>
+      <c r="CL2" s="261">
+        <v>43798</v>
+      </c>
+      <c r="CM2" s="263">
+        <v>43801</v>
+      </c>
+      <c r="CN2" s="262">
+        <v>43802</v>
+      </c>
+      <c r="CO2" s="262">
+        <v>43803</v>
+      </c>
+      <c r="CP2" s="262">
+        <v>43804</v>
+      </c>
+      <c r="CQ2" s="267">
+        <v>43805</v>
+      </c>
+      <c r="CR2" s="265">
+        <v>43808</v>
+      </c>
+      <c r="CS2" s="261">
+        <v>43809</v>
+      </c>
+      <c r="CT2" s="261">
+        <v>43810</v>
+      </c>
+      <c r="CU2" s="261">
+        <v>43811</v>
+      </c>
+      <c r="CV2" s="261">
+        <v>43812</v>
+      </c>
+      <c r="CW2" s="266">
+        <v>43815</v>
+      </c>
+      <c r="CX2" s="208"/>
+    </row>
+    <row r="3" spans="1:102" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="190"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="112"/>
+      <c r="AK3" s="190"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="272"/>
+      <c r="AN3" s="109"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="110"/>
+      <c r="AQ3" s="110"/>
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="110"/>
+      <c r="AV3" s="110"/>
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="110"/>
+      <c r="AY3" s="110"/>
+      <c r="AZ3" s="110"/>
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="110"/>
+      <c r="BC3" s="110"/>
+      <c r="BD3" s="112"/>
+      <c r="BE3" s="110"/>
+      <c r="BF3" s="110"/>
+      <c r="BG3" s="190"/>
+      <c r="BH3" s="110"/>
+      <c r="BI3" s="112"/>
+      <c r="BJ3" s="111"/>
+      <c r="BK3" s="109"/>
+      <c r="BL3" s="110"/>
+      <c r="BM3" s="110"/>
+      <c r="BN3" s="110"/>
+      <c r="BO3" s="110"/>
+      <c r="BP3" s="110"/>
+      <c r="BQ3" s="110"/>
+      <c r="BR3" s="110"/>
+      <c r="BS3" s="110"/>
+      <c r="BT3" s="110"/>
+      <c r="BU3" s="110"/>
+      <c r="BV3" s="112"/>
+      <c r="BW3" s="110"/>
+      <c r="BX3" s="110"/>
+      <c r="BY3" s="110"/>
+      <c r="BZ3" s="110"/>
+      <c r="CA3" s="110"/>
+      <c r="CB3" s="110"/>
+      <c r="CC3" s="190"/>
+      <c r="CD3" s="110"/>
+      <c r="CE3" s="112"/>
+      <c r="CF3" s="110"/>
+      <c r="CG3" s="111"/>
+      <c r="CH3" s="109"/>
+      <c r="CI3" s="110"/>
+      <c r="CJ3" s="110"/>
+      <c r="CK3" s="110"/>
+      <c r="CL3" s="190"/>
+      <c r="CM3" s="110"/>
+      <c r="CN3" s="112"/>
+      <c r="CO3" s="110"/>
+      <c r="CP3" s="110"/>
+      <c r="CQ3" s="111"/>
+      <c r="CR3" s="109"/>
+      <c r="CS3" s="110"/>
+      <c r="CT3" s="110"/>
+      <c r="CU3" s="110"/>
+      <c r="CV3" s="190"/>
+      <c r="CW3" s="111"/>
+      <c r="CX3" s="209"/>
+    </row>
+    <row r="4" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="P4" s="245"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="88"/>
+      <c r="AH4" s="191"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="191"/>
+      <c r="AM4" s="273"/>
+      <c r="AN4" s="88"/>
+      <c r="BD4" s="71"/>
+      <c r="BG4" s="191"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="88"/>
+      <c r="BV4" s="71"/>
+      <c r="CC4" s="191"/>
+      <c r="CE4" s="71"/>
+      <c r="CG4" s="87"/>
+      <c r="CH4" s="88"/>
+      <c r="CL4" s="191"/>
+      <c r="CN4" s="71"/>
+      <c r="CQ4" s="87"/>
+      <c r="CR4" s="88"/>
+      <c r="CV4" s="191"/>
+      <c r="CW4" s="87"/>
+      <c r="CX4" s="71"/>
+    </row>
+    <row r="5" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="P5" s="245"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="88"/>
+      <c r="AH5" s="191"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="191"/>
+      <c r="AM5" s="273"/>
+      <c r="AN5" s="88"/>
+      <c r="BD5" s="71"/>
+      <c r="BG5" s="191"/>
+      <c r="BI5" s="71"/>
+      <c r="BJ5" s="87"/>
+      <c r="BK5" s="88"/>
+      <c r="BV5" s="71"/>
+      <c r="CC5" s="191"/>
+      <c r="CE5" s="71"/>
+      <c r="CG5" s="87"/>
+      <c r="CH5" s="88"/>
+      <c r="CL5" s="191"/>
+      <c r="CN5" s="71"/>
+      <c r="CQ5" s="87"/>
+      <c r="CR5" s="88"/>
+      <c r="CV5" s="191"/>
+      <c r="CW5" s="87"/>
+      <c r="CX5" s="71"/>
+    </row>
+    <row r="6" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="P6" s="245"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="88"/>
+      <c r="AH6" s="191"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="191"/>
+      <c r="AM6" s="273"/>
+      <c r="AN6" s="88"/>
+      <c r="BD6" s="71"/>
+      <c r="BG6" s="191"/>
+      <c r="BI6" s="71"/>
+      <c r="BJ6" s="87"/>
+      <c r="BK6" s="88"/>
+      <c r="BV6" s="71"/>
+      <c r="CC6" s="191"/>
+      <c r="CE6" s="71"/>
+      <c r="CG6" s="87"/>
+      <c r="CH6" s="88"/>
+      <c r="CL6" s="191"/>
+      <c r="CN6" s="71"/>
+      <c r="CQ6" s="87"/>
+      <c r="CR6" s="88"/>
+      <c r="CV6" s="191"/>
+      <c r="CW6" s="87"/>
+      <c r="CX6" s="71"/>
+    </row>
+    <row r="7" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="P7" s="245"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="88"/>
+      <c r="AH7" s="191"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="191"/>
+      <c r="AM7" s="273"/>
+      <c r="AN7" s="88"/>
+      <c r="BD7" s="71"/>
+      <c r="BG7" s="191"/>
+      <c r="BI7" s="71"/>
+      <c r="BJ7" s="87"/>
+      <c r="BK7" s="88"/>
+      <c r="BV7" s="71"/>
+      <c r="CC7" s="191"/>
+      <c r="CE7" s="71"/>
+      <c r="CG7" s="87"/>
+      <c r="CH7" s="88"/>
+      <c r="CL7" s="191"/>
+      <c r="CN7" s="71"/>
+      <c r="CQ7" s="87"/>
+      <c r="CR7" s="88"/>
+      <c r="CV7" s="191"/>
+      <c r="CW7" s="87"/>
+      <c r="CX7" s="71"/>
+    </row>
+    <row r="8" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="P8" s="245"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="88"/>
+      <c r="AH8" s="191"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="191"/>
+      <c r="AM8" s="273"/>
+      <c r="AN8" s="88"/>
+      <c r="BD8" s="71"/>
+      <c r="BG8" s="191"/>
+      <c r="BI8" s="71"/>
+      <c r="BJ8" s="87"/>
+      <c r="BK8" s="88"/>
+      <c r="BV8" s="71"/>
+      <c r="CC8" s="191"/>
+      <c r="CE8" s="71"/>
+      <c r="CG8" s="87"/>
+      <c r="CH8" s="88"/>
+      <c r="CL8" s="191"/>
+      <c r="CN8" s="71"/>
+      <c r="CQ8" s="87"/>
+      <c r="CR8" s="88"/>
+      <c r="CV8" s="191"/>
+      <c r="CW8" s="87"/>
+      <c r="CX8" s="71"/>
+    </row>
+    <row r="9" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="P9" s="245"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="88"/>
+      <c r="AH9" s="191"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="191"/>
+      <c r="AM9" s="273"/>
+      <c r="AN9" s="88"/>
+      <c r="BD9" s="71"/>
+      <c r="BG9" s="191"/>
+      <c r="BI9" s="71"/>
+      <c r="BJ9" s="87"/>
+      <c r="BK9" s="88"/>
+      <c r="BV9" s="71"/>
+      <c r="CC9" s="191"/>
+      <c r="CE9" s="71"/>
+      <c r="CG9" s="87"/>
+      <c r="CH9" s="88"/>
+      <c r="CL9" s="191"/>
+      <c r="CN9" s="71"/>
+      <c r="CQ9" s="87"/>
+      <c r="CR9" s="88"/>
+      <c r="CV9" s="191"/>
+      <c r="CW9" s="87"/>
+      <c r="CX9" s="71"/>
+    </row>
+    <row r="10" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="P10" s="245"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="88"/>
+      <c r="AH10" s="191"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="191"/>
+      <c r="AM10" s="273"/>
+      <c r="AN10" s="88"/>
+      <c r="BD10" s="71"/>
+      <c r="BG10" s="191"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="87"/>
+      <c r="BK10" s="88"/>
+      <c r="BV10" s="71"/>
+      <c r="CC10" s="191"/>
+      <c r="CE10" s="71"/>
+      <c r="CG10" s="87"/>
+      <c r="CH10" s="88"/>
+      <c r="CL10" s="191"/>
+      <c r="CN10" s="71"/>
+      <c r="CQ10" s="87"/>
+      <c r="CR10" s="88"/>
+      <c r="CV10" s="191"/>
+      <c r="CW10" s="87"/>
+      <c r="CX10" s="71"/>
+    </row>
+    <row r="11" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="P11" s="245"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="88"/>
+      <c r="AH11" s="191"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="191"/>
+      <c r="AM11" s="273"/>
+      <c r="AN11" s="88"/>
+      <c r="BD11" s="71"/>
+      <c r="BG11" s="191"/>
+      <c r="BI11" s="71"/>
+      <c r="BJ11" s="87"/>
+      <c r="BK11" s="88"/>
+      <c r="BV11" s="71"/>
+      <c r="CC11" s="191"/>
+      <c r="CE11" s="71"/>
+      <c r="CG11" s="87"/>
+      <c r="CH11" s="88"/>
+      <c r="CL11" s="191"/>
+      <c r="CN11" s="71"/>
+      <c r="CQ11" s="87"/>
+      <c r="CR11" s="88"/>
+      <c r="CV11" s="191"/>
+      <c r="CW11" s="87"/>
+      <c r="CX11" s="71"/>
+    </row>
+    <row r="12" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="I12" s="65"/>
+      <c r="P12" s="245"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
+      <c r="AH12" s="191"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="191"/>
+      <c r="AM12" s="273"/>
+      <c r="AN12" s="88"/>
+      <c r="BD12" s="71"/>
+      <c r="BG12" s="191"/>
+      <c r="BI12" s="71"/>
+      <c r="BJ12" s="87"/>
+      <c r="BK12" s="88"/>
+      <c r="BV12" s="71"/>
+      <c r="CC12" s="191"/>
+      <c r="CE12" s="71"/>
+      <c r="CG12" s="87"/>
+      <c r="CH12" s="88"/>
+      <c r="CL12" s="191"/>
+      <c r="CN12" s="71"/>
+      <c r="CQ12" s="87"/>
+      <c r="CR12" s="88"/>
+      <c r="CV12" s="191"/>
+      <c r="CW12" s="87"/>
+      <c r="CX12" s="71"/>
+    </row>
+    <row r="13" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="J13" s="65"/>
+      <c r="P13" s="245"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="AH13" s="191"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="191"/>
+      <c r="AM13" s="273"/>
+      <c r="AN13" s="88"/>
+      <c r="BD13" s="71"/>
+      <c r="BG13" s="191"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="87"/>
+      <c r="BK13" s="88"/>
+      <c r="BV13" s="71"/>
+      <c r="CC13" s="191"/>
+      <c r="CE13" s="71"/>
+      <c r="CG13" s="87"/>
+      <c r="CH13" s="88"/>
+      <c r="CL13" s="191"/>
+      <c r="CN13" s="71"/>
+      <c r="CQ13" s="87"/>
+      <c r="CR13" s="88"/>
+      <c r="CV13" s="191"/>
+      <c r="CW13" s="87"/>
+      <c r="CX13" s="71"/>
+    </row>
+    <row r="14" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="J14" s="65"/>
+      <c r="P14" s="245"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+      <c r="AH14" s="191"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="191"/>
+      <c r="AM14" s="273"/>
+      <c r="AN14" s="88"/>
+      <c r="BD14" s="71"/>
+      <c r="BG14" s="191"/>
+      <c r="BI14" s="71"/>
+      <c r="BJ14" s="87"/>
+      <c r="BK14" s="88"/>
+      <c r="BV14" s="71"/>
+      <c r="CC14" s="191"/>
+      <c r="CE14" s="71"/>
+      <c r="CG14" s="87"/>
+      <c r="CH14" s="88"/>
+      <c r="CL14" s="191"/>
+      <c r="CN14" s="71"/>
+      <c r="CQ14" s="87"/>
+      <c r="CR14" s="88"/>
+      <c r="CV14" s="191"/>
+      <c r="CW14" s="87"/>
+      <c r="CX14" s="71"/>
+    </row>
+    <row r="15" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="P15" s="245"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="AH15" s="191"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="191"/>
+      <c r="AM15" s="273"/>
+      <c r="AN15" s="88"/>
+      <c r="BD15" s="71"/>
+      <c r="BG15" s="191"/>
+      <c r="BI15" s="71"/>
+      <c r="BJ15" s="87"/>
+      <c r="BK15" s="88"/>
+      <c r="BV15" s="71"/>
+      <c r="CC15" s="191"/>
+      <c r="CE15" s="71"/>
+      <c r="CG15" s="87"/>
+      <c r="CH15" s="88"/>
+      <c r="CL15" s="191"/>
+      <c r="CN15" s="71"/>
+      <c r="CQ15" s="87"/>
+      <c r="CR15" s="88"/>
+      <c r="CV15" s="191"/>
+      <c r="CW15" s="87"/>
+      <c r="CX15" s="71"/>
+    </row>
+    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="115"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="246"/>
+      <c r="Q16" s="168">
+        <v>16</v>
+      </c>
+      <c r="R16" s="115"/>
+      <c r="AH16" s="192"/>
+      <c r="AJ16" s="118"/>
+      <c r="AK16" s="192"/>
+      <c r="AM16" s="274"/>
+      <c r="AN16" s="115"/>
+      <c r="BD16" s="118"/>
+      <c r="BG16" s="192"/>
+      <c r="BI16" s="118"/>
+      <c r="BJ16" s="166"/>
+      <c r="BK16" s="115"/>
+      <c r="BV16" s="118"/>
+      <c r="CC16" s="192"/>
+      <c r="CE16" s="118"/>
+      <c r="CG16" s="166"/>
+      <c r="CH16" s="115"/>
+      <c r="CL16" s="192"/>
+      <c r="CN16" s="118"/>
+      <c r="CQ16" s="166"/>
+      <c r="CR16" s="115"/>
+      <c r="CV16" s="192"/>
+      <c r="CW16" s="166"/>
+      <c r="CX16" s="118"/>
+    </row>
+    <row r="17" spans="1:102" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="120"/>
+      <c r="P17" s="247"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="120"/>
+      <c r="AH17" s="193"/>
+      <c r="AJ17" s="123"/>
+      <c r="AK17" s="193"/>
+      <c r="AM17" s="275"/>
+      <c r="AN17" s="120"/>
+      <c r="BD17" s="123"/>
+      <c r="BG17" s="193"/>
+      <c r="BI17" s="123"/>
+      <c r="BJ17" s="122"/>
+      <c r="BK17" s="120"/>
+      <c r="BV17" s="123"/>
+      <c r="CC17" s="193"/>
+      <c r="CE17" s="123"/>
+      <c r="CG17" s="122"/>
+      <c r="CH17" s="120"/>
+      <c r="CL17" s="193"/>
+      <c r="CN17" s="123"/>
+      <c r="CQ17" s="122"/>
+      <c r="CR17" s="120"/>
+      <c r="CV17" s="193"/>
+      <c r="CW17" s="122"/>
+      <c r="CX17" s="123"/>
+    </row>
+    <row r="18" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="89"/>
+      <c r="P18" s="248"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="167"/>
+      <c r="AK18" s="194"/>
+      <c r="AM18" s="276"/>
+      <c r="AN18" s="89"/>
+      <c r="BD18" s="72"/>
+      <c r="BG18" s="194"/>
+      <c r="BI18" s="72"/>
+      <c r="BJ18" s="90"/>
+      <c r="BK18" s="89"/>
+      <c r="BV18" s="72"/>
+      <c r="CC18" s="194"/>
+      <c r="CE18" s="72"/>
+      <c r="CG18" s="90"/>
+      <c r="CH18" s="89"/>
+      <c r="CL18" s="194"/>
+      <c r="CN18" s="72"/>
+      <c r="CQ18" s="90"/>
+      <c r="CR18" s="89"/>
+      <c r="CV18" s="194"/>
+      <c r="CW18" s="90"/>
+      <c r="CX18" s="72"/>
+    </row>
+    <row r="19" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="P19" s="248"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="167"/>
+      <c r="AK19" s="194"/>
+      <c r="AM19" s="276"/>
+      <c r="AN19" s="89"/>
+      <c r="BD19" s="72"/>
+      <c r="BG19" s="194"/>
+      <c r="BI19" s="72"/>
+      <c r="BJ19" s="90"/>
+      <c r="BK19" s="89"/>
+      <c r="BV19" s="72"/>
+      <c r="CC19" s="194"/>
+      <c r="CE19" s="72"/>
+      <c r="CG19" s="90"/>
+      <c r="CH19" s="89"/>
+      <c r="CL19" s="194"/>
+      <c r="CN19" s="72"/>
+      <c r="CQ19" s="90"/>
+      <c r="CR19" s="89"/>
+      <c r="CV19" s="194"/>
+      <c r="CW19" s="90"/>
+      <c r="CX19" s="72"/>
+    </row>
+    <row r="20" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="89"/>
+      <c r="P20" s="248"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="67"/>
+      <c r="AK20" s="194"/>
+      <c r="AM20" s="276"/>
+      <c r="AN20" s="89"/>
+      <c r="BD20" s="72"/>
+      <c r="BG20" s="194"/>
+      <c r="BI20" s="72"/>
+      <c r="BJ20" s="90"/>
+      <c r="BK20" s="89"/>
+      <c r="BV20" s="72"/>
+      <c r="CC20" s="194"/>
+      <c r="CE20" s="72"/>
+      <c r="CG20" s="90"/>
+      <c r="CH20" s="89"/>
+      <c r="CL20" s="194"/>
+      <c r="CN20" s="72"/>
+      <c r="CQ20" s="90"/>
+      <c r="CR20" s="89"/>
+      <c r="CV20" s="194"/>
+      <c r="CW20" s="90"/>
+      <c r="CX20" s="72"/>
+    </row>
+    <row r="21" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="89"/>
+      <c r="P21" s="248"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="89"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AK21" s="194"/>
+      <c r="AM21" s="276"/>
+      <c r="AN21" s="89"/>
+      <c r="BD21" s="72"/>
+      <c r="BG21" s="194"/>
+      <c r="BI21" s="72"/>
+      <c r="BJ21" s="90"/>
+      <c r="BK21" s="89"/>
+      <c r="BV21" s="72"/>
+      <c r="CC21" s="194"/>
+      <c r="CE21" s="72"/>
+      <c r="CG21" s="90"/>
+      <c r="CH21" s="89"/>
+      <c r="CL21" s="194"/>
+      <c r="CN21" s="72"/>
+      <c r="CQ21" s="90"/>
+      <c r="CR21" s="89"/>
+      <c r="CV21" s="194"/>
+      <c r="CW21" s="90"/>
+      <c r="CX21" s="72"/>
+    </row>
+    <row r="22" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="P22" s="248"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="89"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="AK22" s="194"/>
+      <c r="AM22" s="276"/>
+      <c r="AN22" s="89"/>
+      <c r="BD22" s="72"/>
+      <c r="BG22" s="194"/>
+      <c r="BI22" s="72"/>
+      <c r="BJ22" s="90"/>
+      <c r="BK22" s="89"/>
+      <c r="BV22" s="72"/>
+      <c r="CC22" s="194"/>
+      <c r="CE22" s="72"/>
+      <c r="CG22" s="90"/>
+      <c r="CH22" s="89"/>
+      <c r="CL22" s="194"/>
+      <c r="CN22" s="72"/>
+      <c r="CQ22" s="90"/>
+      <c r="CR22" s="89"/>
+      <c r="CV22" s="194"/>
+      <c r="CW22" s="90"/>
+      <c r="CX22" s="72"/>
+    </row>
+    <row r="23" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="P23" s="248"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="AK23" s="194"/>
+      <c r="AM23" s="276"/>
+      <c r="AN23" s="89"/>
+      <c r="BD23" s="72"/>
+      <c r="BG23" s="194"/>
+      <c r="BI23" s="72"/>
+      <c r="BJ23" s="90"/>
+      <c r="BK23" s="89"/>
+      <c r="BV23" s="72"/>
+      <c r="CC23" s="194"/>
+      <c r="CE23" s="72"/>
+      <c r="CG23" s="90"/>
+      <c r="CH23" s="89"/>
+      <c r="CL23" s="194"/>
+      <c r="CN23" s="72"/>
+      <c r="CQ23" s="90"/>
+      <c r="CR23" s="89"/>
+      <c r="CV23" s="194"/>
+      <c r="CW23" s="90"/>
+      <c r="CX23" s="72"/>
+    </row>
+    <row r="24" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="89"/>
+      <c r="P24" s="248"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="89"/>
+      <c r="AK24" s="194"/>
+      <c r="AM24" s="276"/>
+      <c r="AN24" s="89"/>
+      <c r="BD24" s="72"/>
+      <c r="BG24" s="194"/>
+      <c r="BI24" s="72"/>
+      <c r="BJ24" s="90"/>
+      <c r="BK24" s="89"/>
+      <c r="BV24" s="72"/>
+      <c r="CC24" s="194"/>
+      <c r="CE24" s="72"/>
+      <c r="CG24" s="90"/>
+      <c r="CH24" s="89"/>
+      <c r="CL24" s="194"/>
+      <c r="CN24" s="72"/>
+      <c r="CQ24" s="90"/>
+      <c r="CR24" s="89"/>
+      <c r="CV24" s="194"/>
+      <c r="CW24" s="90"/>
+      <c r="CX24" s="72"/>
+    </row>
+    <row r="25" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="89"/>
+      <c r="P25" s="248"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="89"/>
+      <c r="AB25" s="67"/>
+      <c r="AK25" s="194"/>
+      <c r="AM25" s="276"/>
+      <c r="AN25" s="89"/>
+      <c r="BD25" s="72"/>
+      <c r="BG25" s="194"/>
+      <c r="BI25" s="72"/>
+      <c r="BJ25" s="90"/>
+      <c r="BK25" s="89"/>
+      <c r="BV25" s="72"/>
+      <c r="CC25" s="194"/>
+      <c r="CE25" s="72"/>
+      <c r="CG25" s="90"/>
+      <c r="CH25" s="89"/>
+      <c r="CL25" s="194"/>
+      <c r="CN25" s="72"/>
+      <c r="CQ25" s="90"/>
+      <c r="CR25" s="89"/>
+      <c r="CV25" s="194"/>
+      <c r="CW25" s="90"/>
+      <c r="CX25" s="72"/>
+    </row>
+    <row r="26" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="89"/>
+      <c r="P26" s="248"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="89"/>
+      <c r="AC26" s="67"/>
+      <c r="AK26" s="194"/>
+      <c r="AM26" s="276"/>
+      <c r="AN26" s="89"/>
+      <c r="BD26" s="72"/>
+      <c r="BG26" s="194"/>
+      <c r="BI26" s="72"/>
+      <c r="BJ26" s="90"/>
+      <c r="BK26" s="89"/>
+      <c r="BV26" s="72"/>
+      <c r="CC26" s="194"/>
+      <c r="CE26" s="72"/>
+      <c r="CG26" s="90"/>
+      <c r="CH26" s="89"/>
+      <c r="CL26" s="194"/>
+      <c r="CN26" s="72"/>
+      <c r="CQ26" s="90"/>
+      <c r="CR26" s="89"/>
+      <c r="CV26" s="194"/>
+      <c r="CW26" s="90"/>
+      <c r="CX26" s="72"/>
+    </row>
+    <row r="27" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="89"/>
+      <c r="P27" s="248"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="89"/>
+      <c r="AA27" s="67"/>
+      <c r="AK27" s="194"/>
+      <c r="AM27" s="276"/>
+      <c r="AN27" s="89"/>
+      <c r="BD27" s="72"/>
+      <c r="BG27" s="194"/>
+      <c r="BI27" s="72"/>
+      <c r="BJ27" s="90"/>
+      <c r="BK27" s="89"/>
+      <c r="BV27" s="72"/>
+      <c r="CC27" s="194"/>
+      <c r="CE27" s="72"/>
+      <c r="CG27" s="90"/>
+      <c r="CH27" s="89"/>
+      <c r="CL27" s="194"/>
+      <c r="CN27" s="72"/>
+      <c r="CQ27" s="90"/>
+      <c r="CR27" s="89"/>
+      <c r="CV27" s="194"/>
+      <c r="CW27" s="90"/>
+      <c r="CX27" s="72"/>
+    </row>
+    <row r="28" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="89"/>
+      <c r="P28" s="248"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="89"/>
+      <c r="Z28" s="67"/>
+      <c r="AK28" s="194"/>
+      <c r="AM28" s="276"/>
+      <c r="AN28" s="89"/>
+      <c r="BD28" s="72"/>
+      <c r="BG28" s="194"/>
+      <c r="BI28" s="72"/>
+      <c r="BJ28" s="90"/>
+      <c r="BK28" s="89"/>
+      <c r="BV28" s="72"/>
+      <c r="CC28" s="194"/>
+      <c r="CE28" s="72"/>
+      <c r="CG28" s="90"/>
+      <c r="CH28" s="89"/>
+      <c r="CL28" s="194"/>
+      <c r="CN28" s="72"/>
+      <c r="CQ28" s="90"/>
+      <c r="CR28" s="89"/>
+      <c r="CV28" s="194"/>
+      <c r="CW28" s="90"/>
+      <c r="CX28" s="72"/>
+    </row>
+    <row r="29" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="89"/>
+      <c r="P29" s="248"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="89"/>
+      <c r="Y29" s="67"/>
+      <c r="AK29" s="194"/>
+      <c r="AM29" s="276"/>
+      <c r="AN29" s="89"/>
+      <c r="BD29" s="72"/>
+      <c r="BG29" s="194"/>
+      <c r="BI29" s="72"/>
+      <c r="BJ29" s="90"/>
+      <c r="BK29" s="89"/>
+      <c r="BV29" s="72"/>
+      <c r="CC29" s="194"/>
+      <c r="CE29" s="72"/>
+      <c r="CG29" s="90"/>
+      <c r="CH29" s="89"/>
+      <c r="CL29" s="194"/>
+      <c r="CN29" s="72"/>
+      <c r="CQ29" s="90"/>
+      <c r="CR29" s="89"/>
+      <c r="CV29" s="194"/>
+      <c r="CW29" s="90"/>
+      <c r="CX29" s="72"/>
+    </row>
+    <row r="30" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="89"/>
+      <c r="P30" s="248"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="89"/>
+      <c r="AD30" s="67"/>
+      <c r="AK30" s="194"/>
+      <c r="AM30" s="276"/>
+      <c r="AN30" s="89"/>
+      <c r="BD30" s="72"/>
+      <c r="BG30" s="194"/>
+      <c r="BI30" s="72"/>
+      <c r="BJ30" s="90"/>
+      <c r="BK30" s="89"/>
+      <c r="BV30" s="72"/>
+      <c r="CC30" s="194"/>
+      <c r="CE30" s="72"/>
+      <c r="CG30" s="90"/>
+      <c r="CH30" s="89"/>
+      <c r="CL30" s="194"/>
+      <c r="CN30" s="72"/>
+      <c r="CQ30" s="90"/>
+      <c r="CR30" s="89"/>
+      <c r="CV30" s="194"/>
+      <c r="CW30" s="90"/>
+      <c r="CX30" s="72"/>
+    </row>
+    <row r="31" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="89"/>
+      <c r="P31" s="248"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="67"/>
+      <c r="AK31" s="194"/>
+      <c r="AM31" s="276"/>
+      <c r="AN31" s="89"/>
+      <c r="BD31" s="72"/>
+      <c r="BG31" s="194"/>
+      <c r="BI31" s="72"/>
+      <c r="BJ31" s="90"/>
+      <c r="BK31" s="89"/>
+      <c r="BV31" s="72"/>
+      <c r="CC31" s="194"/>
+      <c r="CE31" s="72"/>
+      <c r="CG31" s="90"/>
+      <c r="CH31" s="89"/>
+      <c r="CL31" s="194"/>
+      <c r="CN31" s="72"/>
+      <c r="CQ31" s="90"/>
+      <c r="CR31" s="89"/>
+      <c r="CV31" s="194"/>
+      <c r="CW31" s="90"/>
+      <c r="CX31" s="72"/>
+    </row>
+    <row r="32" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="89"/>
+      <c r="P32" s="248"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="89"/>
+      <c r="AE32" s="67"/>
+      <c r="AK32" s="194"/>
+      <c r="AM32" s="276"/>
+      <c r="AN32" s="89"/>
+      <c r="BD32" s="72"/>
+      <c r="BG32" s="194"/>
+      <c r="BI32" s="72"/>
+      <c r="BJ32" s="90"/>
+      <c r="BK32" s="89"/>
+      <c r="BV32" s="72"/>
+      <c r="CC32" s="194"/>
+      <c r="CE32" s="72"/>
+      <c r="CG32" s="90"/>
+      <c r="CH32" s="89"/>
+      <c r="CL32" s="194"/>
+      <c r="CN32" s="72"/>
+      <c r="CQ32" s="90"/>
+      <c r="CR32" s="89"/>
+      <c r="CV32" s="194"/>
+      <c r="CW32" s="90"/>
+      <c r="CX32" s="72"/>
+    </row>
+    <row r="33" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="89"/>
+      <c r="P33" s="248"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="89"/>
+      <c r="AE33" s="67"/>
+      <c r="AK33" s="194"/>
+      <c r="AM33" s="276"/>
+      <c r="AN33" s="89"/>
+      <c r="BD33" s="72"/>
+      <c r="BG33" s="194"/>
+      <c r="BI33" s="72"/>
+      <c r="BJ33" s="90"/>
+      <c r="BK33" s="89"/>
+      <c r="BV33" s="72"/>
+      <c r="CC33" s="194"/>
+      <c r="CE33" s="72"/>
+      <c r="CG33" s="90"/>
+      <c r="CH33" s="89"/>
+      <c r="CL33" s="194"/>
+      <c r="CN33" s="72"/>
+      <c r="CQ33" s="90"/>
+      <c r="CR33" s="89"/>
+      <c r="CV33" s="194"/>
+      <c r="CW33" s="90"/>
+      <c r="CX33" s="72"/>
+    </row>
+    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="125"/>
+      <c r="P34" s="249"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="128"/>
+      <c r="AF34" s="164"/>
+      <c r="AG34" s="164"/>
+      <c r="AH34" s="164"/>
+      <c r="AI34" s="164"/>
+      <c r="AJ34" s="164"/>
+      <c r="AK34" s="217"/>
+      <c r="AL34" s="217"/>
+      <c r="AM34" s="170">
+        <v>22</v>
+      </c>
+      <c r="AN34" s="125"/>
+      <c r="BD34" s="128"/>
+      <c r="BG34" s="195"/>
+      <c r="BI34" s="128"/>
+      <c r="BJ34" s="127"/>
+      <c r="BK34" s="125"/>
+      <c r="BV34" s="128"/>
+      <c r="CC34" s="195"/>
+      <c r="CE34" s="128"/>
+      <c r="CG34" s="127"/>
+      <c r="CH34" s="125"/>
+      <c r="CL34" s="195"/>
+      <c r="CN34" s="128"/>
+      <c r="CQ34" s="127"/>
+      <c r="CR34" s="125"/>
+      <c r="CV34" s="195"/>
+      <c r="CW34" s="127"/>
+      <c r="CX34" s="128"/>
+    </row>
+    <row r="35" spans="1:102" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="130"/>
+      <c r="P35" s="250"/>
+      <c r="Q35" s="132"/>
+      <c r="R35" s="130"/>
+      <c r="AH35" s="196"/>
+      <c r="AJ35" s="133"/>
+      <c r="AK35" s="196"/>
+      <c r="AM35" s="277"/>
+      <c r="AN35" s="130"/>
+      <c r="BD35" s="133"/>
+      <c r="BG35" s="196"/>
+      <c r="BI35" s="133"/>
+      <c r="BJ35" s="132"/>
+      <c r="BK35" s="130"/>
+      <c r="BV35" s="133"/>
+      <c r="CC35" s="196"/>
+      <c r="CE35" s="133"/>
+      <c r="CG35" s="132"/>
+      <c r="CH35" s="130"/>
+      <c r="CL35" s="196"/>
+      <c r="CN35" s="133"/>
+      <c r="CQ35" s="132"/>
+      <c r="CR35" s="130"/>
+      <c r="CV35" s="196"/>
+      <c r="CW35" s="132"/>
+      <c r="CX35" s="133"/>
+    </row>
+    <row r="36" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="91"/>
+      <c r="P36" s="251"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="91"/>
+      <c r="AH36" s="197"/>
+      <c r="AK36" s="197"/>
+      <c r="AM36" s="92"/>
+      <c r="AN36" s="179"/>
+      <c r="BH36" s="197"/>
+      <c r="BJ36" s="92"/>
+      <c r="BK36" s="91"/>
+      <c r="BV36" s="73"/>
+      <c r="CC36" s="197"/>
+      <c r="CE36" s="73"/>
+      <c r="CG36" s="92"/>
+      <c r="CH36" s="91"/>
+      <c r="CL36" s="197"/>
+      <c r="CN36" s="73"/>
+      <c r="CQ36" s="92"/>
+      <c r="CR36" s="91"/>
+      <c r="CV36" s="197"/>
+      <c r="CW36" s="92"/>
+      <c r="CX36" s="73"/>
+    </row>
+    <row r="37" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="91"/>
+      <c r="P37" s="251"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="91"/>
+      <c r="AH37" s="197"/>
+      <c r="AK37" s="197"/>
+      <c r="AM37" s="92"/>
+      <c r="AN37" s="91"/>
+      <c r="AO37" s="171"/>
+      <c r="AP37" s="171"/>
+      <c r="BH37" s="197"/>
+      <c r="BJ37" s="92"/>
+      <c r="BK37" s="91"/>
+      <c r="BV37" s="73"/>
+      <c r="CC37" s="197"/>
+      <c r="CE37" s="73"/>
+      <c r="CG37" s="92"/>
+      <c r="CH37" s="91"/>
+      <c r="CL37" s="197"/>
+      <c r="CN37" s="73"/>
+      <c r="CQ37" s="92"/>
+      <c r="CR37" s="91"/>
+      <c r="CV37" s="197"/>
+      <c r="CW37" s="92"/>
+      <c r="CX37" s="73"/>
+    </row>
+    <row r="38" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="91"/>
+      <c r="P38" s="251"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="91"/>
+      <c r="AH38" s="197"/>
+      <c r="AK38" s="197"/>
+      <c r="AM38" s="92"/>
+      <c r="AN38" s="91"/>
+      <c r="AQ38" s="171"/>
+      <c r="BH38" s="197"/>
+      <c r="BJ38" s="92"/>
+      <c r="BK38" s="91"/>
+      <c r="BV38" s="73"/>
+      <c r="CC38" s="197"/>
+      <c r="CE38" s="73"/>
+      <c r="CG38" s="92"/>
+      <c r="CH38" s="91"/>
+      <c r="CL38" s="197"/>
+      <c r="CN38" s="73"/>
+      <c r="CQ38" s="92"/>
+      <c r="CR38" s="91"/>
+      <c r="CV38" s="197"/>
+      <c r="CW38" s="92"/>
+      <c r="CX38" s="73"/>
+    </row>
+    <row r="39" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="91"/>
+      <c r="P39" s="251"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="91"/>
+      <c r="AH39" s="197"/>
+      <c r="AK39" s="197"/>
+      <c r="AM39" s="92"/>
+      <c r="AN39" s="91"/>
+      <c r="BH39" s="197"/>
+      <c r="BJ39" s="92"/>
+      <c r="BK39" s="91"/>
+      <c r="BV39" s="73"/>
+      <c r="CC39" s="197"/>
+      <c r="CE39" s="73"/>
+      <c r="CG39" s="92"/>
+      <c r="CH39" s="91"/>
+      <c r="CL39" s="197"/>
+      <c r="CN39" s="73"/>
+      <c r="CQ39" s="92"/>
+      <c r="CR39" s="91"/>
+      <c r="CV39" s="197"/>
+      <c r="CW39" s="92"/>
+      <c r="CX39" s="73"/>
+    </row>
+    <row r="40" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="172" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="173"/>
+      <c r="P40" s="252"/>
+      <c r="Q40" s="175"/>
+      <c r="R40" s="173"/>
+      <c r="AH40" s="198"/>
+      <c r="AK40" s="198"/>
+      <c r="AM40" s="175"/>
+      <c r="AN40" s="173"/>
+      <c r="AU40" s="177"/>
+      <c r="BH40" s="198"/>
+      <c r="BJ40" s="175"/>
+      <c r="BK40" s="173"/>
+      <c r="BV40" s="176"/>
+      <c r="CC40" s="198"/>
+      <c r="CE40" s="176"/>
+      <c r="CG40" s="175"/>
+      <c r="CH40" s="173"/>
+      <c r="CL40" s="198"/>
+      <c r="CN40" s="176"/>
+      <c r="CQ40" s="175"/>
+      <c r="CR40" s="173"/>
+      <c r="CV40" s="198"/>
+      <c r="CW40" s="175"/>
+      <c r="CX40" s="176"/>
+    </row>
+    <row r="41" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="173"/>
+      <c r="P41" s="252"/>
+      <c r="Q41" s="175"/>
+      <c r="R41" s="173"/>
+      <c r="AH41" s="198"/>
+      <c r="AK41" s="198"/>
+      <c r="AM41" s="175"/>
+      <c r="AN41" s="173"/>
+      <c r="AV41" s="177"/>
+      <c r="BH41" s="198"/>
+      <c r="BJ41" s="175"/>
+      <c r="BK41" s="173"/>
+      <c r="BV41" s="176"/>
+      <c r="CC41" s="198"/>
+      <c r="CE41" s="176"/>
+      <c r="CG41" s="175"/>
+      <c r="CH41" s="173"/>
+      <c r="CL41" s="198"/>
+      <c r="CN41" s="176"/>
+      <c r="CQ41" s="175"/>
+      <c r="CR41" s="173"/>
+      <c r="CV41" s="198"/>
+      <c r="CW41" s="175"/>
+      <c r="CX41" s="176"/>
+    </row>
+    <row r="42" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="172" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="173"/>
+      <c r="P42" s="252"/>
+      <c r="Q42" s="175"/>
+      <c r="R42" s="173"/>
+      <c r="AH42" s="198"/>
+      <c r="AK42" s="198"/>
+      <c r="AM42" s="175"/>
+      <c r="AN42" s="173"/>
+      <c r="AV42" s="177"/>
+      <c r="BH42" s="198"/>
+      <c r="BJ42" s="175"/>
+      <c r="BK42" s="173"/>
+      <c r="BV42" s="176"/>
+      <c r="CC42" s="198"/>
+      <c r="CE42" s="176"/>
+      <c r="CG42" s="175"/>
+      <c r="CH42" s="173"/>
+      <c r="CL42" s="198"/>
+      <c r="CN42" s="176"/>
+      <c r="CQ42" s="175"/>
+      <c r="CR42" s="173"/>
+      <c r="CV42" s="198"/>
+      <c r="CW42" s="175"/>
+      <c r="CX42" s="176"/>
+    </row>
+    <row r="43" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="172" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="173"/>
+      <c r="P43" s="252"/>
+      <c r="Q43" s="175"/>
+      <c r="R43" s="173"/>
+      <c r="AH43" s="198"/>
+      <c r="AK43" s="198"/>
+      <c r="AM43" s="175"/>
+      <c r="AN43" s="173"/>
+      <c r="AT43" s="177"/>
+      <c r="BH43" s="198"/>
+      <c r="BJ43" s="175"/>
+      <c r="BK43" s="173"/>
+      <c r="BV43" s="176"/>
+      <c r="CC43" s="198"/>
+      <c r="CE43" s="176"/>
+      <c r="CG43" s="175"/>
+      <c r="CH43" s="173"/>
+      <c r="CL43" s="198"/>
+      <c r="CN43" s="176"/>
+      <c r="CQ43" s="175"/>
+      <c r="CR43" s="173"/>
+      <c r="CV43" s="198"/>
+      <c r="CW43" s="175"/>
+      <c r="CX43" s="176"/>
+    </row>
+    <row r="44" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="172" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="173"/>
+      <c r="P44" s="252"/>
+      <c r="Q44" s="175"/>
+      <c r="R44" s="173"/>
+      <c r="AH44" s="198"/>
+      <c r="AK44" s="198"/>
+      <c r="AM44" s="175"/>
+      <c r="AN44" s="173"/>
+      <c r="AS44" s="177"/>
+      <c r="BH44" s="198"/>
+      <c r="BJ44" s="175"/>
+      <c r="BK44" s="173"/>
+      <c r="BV44" s="176"/>
+      <c r="CC44" s="198"/>
+      <c r="CE44" s="176"/>
+      <c r="CG44" s="175"/>
+      <c r="CH44" s="173"/>
+      <c r="CL44" s="198"/>
+      <c r="CN44" s="176"/>
+      <c r="CQ44" s="175"/>
+      <c r="CR44" s="173"/>
+      <c r="CV44" s="198"/>
+      <c r="CW44" s="175"/>
+      <c r="CX44" s="176"/>
+    </row>
+    <row r="45" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="173"/>
+      <c r="P45" s="252"/>
+      <c r="Q45" s="175"/>
+      <c r="R45" s="173"/>
+      <c r="AH45" s="198"/>
+      <c r="AK45" s="198"/>
+      <c r="AM45" s="175"/>
+      <c r="AN45" s="173"/>
+      <c r="AR45" s="177"/>
+      <c r="BH45" s="198"/>
+      <c r="BJ45" s="175"/>
+      <c r="BK45" s="173"/>
+      <c r="BV45" s="176"/>
+      <c r="CC45" s="198"/>
+      <c r="CE45" s="176"/>
+      <c r="CG45" s="175"/>
+      <c r="CH45" s="173"/>
+      <c r="CL45" s="198"/>
+      <c r="CN45" s="176"/>
+      <c r="CQ45" s="175"/>
+      <c r="CR45" s="173"/>
+      <c r="CV45" s="198"/>
+      <c r="CW45" s="175"/>
+      <c r="CX45" s="176"/>
+    </row>
+    <row r="46" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="91"/>
+      <c r="P46" s="251"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="91"/>
+      <c r="AH46" s="197"/>
+      <c r="AK46" s="197"/>
+      <c r="AM46" s="92"/>
+      <c r="AN46" s="91"/>
+      <c r="AW46" s="171"/>
+      <c r="AX46" s="171"/>
+      <c r="BH46" s="197"/>
+      <c r="BJ46" s="92"/>
+      <c r="BK46" s="91"/>
+      <c r="BV46" s="73"/>
+      <c r="CC46" s="197"/>
+      <c r="CE46" s="73"/>
+      <c r="CG46" s="92"/>
+      <c r="CH46" s="91"/>
+      <c r="CL46" s="197"/>
+      <c r="CN46" s="73"/>
+      <c r="CQ46" s="92"/>
+      <c r="CR46" s="91"/>
+      <c r="CV46" s="197"/>
+      <c r="CW46" s="92"/>
+      <c r="CX46" s="73"/>
+    </row>
+    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="135"/>
+      <c r="P47" s="253"/>
+      <c r="Q47" s="137"/>
+      <c r="R47" s="135"/>
+      <c r="AH47" s="199"/>
+      <c r="AK47" s="199"/>
+      <c r="AM47" s="137"/>
+      <c r="AN47" s="135"/>
+      <c r="AY47" s="231" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ47" s="232"/>
+      <c r="BA47" s="233"/>
+      <c r="BB47" s="178"/>
+      <c r="BC47" s="178"/>
+      <c r="BD47" s="178"/>
+      <c r="BE47" s="178"/>
+      <c r="BF47" s="178"/>
+      <c r="BG47" s="178"/>
+      <c r="BH47" s="243"/>
+      <c r="BI47" s="243"/>
+      <c r="BJ47" s="180">
+        <v>23</v>
+      </c>
+      <c r="BK47" s="135"/>
+      <c r="BV47" s="138"/>
+      <c r="CC47" s="199"/>
+      <c r="CE47" s="138"/>
+      <c r="CG47" s="137"/>
+      <c r="CH47" s="135"/>
+      <c r="CL47" s="199"/>
+      <c r="CN47" s="138"/>
+      <c r="CQ47" s="137"/>
+      <c r="CR47" s="135"/>
+      <c r="CV47" s="199"/>
+      <c r="CW47" s="137"/>
+      <c r="CX47" s="138"/>
+    </row>
+    <row r="48" spans="1:102" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="140"/>
+      <c r="P48" s="254"/>
+      <c r="Q48" s="142"/>
+      <c r="R48" s="140"/>
+      <c r="AH48" s="200"/>
+      <c r="AJ48" s="143"/>
+      <c r="AK48" s="200"/>
+      <c r="AM48" s="278"/>
+      <c r="AN48" s="140"/>
+      <c r="BD48" s="143"/>
+      <c r="BG48" s="200"/>
+      <c r="BI48" s="143"/>
+      <c r="BJ48" s="142"/>
+      <c r="BK48" s="140"/>
+      <c r="BV48" s="143"/>
+      <c r="CC48" s="200"/>
+      <c r="CE48" s="143"/>
+      <c r="CG48" s="142"/>
+      <c r="CH48" s="140"/>
+      <c r="CL48" s="200"/>
+      <c r="CN48" s="143"/>
+      <c r="CQ48" s="142"/>
+      <c r="CR48" s="140"/>
+      <c r="CV48" s="200"/>
+      <c r="CW48" s="142"/>
+      <c r="CX48" s="143"/>
+    </row>
+    <row r="49" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="93"/>
+      <c r="P49" s="255"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="93"/>
+      <c r="AH49" s="201"/>
+      <c r="AJ49" s="74"/>
+      <c r="AK49" s="201"/>
+      <c r="AM49" s="279"/>
+      <c r="AN49" s="93"/>
+      <c r="BG49" s="201"/>
+      <c r="BJ49" s="94"/>
+      <c r="BK49" s="93"/>
+      <c r="BL49" s="183"/>
+      <c r="CE49" s="201"/>
+      <c r="CG49" s="94"/>
+      <c r="CH49" s="93"/>
+      <c r="CL49" s="201"/>
+      <c r="CN49" s="74"/>
+      <c r="CQ49" s="94"/>
+      <c r="CR49" s="93"/>
+      <c r="CV49" s="201"/>
+      <c r="CW49" s="94"/>
+      <c r="CX49" s="74"/>
+    </row>
+    <row r="50" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="93"/>
+      <c r="P50" s="255"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="93"/>
+      <c r="AH50" s="201"/>
+      <c r="AJ50" s="74"/>
+      <c r="AK50" s="201"/>
+      <c r="AM50" s="279"/>
+      <c r="AN50" s="93"/>
+      <c r="BG50" s="201"/>
+      <c r="BJ50" s="94"/>
+      <c r="BK50" s="269"/>
+      <c r="CE50" s="201"/>
+      <c r="CG50" s="94"/>
+      <c r="CH50" s="93"/>
+      <c r="CL50" s="201"/>
+      <c r="CN50" s="74"/>
+      <c r="CQ50" s="94"/>
+      <c r="CR50" s="93"/>
+      <c r="CV50" s="201"/>
+      <c r="CW50" s="94"/>
+      <c r="CX50" s="74"/>
+    </row>
+    <row r="51" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="93"/>
+      <c r="P51" s="255"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="93"/>
+      <c r="AH51" s="201"/>
+      <c r="AJ51" s="74"/>
+      <c r="AK51" s="201"/>
+      <c r="AM51" s="279"/>
+      <c r="AN51" s="93"/>
+      <c r="BG51" s="201"/>
+      <c r="BJ51" s="94"/>
+      <c r="BK51" s="93"/>
+      <c r="BM51" s="183"/>
+      <c r="CE51" s="201"/>
+      <c r="CG51" s="94"/>
+      <c r="CH51" s="93"/>
+      <c r="CL51" s="201"/>
+      <c r="CN51" s="74"/>
+      <c r="CQ51" s="94"/>
+      <c r="CR51" s="93"/>
+      <c r="CV51" s="201"/>
+      <c r="CW51" s="94"/>
+      <c r="CX51" s="74"/>
+    </row>
+    <row r="52" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="93"/>
+      <c r="P52" s="255"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="93"/>
+      <c r="AH52" s="201"/>
+      <c r="AJ52" s="74"/>
+      <c r="AK52" s="201"/>
+      <c r="AM52" s="279"/>
+      <c r="AN52" s="93"/>
+      <c r="BG52" s="201"/>
+      <c r="BJ52" s="94"/>
+      <c r="BK52" s="93"/>
+      <c r="BN52" s="183"/>
+      <c r="CE52" s="201"/>
+      <c r="CG52" s="94"/>
+      <c r="CH52" s="93"/>
+      <c r="CL52" s="201"/>
+      <c r="CN52" s="74"/>
+      <c r="CQ52" s="94"/>
+      <c r="CR52" s="93"/>
+      <c r="CV52" s="201"/>
+      <c r="CW52" s="94"/>
+      <c r="CX52" s="74"/>
+    </row>
+    <row r="53" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="93"/>
+      <c r="P53" s="255"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="93"/>
+      <c r="AH53" s="201"/>
+      <c r="AJ53" s="74"/>
+      <c r="AK53" s="201"/>
+      <c r="AM53" s="279"/>
+      <c r="AN53" s="93"/>
+      <c r="BG53" s="201"/>
+      <c r="BJ53" s="94"/>
+      <c r="BK53" s="93"/>
+      <c r="BS53" s="183"/>
+      <c r="CE53" s="201"/>
+      <c r="CG53" s="94"/>
+      <c r="CH53" s="93"/>
+      <c r="CL53" s="201"/>
+      <c r="CN53" s="74"/>
+      <c r="CQ53" s="94"/>
+      <c r="CR53" s="93"/>
+      <c r="CV53" s="201"/>
+      <c r="CW53" s="94"/>
+      <c r="CX53" s="74"/>
+    </row>
+    <row r="54" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="93"/>
+      <c r="P54" s="255"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="93"/>
+      <c r="AH54" s="201"/>
+      <c r="AJ54" s="74"/>
+      <c r="AK54" s="201"/>
+      <c r="AM54" s="279"/>
+      <c r="AN54" s="93"/>
+      <c r="BG54" s="201"/>
+      <c r="BJ54" s="94"/>
+      <c r="BK54" s="93"/>
+      <c r="BO54" s="183"/>
+      <c r="CE54" s="201"/>
+      <c r="CG54" s="94"/>
+      <c r="CH54" s="93"/>
+      <c r="CL54" s="201"/>
+      <c r="CN54" s="74"/>
+      <c r="CQ54" s="94"/>
+      <c r="CR54" s="93"/>
+      <c r="CV54" s="201"/>
+      <c r="CW54" s="94"/>
+      <c r="CX54" s="74"/>
+    </row>
+    <row r="55" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="93"/>
+      <c r="P55" s="255"/>
+      <c r="Q55" s="94"/>
+      <c r="R55" s="93"/>
+      <c r="AH55" s="201"/>
+      <c r="AJ55" s="74"/>
+      <c r="AK55" s="201"/>
+      <c r="AM55" s="279"/>
+      <c r="AN55" s="93"/>
+      <c r="BG55" s="201"/>
+      <c r="BJ55" s="94"/>
+      <c r="BK55" s="93"/>
+      <c r="CE55" s="201"/>
+      <c r="CG55" s="94"/>
+      <c r="CH55" s="93"/>
+      <c r="CL55" s="201"/>
+      <c r="CN55" s="74"/>
+      <c r="CQ55" s="94"/>
+      <c r="CR55" s="93"/>
+      <c r="CV55" s="201"/>
+      <c r="CW55" s="94"/>
+      <c r="CX55" s="74"/>
+    </row>
+    <row r="56" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="181" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="93"/>
+      <c r="P56" s="255"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="93"/>
+      <c r="AH56" s="201"/>
+      <c r="AJ56" s="74"/>
+      <c r="AK56" s="201"/>
+      <c r="AM56" s="279"/>
+      <c r="AN56" s="93"/>
+      <c r="BG56" s="201"/>
+      <c r="BJ56" s="94"/>
+      <c r="BK56" s="93"/>
+      <c r="BT56" s="183"/>
+      <c r="CE56" s="201"/>
+      <c r="CG56" s="94"/>
+      <c r="CH56" s="93"/>
+      <c r="CL56" s="201"/>
+      <c r="CN56" s="74"/>
+      <c r="CQ56" s="94"/>
+      <c r="CR56" s="93"/>
+      <c r="CV56" s="201"/>
+      <c r="CW56" s="94"/>
+      <c r="CX56" s="74"/>
+    </row>
+    <row r="57" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="181" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="93"/>
+      <c r="P57" s="255"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="93"/>
+      <c r="AH57" s="201"/>
+      <c r="AJ57" s="74"/>
+      <c r="AK57" s="201"/>
+      <c r="AM57" s="279"/>
+      <c r="AN57" s="93"/>
+      <c r="BG57" s="201"/>
+      <c r="BJ57" s="94"/>
+      <c r="BK57" s="93"/>
+      <c r="BP57" s="183"/>
+      <c r="BQ57" s="183"/>
+      <c r="CE57" s="201"/>
+      <c r="CG57" s="94"/>
+      <c r="CH57" s="93"/>
+      <c r="CL57" s="201"/>
+      <c r="CN57" s="74"/>
+      <c r="CQ57" s="94"/>
+      <c r="CR57" s="93"/>
+      <c r="CV57" s="201"/>
+      <c r="CW57" s="94"/>
+      <c r="CX57" s="74"/>
+    </row>
+    <row r="58" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="181" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="93"/>
+      <c r="P58" s="255"/>
+      <c r="Q58" s="94"/>
+      <c r="R58" s="93"/>
+      <c r="AH58" s="201"/>
+      <c r="AJ58" s="74"/>
+      <c r="AK58" s="201"/>
+      <c r="AM58" s="279"/>
+      <c r="AN58" s="93"/>
+      <c r="BG58" s="201"/>
+      <c r="BJ58" s="94"/>
+      <c r="BK58" s="93"/>
+      <c r="BR58" s="183"/>
+      <c r="CE58" s="201"/>
+      <c r="CG58" s="94"/>
+      <c r="CH58" s="93"/>
+      <c r="CL58" s="201"/>
+      <c r="CN58" s="74"/>
+      <c r="CQ58" s="94"/>
+      <c r="CR58" s="93"/>
+      <c r="CV58" s="201"/>
+      <c r="CW58" s="94"/>
+      <c r="CX58" s="74"/>
+    </row>
+    <row r="59" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="181" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="93"/>
+      <c r="P59" s="255"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="93"/>
+      <c r="AH59" s="201"/>
+      <c r="AJ59" s="74"/>
+      <c r="AK59" s="201"/>
+      <c r="AM59" s="279"/>
+      <c r="AN59" s="93"/>
+      <c r="BG59" s="201"/>
+      <c r="BJ59" s="94"/>
+      <c r="BK59" s="93"/>
+      <c r="BR59" s="183"/>
+      <c r="CE59" s="201"/>
+      <c r="CG59" s="94"/>
+      <c r="CH59" s="93"/>
+      <c r="CL59" s="201"/>
+      <c r="CN59" s="74"/>
+      <c r="CQ59" s="94"/>
+      <c r="CR59" s="93"/>
+      <c r="CV59" s="201"/>
+      <c r="CW59" s="94"/>
+      <c r="CX59" s="74"/>
+    </row>
+    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="144" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="145"/>
+      <c r="P60" s="256"/>
+      <c r="Q60" s="147"/>
+      <c r="R60" s="145"/>
+      <c r="AH60" s="202"/>
+      <c r="AJ60" s="148"/>
+      <c r="AK60" s="202"/>
+      <c r="AM60" s="280"/>
+      <c r="AN60" s="145"/>
+      <c r="BG60" s="202"/>
+      <c r="BJ60" s="147"/>
+      <c r="BK60" s="145"/>
+      <c r="BN60" s="148"/>
+      <c r="BU60" s="234" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV60" s="235"/>
+      <c r="BW60" s="236"/>
+      <c r="BX60" s="184"/>
+      <c r="BY60" s="184"/>
+      <c r="BZ60" s="184"/>
+      <c r="CA60" s="184"/>
+      <c r="CB60" s="184"/>
+      <c r="CC60" s="184"/>
+      <c r="CD60" s="184"/>
+      <c r="CE60" s="242"/>
+      <c r="CF60" s="242"/>
+      <c r="CG60" s="270">
+        <v>23</v>
+      </c>
+      <c r="CH60" s="145"/>
+      <c r="CL60" s="202"/>
+      <c r="CN60" s="148"/>
+      <c r="CQ60" s="147"/>
+      <c r="CR60" s="145"/>
+      <c r="CV60" s="202"/>
+      <c r="CW60" s="147"/>
+      <c r="CX60" s="148"/>
+    </row>
+    <row r="61" spans="1:102" s="156" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="155"/>
+      <c r="P61" s="257"/>
+      <c r="Q61" s="157"/>
+      <c r="R61" s="155"/>
+      <c r="AH61" s="203"/>
+      <c r="AJ61" s="158"/>
+      <c r="AK61" s="203"/>
+      <c r="AM61" s="281"/>
+      <c r="AN61" s="155"/>
+      <c r="BD61" s="158"/>
+      <c r="BG61" s="203"/>
+      <c r="BI61" s="158"/>
+      <c r="BJ61" s="157"/>
+      <c r="BK61" s="155"/>
+      <c r="BV61" s="158"/>
+      <c r="CC61" s="203"/>
+      <c r="CE61" s="158"/>
+      <c r="CG61" s="157"/>
+      <c r="CH61" s="155"/>
+      <c r="CL61" s="203"/>
+      <c r="CN61" s="158"/>
+      <c r="CQ61" s="157"/>
+      <c r="CR61" s="155"/>
+      <c r="CV61" s="203"/>
+      <c r="CW61" s="157"/>
+      <c r="CX61" s="158"/>
+    </row>
+    <row r="62" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="95"/>
+      <c r="P62" s="218"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="95"/>
+      <c r="AH62" s="204"/>
+      <c r="AJ62" s="75"/>
+      <c r="AK62" s="204"/>
+      <c r="AM62" s="282"/>
+      <c r="AN62" s="95"/>
+      <c r="BD62" s="75"/>
+      <c r="BG62" s="204"/>
+      <c r="BI62" s="75"/>
+      <c r="BJ62" s="96"/>
+      <c r="BK62" s="95"/>
+      <c r="BV62" s="218"/>
+      <c r="CC62" s="204"/>
+      <c r="CG62" s="96"/>
+      <c r="CH62" s="187"/>
+      <c r="CI62" s="185"/>
+      <c r="CO62" s="204"/>
+      <c r="CQ62" s="96"/>
+      <c r="CR62" s="95"/>
+      <c r="CV62" s="204"/>
+      <c r="CW62" s="96"/>
+      <c r="CX62" s="75"/>
+    </row>
+    <row r="63" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="95"/>
+      <c r="P63" s="218"/>
+      <c r="Q63" s="96"/>
+      <c r="R63" s="95"/>
+      <c r="AH63" s="204"/>
+      <c r="AJ63" s="75"/>
+      <c r="AK63" s="204"/>
+      <c r="AM63" s="282"/>
+      <c r="AN63" s="95"/>
+      <c r="BD63" s="75"/>
+      <c r="BG63" s="204"/>
+      <c r="BI63" s="75"/>
+      <c r="BJ63" s="96"/>
+      <c r="BK63" s="95"/>
+      <c r="BV63" s="218"/>
+      <c r="CC63" s="204"/>
+      <c r="CG63" s="96"/>
+      <c r="CH63" s="95"/>
+      <c r="CJ63" s="185"/>
+      <c r="CO63" s="204"/>
+      <c r="CQ63" s="96"/>
+      <c r="CR63" s="95"/>
+      <c r="CV63" s="204"/>
+      <c r="CW63" s="96"/>
+      <c r="CX63" s="75"/>
+    </row>
+    <row r="64" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="95"/>
+      <c r="P64" s="218"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="95"/>
+      <c r="AH64" s="204"/>
+      <c r="AJ64" s="75"/>
+      <c r="AK64" s="204"/>
+      <c r="AM64" s="282"/>
+      <c r="AN64" s="95"/>
+      <c r="BD64" s="75"/>
+      <c r="BG64" s="204"/>
+      <c r="BI64" s="75"/>
+      <c r="BJ64" s="96"/>
+      <c r="BK64" s="95"/>
+      <c r="BV64" s="218"/>
+      <c r="CC64" s="204"/>
+      <c r="CG64" s="96"/>
+      <c r="CH64" s="95"/>
+      <c r="CO64" s="204"/>
+      <c r="CQ64" s="96"/>
+      <c r="CR64" s="95"/>
+      <c r="CV64" s="204"/>
+      <c r="CW64" s="96"/>
+      <c r="CX64" s="75"/>
+    </row>
+    <row r="65" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="95"/>
+      <c r="P65" s="218"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="95"/>
+      <c r="AH65" s="204"/>
+      <c r="AJ65" s="75"/>
+      <c r="AK65" s="204"/>
+      <c r="AM65" s="282"/>
+      <c r="AN65" s="95"/>
+      <c r="BD65" s="75"/>
+      <c r="BG65" s="204"/>
+      <c r="BI65" s="75"/>
+      <c r="BJ65" s="96"/>
+      <c r="BK65" s="95"/>
+      <c r="BV65" s="218"/>
+      <c r="CC65" s="204"/>
+      <c r="CG65" s="96"/>
+      <c r="CH65" s="95"/>
+      <c r="CK65" s="185"/>
+      <c r="CO65" s="204"/>
+      <c r="CQ65" s="96"/>
+      <c r="CR65" s="95"/>
+      <c r="CV65" s="204"/>
+      <c r="CW65" s="96"/>
+      <c r="CX65" s="75"/>
+    </row>
+    <row r="66" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="95"/>
+      <c r="P66" s="218"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="95"/>
+      <c r="AH66" s="204"/>
+      <c r="AJ66" s="75"/>
+      <c r="AK66" s="204"/>
+      <c r="AM66" s="282"/>
+      <c r="AN66" s="95"/>
+      <c r="BD66" s="75"/>
+      <c r="BG66" s="204"/>
+      <c r="BI66" s="75"/>
+      <c r="BJ66" s="96"/>
+      <c r="BK66" s="95"/>
+      <c r="BV66" s="218"/>
+      <c r="CC66" s="204"/>
+      <c r="CG66" s="96"/>
+      <c r="CH66" s="95"/>
+      <c r="CL66" s="185"/>
+      <c r="CO66" s="204"/>
+      <c r="CQ66" s="96"/>
+      <c r="CR66" s="95"/>
+      <c r="CV66" s="204"/>
+      <c r="CW66" s="96"/>
+      <c r="CX66" s="75"/>
+    </row>
+    <row r="67" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="95"/>
+      <c r="P67" s="218"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="95"/>
+      <c r="AH67" s="204"/>
+      <c r="AJ67" s="75"/>
+      <c r="AK67" s="204"/>
+      <c r="AM67" s="282"/>
+      <c r="AN67" s="95"/>
+      <c r="BD67" s="75"/>
+      <c r="BG67" s="204"/>
+      <c r="BI67" s="75"/>
+      <c r="BJ67" s="96"/>
+      <c r="BK67" s="95"/>
+      <c r="BV67" s="218"/>
+      <c r="CC67" s="204"/>
+      <c r="CG67" s="96"/>
+      <c r="CH67" s="95"/>
+      <c r="CO67" s="204"/>
+      <c r="CQ67" s="96"/>
+      <c r="CR67" s="95"/>
+      <c r="CV67" s="204"/>
+      <c r="CW67" s="96"/>
+      <c r="CX67" s="75"/>
+    </row>
+    <row r="68" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="95"/>
+      <c r="P68" s="218"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="95"/>
+      <c r="AH68" s="204"/>
+      <c r="AJ68" s="75"/>
+      <c r="AK68" s="204"/>
+      <c r="AM68" s="282"/>
+      <c r="AN68" s="95"/>
+      <c r="BD68" s="75"/>
+      <c r="BG68" s="204"/>
+      <c r="BI68" s="75"/>
+      <c r="BJ68" s="96"/>
+      <c r="BK68" s="95"/>
+      <c r="BV68" s="218"/>
+      <c r="CC68" s="204"/>
+      <c r="CG68" s="96"/>
+      <c r="CH68" s="95"/>
+      <c r="CK68" s="185"/>
+      <c r="CL68" s="185"/>
+      <c r="CO68" s="204"/>
+      <c r="CQ68" s="96"/>
+      <c r="CR68" s="95"/>
+      <c r="CV68" s="204"/>
+      <c r="CW68" s="96"/>
+      <c r="CX68" s="75"/>
+    </row>
+    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="159" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="160"/>
+      <c r="P69" s="219"/>
+      <c r="Q69" s="162"/>
+      <c r="R69" s="160"/>
+      <c r="AH69" s="205"/>
+      <c r="AJ69" s="163"/>
+      <c r="AK69" s="205"/>
+      <c r="AM69" s="283"/>
+      <c r="AN69" s="160"/>
+      <c r="BD69" s="163"/>
+      <c r="BG69" s="205"/>
+      <c r="BI69" s="163"/>
+      <c r="BJ69" s="162"/>
+      <c r="BK69" s="160"/>
+      <c r="BV69" s="219"/>
+      <c r="CC69" s="205"/>
+      <c r="CG69" s="162"/>
+      <c r="CH69" s="160"/>
+      <c r="CM69" s="186"/>
+      <c r="CN69" s="186"/>
+      <c r="CO69" s="241"/>
+      <c r="CP69" s="241"/>
+      <c r="CQ69" s="188">
+        <v>10</v>
+      </c>
+      <c r="CR69" s="160"/>
+      <c r="CV69" s="205"/>
+      <c r="CW69" s="162"/>
+      <c r="CX69" s="163"/>
+    </row>
+    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="210" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="211"/>
+      <c r="P70" s="258"/>
+      <c r="Q70" s="213"/>
+      <c r="R70" s="211"/>
+      <c r="AH70" s="215"/>
+      <c r="AJ70" s="214"/>
+      <c r="AK70" s="215"/>
+      <c r="AM70" s="284"/>
+      <c r="AN70" s="211"/>
+      <c r="BD70" s="214"/>
+      <c r="BG70" s="215"/>
+      <c r="BI70" s="214"/>
+      <c r="BJ70" s="213"/>
+      <c r="BK70" s="211"/>
+      <c r="BV70" s="214"/>
+      <c r="CC70" s="215"/>
+      <c r="CE70" s="214"/>
+      <c r="CG70" s="213"/>
+      <c r="CH70" s="211"/>
+      <c r="CL70" s="215"/>
+      <c r="CN70" s="214"/>
+      <c r="CQ70" s="213"/>
+      <c r="CR70" s="211"/>
+      <c r="CV70" s="215"/>
+      <c r="CW70" s="216">
+        <v>6</v>
+      </c>
+      <c r="CX70" s="214"/>
+    </row>
+    <row r="71" spans="1:102" s="151" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="149"/>
+      <c r="B71" s="150"/>
+      <c r="P71" s="259"/>
+      <c r="Q71" s="152"/>
+      <c r="R71" s="150"/>
+      <c r="AH71" s="206"/>
+      <c r="AJ71" s="153"/>
+      <c r="AK71" s="206"/>
+      <c r="AM71" s="285"/>
+      <c r="AN71" s="150"/>
+      <c r="BD71" s="153"/>
+      <c r="BG71" s="206"/>
+      <c r="BI71" s="153"/>
+      <c r="BJ71" s="152"/>
+      <c r="BK71" s="150"/>
+      <c r="BV71" s="153"/>
+      <c r="CC71" s="206"/>
+      <c r="CE71" s="153"/>
+      <c r="CG71" s="152"/>
+      <c r="CH71" s="150"/>
+      <c r="CL71" s="206"/>
+      <c r="CN71" s="153"/>
+      <c r="CQ71" s="152"/>
+      <c r="CR71" s="150"/>
+      <c r="CV71" s="206"/>
+      <c r="CW71" s="152"/>
+      <c r="CX71" s="153"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="CR1:CW1"/>
+    <mergeCell ref="CH1:CQ1"/>
+    <mergeCell ref="AY47:BA47"/>
+    <mergeCell ref="BU60:BW60"/>
+    <mergeCell ref="R1:AM1"/>
+    <mergeCell ref="AN1:BJ1"/>
+    <mergeCell ref="BK1:CG1"/>
+    <mergeCell ref="B1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CV1"/>
+  <sheetViews>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection sqref="A1:CV1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="28" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="56" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="70" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="76" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="89" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="90" max="95" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="100" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A1" s="240">
+        <v>43670</v>
+      </c>
+      <c r="B1" s="240">
+        <v>43671</v>
+      </c>
+      <c r="C1" s="240">
+        <v>43672</v>
+      </c>
+      <c r="D1" s="240">
+        <v>43675</v>
+      </c>
+      <c r="E1" s="240">
+        <v>43676</v>
+      </c>
+      <c r="F1" s="240">
+        <v>43677</v>
+      </c>
+      <c r="G1" s="240">
+        <v>43678</v>
+      </c>
+      <c r="H1" s="240">
+        <v>43679</v>
+      </c>
+      <c r="I1" s="240">
+        <v>43682</v>
+      </c>
+      <c r="J1" s="240">
+        <v>43683</v>
+      </c>
+      <c r="K1" s="240">
+        <v>43684</v>
+      </c>
+      <c r="L1" s="240">
+        <v>43685</v>
+      </c>
+      <c r="M1" s="240">
+        <v>43686</v>
+      </c>
+      <c r="N1" s="240">
+        <v>43689</v>
+      </c>
+      <c r="O1" s="240">
+        <v>43690</v>
+      </c>
+      <c r="P1" s="240">
+        <v>43691</v>
+      </c>
+      <c r="Q1" s="240">
+        <v>43692</v>
+      </c>
+      <c r="R1" s="240">
+        <v>43693</v>
+      </c>
+      <c r="S1" s="240">
+        <v>43696</v>
+      </c>
+      <c r="T1" s="240">
+        <v>43697</v>
+      </c>
+      <c r="U1" s="240">
+        <v>43698</v>
+      </c>
+      <c r="V1" s="240">
+        <v>43699</v>
+      </c>
+      <c r="W1" s="240">
+        <v>43700</v>
+      </c>
+      <c r="X1" s="240">
+        <v>43703</v>
+      </c>
+      <c r="Y1" s="240">
+        <v>43704</v>
+      </c>
+      <c r="Z1" s="240">
+        <v>43705</v>
+      </c>
+      <c r="AA1" s="240">
+        <v>43706</v>
+      </c>
+      <c r="AB1" s="240">
+        <v>43707</v>
+      </c>
+      <c r="AC1" s="240">
+        <v>43710</v>
+      </c>
+      <c r="AD1" s="240">
+        <v>43711</v>
+      </c>
+      <c r="AE1" s="240">
+        <v>43712</v>
+      </c>
+      <c r="AF1" s="240">
+        <v>43713</v>
+      </c>
+      <c r="AG1" s="240">
+        <v>43714</v>
+      </c>
+      <c r="AH1" s="240">
+        <v>43717</v>
+      </c>
+      <c r="AI1" s="240">
+        <v>43718</v>
+      </c>
+      <c r="AJ1" s="240">
+        <v>43719</v>
+      </c>
+      <c r="AK1" s="240">
+        <v>43720</v>
+      </c>
+      <c r="AL1" s="240">
+        <v>43721</v>
+      </c>
+      <c r="AM1" s="240">
+        <v>43724</v>
+      </c>
+      <c r="AN1" s="240">
+        <v>43725</v>
+      </c>
+      <c r="AO1" s="240">
+        <v>43726</v>
+      </c>
+      <c r="AP1" s="240">
+        <v>43727</v>
+      </c>
+      <c r="AQ1" s="240">
+        <v>43728</v>
+      </c>
+      <c r="AR1" s="240">
+        <v>43731</v>
+      </c>
+      <c r="AS1" s="240">
+        <v>43732</v>
+      </c>
+      <c r="AT1" s="240">
+        <v>43733</v>
+      </c>
+      <c r="AU1" s="240">
+        <v>43734</v>
+      </c>
+      <c r="AV1" s="240">
+        <v>43735</v>
+      </c>
+      <c r="AW1" s="240">
+        <v>43738</v>
+      </c>
+      <c r="AX1" s="240">
+        <v>43739</v>
+      </c>
+      <c r="AY1" s="240">
+        <v>43740</v>
+      </c>
+      <c r="AZ1" s="240">
+        <v>43741</v>
+      </c>
+      <c r="BA1" s="240">
+        <v>43742</v>
+      </c>
+      <c r="BB1" s="240">
+        <v>43745</v>
+      </c>
+      <c r="BC1" s="240">
+        <v>43746</v>
+      </c>
+      <c r="BD1" s="240">
+        <v>43747</v>
+      </c>
+      <c r="BE1" s="240">
+        <v>43748</v>
+      </c>
+      <c r="BF1" s="240">
+        <v>43749</v>
+      </c>
+      <c r="BG1" s="240">
+        <v>43754</v>
+      </c>
+      <c r="BH1" s="240">
+        <v>43755</v>
+      </c>
+      <c r="BI1" s="240">
+        <v>43756</v>
+      </c>
+      <c r="BJ1" s="240">
+        <v>43759</v>
+      </c>
+      <c r="BK1" s="240">
+        <v>43760</v>
+      </c>
+      <c r="BL1" s="240">
+        <v>43761</v>
+      </c>
+      <c r="BM1" s="240">
+        <v>43762</v>
+      </c>
+      <c r="BN1" s="240">
+        <v>43763</v>
+      </c>
+      <c r="BO1" s="240">
+        <v>43766</v>
+      </c>
+      <c r="BP1" s="240">
+        <v>43767</v>
+      </c>
+      <c r="BQ1" s="240">
+        <v>43768</v>
+      </c>
+      <c r="BR1" s="240">
+        <v>43769</v>
+      </c>
+      <c r="BS1" s="240">
+        <v>43770</v>
+      </c>
+      <c r="BT1" s="240">
+        <v>43773</v>
+      </c>
+      <c r="BU1" s="240">
+        <v>43774</v>
+      </c>
+      <c r="BV1" s="240">
+        <v>43775</v>
+      </c>
+      <c r="BW1" s="240">
+        <v>43776</v>
+      </c>
+      <c r="BX1" s="240">
+        <v>43777</v>
+      </c>
+      <c r="BY1" s="240">
+        <v>43780</v>
+      </c>
+      <c r="BZ1" s="240">
+        <v>43781</v>
+      </c>
+      <c r="CA1" s="240">
+        <v>43782</v>
+      </c>
+      <c r="CB1" s="240">
+        <v>43783</v>
+      </c>
+      <c r="CC1" s="240">
+        <v>43787</v>
+      </c>
+      <c r="CD1" s="240">
+        <v>43788</v>
+      </c>
+      <c r="CE1" s="240">
+        <v>43790</v>
+      </c>
+      <c r="CF1" s="240">
+        <v>43791</v>
+      </c>
+      <c r="CG1" s="240">
+        <v>43794</v>
+      </c>
+      <c r="CH1" s="240">
+        <v>43795</v>
+      </c>
+      <c r="CI1" s="240">
+        <v>43796</v>
+      </c>
+      <c r="CJ1" s="240">
+        <v>43797</v>
+      </c>
+      <c r="CK1" s="240">
+        <v>43798</v>
+      </c>
+      <c r="CL1" s="240">
+        <v>43801</v>
+      </c>
+      <c r="CM1" s="240">
+        <v>43802</v>
+      </c>
+      <c r="CN1" s="240">
+        <v>43803</v>
+      </c>
+      <c r="CO1" s="240">
+        <v>43804</v>
+      </c>
+      <c r="CP1" s="240">
+        <v>43805</v>
+      </c>
+      <c r="CQ1" s="240">
+        <v>43808</v>
+      </c>
+      <c r="CR1" s="240">
+        <v>43809</v>
+      </c>
+      <c r="CS1" s="240">
+        <v>43810</v>
+      </c>
+      <c r="CT1" s="240">
+        <v>43811</v>
+      </c>
+      <c r="CU1" s="240">
+        <v>43812</v>
+      </c>
+      <c r="CV1" s="240">
+        <v>43815</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/planejamento/cronograma.xlsx
+++ b/planejamento/cronograma.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
     <sheet name="_old" sheetId="2" r:id="rId2"/>
-    <sheet name="CRONOGRAMA" sheetId="6" r:id="rId3"/>
-    <sheet name="CRONOGRAMA_v2" sheetId="7" r:id="rId4"/>
-    <sheet name="Planilha2" sheetId="8" r:id="rId5"/>
+    <sheet name="DATAS" sheetId="8" r:id="rId3"/>
+    <sheet name="CRONOGRAMA" sheetId="6" r:id="rId4"/>
+    <sheet name="CRONOGRAMA_v2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1170,7 +1170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m;@"/>
+    <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2318,6 +2318,55 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2369,55 +2418,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3004,123 +3004,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="272" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
-      <c r="O1" s="226"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="225" t="s">
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="226"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
-      <c r="Z1" s="226"/>
-      <c r="AA1" s="226"/>
-      <c r="AB1" s="226"/>
-      <c r="AC1" s="226"/>
-      <c r="AD1" s="226"/>
-      <c r="AE1" s="226"/>
-      <c r="AF1" s="226"/>
-      <c r="AG1" s="226"/>
-      <c r="AH1" s="226"/>
-      <c r="AI1" s="226"/>
-      <c r="AJ1" s="226"/>
-      <c r="AK1" s="226"/>
-      <c r="AL1" s="226"/>
-      <c r="AM1" s="227"/>
-      <c r="AN1" s="225" t="s">
+      <c r="S1" s="273"/>
+      <c r="T1" s="273"/>
+      <c r="U1" s="273"/>
+      <c r="V1" s="273"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="273"/>
+      <c r="AA1" s="273"/>
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="273"/>
+      <c r="AD1" s="273"/>
+      <c r="AE1" s="273"/>
+      <c r="AF1" s="273"/>
+      <c r="AG1" s="273"/>
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="273"/>
+      <c r="AJ1" s="273"/>
+      <c r="AK1" s="273"/>
+      <c r="AL1" s="273"/>
+      <c r="AM1" s="274"/>
+      <c r="AN1" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="226"/>
-      <c r="AP1" s="226"/>
-      <c r="AQ1" s="226"/>
-      <c r="AR1" s="226"/>
-      <c r="AS1" s="226"/>
-      <c r="AT1" s="227"/>
-      <c r="AU1" s="225" t="s">
+      <c r="AO1" s="273"/>
+      <c r="AP1" s="273"/>
+      <c r="AQ1" s="273"/>
+      <c r="AR1" s="273"/>
+      <c r="AS1" s="273"/>
+      <c r="AT1" s="274"/>
+      <c r="AU1" s="272" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="226"/>
-      <c r="AW1" s="226"/>
-      <c r="AX1" s="226"/>
-      <c r="AY1" s="226"/>
-      <c r="AZ1" s="226"/>
-      <c r="BA1" s="226"/>
-      <c r="BB1" s="226"/>
-      <c r="BC1" s="226"/>
-      <c r="BD1" s="226"/>
-      <c r="BE1" s="226"/>
-      <c r="BF1" s="226"/>
-      <c r="BG1" s="226"/>
-      <c r="BH1" s="226"/>
-      <c r="BI1" s="226"/>
-      <c r="BJ1" s="226"/>
-      <c r="BK1" s="226"/>
-      <c r="BL1" s="226"/>
-      <c r="BM1" s="226"/>
-      <c r="BN1" s="226"/>
-      <c r="BO1" s="226"/>
-      <c r="BP1" s="226"/>
-      <c r="BQ1" s="227"/>
-      <c r="BR1" s="225" t="s">
+      <c r="AV1" s="273"/>
+      <c r="AW1" s="273"/>
+      <c r="AX1" s="273"/>
+      <c r="AY1" s="273"/>
+      <c r="AZ1" s="273"/>
+      <c r="BA1" s="273"/>
+      <c r="BB1" s="273"/>
+      <c r="BC1" s="273"/>
+      <c r="BD1" s="273"/>
+      <c r="BE1" s="273"/>
+      <c r="BF1" s="273"/>
+      <c r="BG1" s="273"/>
+      <c r="BH1" s="273"/>
+      <c r="BI1" s="273"/>
+      <c r="BJ1" s="273"/>
+      <c r="BK1" s="273"/>
+      <c r="BL1" s="273"/>
+      <c r="BM1" s="273"/>
+      <c r="BN1" s="273"/>
+      <c r="BO1" s="273"/>
+      <c r="BP1" s="273"/>
+      <c r="BQ1" s="274"/>
+      <c r="BR1" s="272" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="226"/>
-      <c r="BT1" s="226"/>
-      <c r="BU1" s="226"/>
-      <c r="BV1" s="226"/>
-      <c r="BW1" s="226"/>
-      <c r="BX1" s="226"/>
-      <c r="BY1" s="226"/>
-      <c r="BZ1" s="226"/>
-      <c r="CA1" s="226"/>
-      <c r="CB1" s="226"/>
-      <c r="CC1" s="226"/>
-      <c r="CD1" s="226"/>
-      <c r="CE1" s="226"/>
-      <c r="CF1" s="226"/>
-      <c r="CG1" s="226"/>
-      <c r="CH1" s="226"/>
-      <c r="CI1" s="226"/>
-      <c r="CJ1" s="226"/>
-      <c r="CK1" s="227"/>
-      <c r="CL1" s="225" t="s">
+      <c r="BS1" s="273"/>
+      <c r="BT1" s="273"/>
+      <c r="BU1" s="273"/>
+      <c r="BV1" s="273"/>
+      <c r="BW1" s="273"/>
+      <c r="BX1" s="273"/>
+      <c r="BY1" s="273"/>
+      <c r="BZ1" s="273"/>
+      <c r="CA1" s="273"/>
+      <c r="CB1" s="273"/>
+      <c r="CC1" s="273"/>
+      <c r="CD1" s="273"/>
+      <c r="CE1" s="273"/>
+      <c r="CF1" s="273"/>
+      <c r="CG1" s="273"/>
+      <c r="CH1" s="273"/>
+      <c r="CI1" s="273"/>
+      <c r="CJ1" s="273"/>
+      <c r="CK1" s="274"/>
+      <c r="CL1" s="272" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="226"/>
-      <c r="CN1" s="226"/>
-      <c r="CO1" s="226"/>
-      <c r="CP1" s="226"/>
-      <c r="CQ1" s="226"/>
-      <c r="CR1" s="226"/>
-      <c r="CS1" s="226"/>
-      <c r="CT1" s="226"/>
-      <c r="CU1" s="226"/>
-      <c r="CV1" s="226"/>
-      <c r="CW1" s="226"/>
-      <c r="CX1" s="226"/>
-      <c r="CY1" s="226"/>
-      <c r="CZ1" s="226"/>
-      <c r="DA1" s="226"/>
-      <c r="DB1" s="226"/>
+      <c r="CM1" s="273"/>
+      <c r="CN1" s="273"/>
+      <c r="CO1" s="273"/>
+      <c r="CP1" s="273"/>
+      <c r="CQ1" s="273"/>
+      <c r="CR1" s="273"/>
+      <c r="CS1" s="273"/>
+      <c r="CT1" s="273"/>
+      <c r="CU1" s="273"/>
+      <c r="CV1" s="273"/>
+      <c r="CW1" s="273"/>
+      <c r="CX1" s="273"/>
+      <c r="CY1" s="273"/>
+      <c r="CZ1" s="273"/>
+      <c r="DA1" s="273"/>
+      <c r="DB1" s="273"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -21747,15 +21747,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="223" t="s">
+      <c r="CW86" s="270" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="223"/>
-      <c r="CY86" s="223"/>
-      <c r="CZ86" s="223"/>
-      <c r="DA86" s="223"/>
-      <c r="DB86" s="223"/>
-      <c r="DC86" s="224"/>
+      <c r="CX86" s="270"/>
+      <c r="CY86" s="270"/>
+      <c r="CZ86" s="270"/>
+      <c r="DA86" s="270"/>
+      <c r="DB86" s="270"/>
+      <c r="DC86" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -21774,10 +21774,340 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CV1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection sqref="A1:CV1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="28" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="56" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="70" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="76" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="89" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="90" max="95" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="100" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A1" s="223">
+        <v>43670</v>
+      </c>
+      <c r="B1" s="223">
+        <v>43671</v>
+      </c>
+      <c r="C1" s="223">
+        <v>43672</v>
+      </c>
+      <c r="D1" s="223">
+        <v>43675</v>
+      </c>
+      <c r="E1" s="223">
+        <v>43676</v>
+      </c>
+      <c r="F1" s="223">
+        <v>43677</v>
+      </c>
+      <c r="G1" s="223">
+        <v>43678</v>
+      </c>
+      <c r="H1" s="223">
+        <v>43679</v>
+      </c>
+      <c r="I1" s="223">
+        <v>43682</v>
+      </c>
+      <c r="J1" s="223">
+        <v>43683</v>
+      </c>
+      <c r="K1" s="223">
+        <v>43684</v>
+      </c>
+      <c r="L1" s="223">
+        <v>43685</v>
+      </c>
+      <c r="M1" s="223">
+        <v>43686</v>
+      </c>
+      <c r="N1" s="223">
+        <v>43689</v>
+      </c>
+      <c r="O1" s="223">
+        <v>43690</v>
+      </c>
+      <c r="P1" s="223">
+        <v>43691</v>
+      </c>
+      <c r="Q1" s="223">
+        <v>43692</v>
+      </c>
+      <c r="R1" s="223">
+        <v>43693</v>
+      </c>
+      <c r="S1" s="223">
+        <v>43696</v>
+      </c>
+      <c r="T1" s="223">
+        <v>43697</v>
+      </c>
+      <c r="U1" s="223">
+        <v>43698</v>
+      </c>
+      <c r="V1" s="223">
+        <v>43699</v>
+      </c>
+      <c r="W1" s="223">
+        <v>43700</v>
+      </c>
+      <c r="X1" s="223">
+        <v>43703</v>
+      </c>
+      <c r="Y1" s="223">
+        <v>43704</v>
+      </c>
+      <c r="Z1" s="223">
+        <v>43705</v>
+      </c>
+      <c r="AA1" s="223">
+        <v>43706</v>
+      </c>
+      <c r="AB1" s="223">
+        <v>43707</v>
+      </c>
+      <c r="AC1" s="223">
+        <v>43710</v>
+      </c>
+      <c r="AD1" s="223">
+        <v>43711</v>
+      </c>
+      <c r="AE1" s="223">
+        <v>43712</v>
+      </c>
+      <c r="AF1" s="223">
+        <v>43713</v>
+      </c>
+      <c r="AG1" s="223">
+        <v>43714</v>
+      </c>
+      <c r="AH1" s="223">
+        <v>43717</v>
+      </c>
+      <c r="AI1" s="223">
+        <v>43718</v>
+      </c>
+      <c r="AJ1" s="223">
+        <v>43719</v>
+      </c>
+      <c r="AK1" s="223">
+        <v>43720</v>
+      </c>
+      <c r="AL1" s="223">
+        <v>43721</v>
+      </c>
+      <c r="AM1" s="223">
+        <v>43724</v>
+      </c>
+      <c r="AN1" s="223">
+        <v>43725</v>
+      </c>
+      <c r="AO1" s="223">
+        <v>43726</v>
+      </c>
+      <c r="AP1" s="223">
+        <v>43727</v>
+      </c>
+      <c r="AQ1" s="223">
+        <v>43728</v>
+      </c>
+      <c r="AR1" s="223">
+        <v>43731</v>
+      </c>
+      <c r="AS1" s="223">
+        <v>43732</v>
+      </c>
+      <c r="AT1" s="223">
+        <v>43733</v>
+      </c>
+      <c r="AU1" s="223">
+        <v>43734</v>
+      </c>
+      <c r="AV1" s="223">
+        <v>43735</v>
+      </c>
+      <c r="AW1" s="223">
+        <v>43738</v>
+      </c>
+      <c r="AX1" s="223">
+        <v>43739</v>
+      </c>
+      <c r="AY1" s="223">
+        <v>43740</v>
+      </c>
+      <c r="AZ1" s="223">
+        <v>43741</v>
+      </c>
+      <c r="BA1" s="223">
+        <v>43742</v>
+      </c>
+      <c r="BB1" s="223">
+        <v>43745</v>
+      </c>
+      <c r="BC1" s="223">
+        <v>43746</v>
+      </c>
+      <c r="BD1" s="223">
+        <v>43747</v>
+      </c>
+      <c r="BE1" s="223">
+        <v>43748</v>
+      </c>
+      <c r="BF1" s="223">
+        <v>43749</v>
+      </c>
+      <c r="BG1" s="223">
+        <v>43754</v>
+      </c>
+      <c r="BH1" s="223">
+        <v>43755</v>
+      </c>
+      <c r="BI1" s="223">
+        <v>43756</v>
+      </c>
+      <c r="BJ1" s="223">
+        <v>43759</v>
+      </c>
+      <c r="BK1" s="223">
+        <v>43760</v>
+      </c>
+      <c r="BL1" s="223">
+        <v>43761</v>
+      </c>
+      <c r="BM1" s="223">
+        <v>43762</v>
+      </c>
+      <c r="BN1" s="223">
+        <v>43763</v>
+      </c>
+      <c r="BO1" s="223">
+        <v>43766</v>
+      </c>
+      <c r="BP1" s="223">
+        <v>43767</v>
+      </c>
+      <c r="BQ1" s="223">
+        <v>43768</v>
+      </c>
+      <c r="BR1" s="223">
+        <v>43769</v>
+      </c>
+      <c r="BS1" s="223">
+        <v>43770</v>
+      </c>
+      <c r="BT1" s="223">
+        <v>43773</v>
+      </c>
+      <c r="BU1" s="223">
+        <v>43774</v>
+      </c>
+      <c r="BV1" s="223">
+        <v>43775</v>
+      </c>
+      <c r="BW1" s="223">
+        <v>43776</v>
+      </c>
+      <c r="BX1" s="223">
+        <v>43777</v>
+      </c>
+      <c r="BY1" s="223">
+        <v>43780</v>
+      </c>
+      <c r="BZ1" s="223">
+        <v>43781</v>
+      </c>
+      <c r="CA1" s="223">
+        <v>43782</v>
+      </c>
+      <c r="CB1" s="223">
+        <v>43783</v>
+      </c>
+      <c r="CC1" s="223">
+        <v>43787</v>
+      </c>
+      <c r="CD1" s="223">
+        <v>43788</v>
+      </c>
+      <c r="CE1" s="223">
+        <v>43790</v>
+      </c>
+      <c r="CF1" s="223">
+        <v>43791</v>
+      </c>
+      <c r="CG1" s="223">
+        <v>43794</v>
+      </c>
+      <c r="CH1" s="223">
+        <v>43795</v>
+      </c>
+      <c r="CI1" s="223">
+        <v>43796</v>
+      </c>
+      <c r="CJ1" s="223">
+        <v>43797</v>
+      </c>
+      <c r="CK1" s="223">
+        <v>43798</v>
+      </c>
+      <c r="CL1" s="223">
+        <v>43801</v>
+      </c>
+      <c r="CM1" s="223">
+        <v>43802</v>
+      </c>
+      <c r="CN1" s="223">
+        <v>43803</v>
+      </c>
+      <c r="CO1" s="223">
+        <v>43804</v>
+      </c>
+      <c r="CP1" s="223">
+        <v>43805</v>
+      </c>
+      <c r="CQ1" s="223">
+        <v>43808</v>
+      </c>
+      <c r="CR1" s="223">
+        <v>43809</v>
+      </c>
+      <c r="CS1" s="223">
+        <v>43810</v>
+      </c>
+      <c r="CT1" s="223">
+        <v>43811</v>
+      </c>
+      <c r="CU1" s="223">
+        <v>43812</v>
+      </c>
+      <c r="CV1" s="223">
+        <v>43815</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -21817,118 +22147,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="284" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="228" t="s">
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="286"/>
+      <c r="R1" s="275" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="229"/>
-      <c r="AG1" s="229"/>
-      <c r="AH1" s="229"/>
-      <c r="AI1" s="229"/>
-      <c r="AJ1" s="229"/>
-      <c r="AK1" s="229"/>
-      <c r="AL1" s="230"/>
-      <c r="AM1" s="228" t="s">
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
+      <c r="Y1" s="276"/>
+      <c r="Z1" s="276"/>
+      <c r="AA1" s="276"/>
+      <c r="AB1" s="276"/>
+      <c r="AC1" s="276"/>
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="276"/>
+      <c r="AG1" s="276"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="276"/>
+      <c r="AJ1" s="276"/>
+      <c r="AK1" s="276"/>
+      <c r="AL1" s="277"/>
+      <c r="AM1" s="275" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="229"/>
-      <c r="AO1" s="229"/>
-      <c r="AP1" s="229"/>
-      <c r="AQ1" s="229"/>
-      <c r="AR1" s="229"/>
-      <c r="AS1" s="229"/>
-      <c r="AT1" s="229"/>
-      <c r="AU1" s="229"/>
-      <c r="AV1" s="229"/>
-      <c r="AW1" s="229"/>
-      <c r="AX1" s="229"/>
-      <c r="AY1" s="229"/>
-      <c r="AZ1" s="229"/>
-      <c r="BA1" s="229"/>
-      <c r="BB1" s="229"/>
-      <c r="BC1" s="229"/>
-      <c r="BD1" s="229"/>
-      <c r="BE1" s="229"/>
-      <c r="BF1" s="229"/>
-      <c r="BG1" s="229"/>
-      <c r="BH1" s="230"/>
-      <c r="BI1" s="228" t="s">
+      <c r="AN1" s="276"/>
+      <c r="AO1" s="276"/>
+      <c r="AP1" s="276"/>
+      <c r="AQ1" s="276"/>
+      <c r="AR1" s="276"/>
+      <c r="AS1" s="276"/>
+      <c r="AT1" s="276"/>
+      <c r="AU1" s="276"/>
+      <c r="AV1" s="276"/>
+      <c r="AW1" s="276"/>
+      <c r="AX1" s="276"/>
+      <c r="AY1" s="276"/>
+      <c r="AZ1" s="276"/>
+      <c r="BA1" s="276"/>
+      <c r="BB1" s="276"/>
+      <c r="BC1" s="276"/>
+      <c r="BD1" s="276"/>
+      <c r="BE1" s="276"/>
+      <c r="BF1" s="276"/>
+      <c r="BG1" s="276"/>
+      <c r="BH1" s="277"/>
+      <c r="BI1" s="275" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="229"/>
-      <c r="BK1" s="229"/>
-      <c r="BL1" s="229"/>
-      <c r="BM1" s="229"/>
-      <c r="BN1" s="229"/>
-      <c r="BO1" s="229"/>
-      <c r="BP1" s="229"/>
-      <c r="BQ1" s="229"/>
-      <c r="BR1" s="229"/>
-      <c r="BS1" s="229"/>
-      <c r="BT1" s="229"/>
-      <c r="BU1" s="229"/>
-      <c r="BV1" s="229"/>
-      <c r="BW1" s="229"/>
-      <c r="BX1" s="229"/>
-      <c r="BY1" s="229"/>
-      <c r="BZ1" s="229"/>
-      <c r="CA1" s="229"/>
-      <c r="CB1" s="229"/>
-      <c r="CC1" s="229"/>
-      <c r="CD1" s="230"/>
-      <c r="CE1" s="228" t="s">
+      <c r="BJ1" s="276"/>
+      <c r="BK1" s="276"/>
+      <c r="BL1" s="276"/>
+      <c r="BM1" s="276"/>
+      <c r="BN1" s="276"/>
+      <c r="BO1" s="276"/>
+      <c r="BP1" s="276"/>
+      <c r="BQ1" s="276"/>
+      <c r="BR1" s="276"/>
+      <c r="BS1" s="276"/>
+      <c r="BT1" s="276"/>
+      <c r="BU1" s="276"/>
+      <c r="BV1" s="276"/>
+      <c r="BW1" s="276"/>
+      <c r="BX1" s="276"/>
+      <c r="BY1" s="276"/>
+      <c r="BZ1" s="276"/>
+      <c r="CA1" s="276"/>
+      <c r="CB1" s="276"/>
+      <c r="CC1" s="276"/>
+      <c r="CD1" s="277"/>
+      <c r="CE1" s="275" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="229"/>
-      <c r="CG1" s="229"/>
-      <c r="CH1" s="229"/>
-      <c r="CI1" s="229"/>
-      <c r="CJ1" s="229"/>
-      <c r="CK1" s="229"/>
-      <c r="CL1" s="229"/>
-      <c r="CM1" s="230"/>
-      <c r="CN1" s="228" t="s">
+      <c r="CF1" s="276"/>
+      <c r="CG1" s="276"/>
+      <c r="CH1" s="276"/>
+      <c r="CI1" s="276"/>
+      <c r="CJ1" s="276"/>
+      <c r="CK1" s="276"/>
+      <c r="CL1" s="276"/>
+      <c r="CM1" s="277"/>
+      <c r="CN1" s="275" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="229"/>
-      <c r="CP1" s="229"/>
-      <c r="CQ1" s="229"/>
-      <c r="CR1" s="229"/>
-      <c r="CS1" s="229"/>
-      <c r="CT1" s="229"/>
-      <c r="CU1" s="229"/>
-      <c r="CV1" s="229"/>
-      <c r="CW1" s="230"/>
+      <c r="CO1" s="276"/>
+      <c r="CP1" s="276"/>
+      <c r="CQ1" s="276"/>
+      <c r="CR1" s="276"/>
+      <c r="CS1" s="276"/>
+      <c r="CT1" s="276"/>
+      <c r="CU1" s="276"/>
+      <c r="CV1" s="276"/>
+      <c r="CW1" s="277"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23375,11 +23705,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="231" t="s">
+      <c r="AX47" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="232"/>
-      <c r="AZ47" s="233"/>
+      <c r="AY47" s="279"/>
+      <c r="AZ47" s="280"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -23678,11 +24008,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="234" t="s">
+      <c r="BS60" s="281" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="235"/>
-      <c r="BU60" s="236"/>
+      <c r="BT60" s="282"/>
+      <c r="BU60" s="283"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -23980,13 +24310,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BZ8" sqref="BZ8"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23996,7 +24326,7 @@
     <col min="3" max="7" width="5" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="4" style="63" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="63" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" style="260" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="243" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="98" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="97" bestFit="1" customWidth="1"/>
     <col min="19" max="29" width="5" style="63" bestFit="1" customWidth="1"/>
@@ -24006,7 +24336,7 @@
     <col min="36" max="36" width="5" style="76" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="5" style="207" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="5" style="63" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5" style="286" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5" style="269" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5" style="97" bestFit="1" customWidth="1"/>
     <col min="41" max="55" width="5" style="63" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5" style="76" bestFit="1" customWidth="1"/>
@@ -24044,422 +24374,422 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="284" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="228" t="s">
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="286"/>
+      <c r="R1" s="275" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="229"/>
-      <c r="AG1" s="229"/>
-      <c r="AH1" s="229"/>
-      <c r="AI1" s="229"/>
-      <c r="AJ1" s="229"/>
-      <c r="AK1" s="229"/>
-      <c r="AL1" s="229"/>
-      <c r="AM1" s="230"/>
-      <c r="AN1" s="228" t="s">
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
+      <c r="Y1" s="276"/>
+      <c r="Z1" s="276"/>
+      <c r="AA1" s="276"/>
+      <c r="AB1" s="276"/>
+      <c r="AC1" s="276"/>
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="276"/>
+      <c r="AG1" s="276"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="276"/>
+      <c r="AJ1" s="276"/>
+      <c r="AK1" s="276"/>
+      <c r="AL1" s="276"/>
+      <c r="AM1" s="277"/>
+      <c r="AN1" s="275" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="229"/>
-      <c r="AP1" s="229"/>
-      <c r="AQ1" s="229"/>
-      <c r="AR1" s="229"/>
-      <c r="AS1" s="229"/>
-      <c r="AT1" s="229"/>
-      <c r="AU1" s="229"/>
-      <c r="AV1" s="229"/>
-      <c r="AW1" s="229"/>
-      <c r="AX1" s="229"/>
-      <c r="AY1" s="229"/>
-      <c r="AZ1" s="229"/>
-      <c r="BA1" s="229"/>
-      <c r="BB1" s="229"/>
-      <c r="BC1" s="229"/>
-      <c r="BD1" s="229"/>
-      <c r="BE1" s="229"/>
-      <c r="BF1" s="229"/>
-      <c r="BG1" s="229"/>
-      <c r="BH1" s="229"/>
-      <c r="BI1" s="229"/>
-      <c r="BJ1" s="230"/>
-      <c r="BK1" s="228" t="s">
+      <c r="AO1" s="276"/>
+      <c r="AP1" s="276"/>
+      <c r="AQ1" s="276"/>
+      <c r="AR1" s="276"/>
+      <c r="AS1" s="276"/>
+      <c r="AT1" s="276"/>
+      <c r="AU1" s="276"/>
+      <c r="AV1" s="276"/>
+      <c r="AW1" s="276"/>
+      <c r="AX1" s="276"/>
+      <c r="AY1" s="276"/>
+      <c r="AZ1" s="276"/>
+      <c r="BA1" s="276"/>
+      <c r="BB1" s="276"/>
+      <c r="BC1" s="276"/>
+      <c r="BD1" s="276"/>
+      <c r="BE1" s="276"/>
+      <c r="BF1" s="276"/>
+      <c r="BG1" s="276"/>
+      <c r="BH1" s="276"/>
+      <c r="BI1" s="276"/>
+      <c r="BJ1" s="277"/>
+      <c r="BK1" s="275" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="229"/>
-      <c r="BM1" s="229"/>
-      <c r="BN1" s="229"/>
-      <c r="BO1" s="229"/>
-      <c r="BP1" s="229"/>
-      <c r="BQ1" s="229"/>
-      <c r="BR1" s="229"/>
-      <c r="BS1" s="229"/>
-      <c r="BT1" s="229"/>
-      <c r="BU1" s="229"/>
-      <c r="BV1" s="229"/>
-      <c r="BW1" s="229"/>
-      <c r="BX1" s="229"/>
-      <c r="BY1" s="229"/>
-      <c r="BZ1" s="229"/>
-      <c r="CA1" s="229"/>
-      <c r="CB1" s="229"/>
-      <c r="CC1" s="229"/>
-      <c r="CD1" s="229"/>
-      <c r="CE1" s="229"/>
-      <c r="CF1" s="229"/>
-      <c r="CG1" s="230"/>
-      <c r="CH1" s="228" t="s">
+      <c r="BL1" s="276"/>
+      <c r="BM1" s="276"/>
+      <c r="BN1" s="276"/>
+      <c r="BO1" s="276"/>
+      <c r="BP1" s="276"/>
+      <c r="BQ1" s="276"/>
+      <c r="BR1" s="276"/>
+      <c r="BS1" s="276"/>
+      <c r="BT1" s="276"/>
+      <c r="BU1" s="276"/>
+      <c r="BV1" s="276"/>
+      <c r="BW1" s="276"/>
+      <c r="BX1" s="276"/>
+      <c r="BY1" s="276"/>
+      <c r="BZ1" s="276"/>
+      <c r="CA1" s="276"/>
+      <c r="CB1" s="276"/>
+      <c r="CC1" s="276"/>
+      <c r="CD1" s="276"/>
+      <c r="CE1" s="276"/>
+      <c r="CF1" s="276"/>
+      <c r="CG1" s="277"/>
+      <c r="CH1" s="275" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="229"/>
-      <c r="CJ1" s="229"/>
-      <c r="CK1" s="229"/>
-      <c r="CL1" s="229"/>
-      <c r="CM1" s="229"/>
-      <c r="CN1" s="229"/>
-      <c r="CO1" s="229"/>
-      <c r="CP1" s="229"/>
-      <c r="CQ1" s="230"/>
-      <c r="CR1" s="228" t="s">
+      <c r="CI1" s="276"/>
+      <c r="CJ1" s="276"/>
+      <c r="CK1" s="276"/>
+      <c r="CL1" s="276"/>
+      <c r="CM1" s="276"/>
+      <c r="CN1" s="276"/>
+      <c r="CO1" s="276"/>
+      <c r="CP1" s="276"/>
+      <c r="CQ1" s="277"/>
+      <c r="CR1" s="275" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="229"/>
-      <c r="CT1" s="229"/>
-      <c r="CU1" s="229"/>
-      <c r="CV1" s="229"/>
-      <c r="CW1" s="230"/>
+      <c r="CS1" s="276"/>
+      <c r="CT1" s="276"/>
+      <c r="CU1" s="276"/>
+      <c r="CV1" s="276"/>
+      <c r="CW1" s="277"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="265">
+      <c r="B2" s="248">
         <v>43670</v>
       </c>
-      <c r="C2" s="261">
+      <c r="C2" s="244">
         <v>43671</v>
       </c>
-      <c r="D2" s="261">
+      <c r="D2" s="244">
         <v>43672</v>
       </c>
-      <c r="E2" s="262">
+      <c r="E2" s="245">
         <v>43675</v>
       </c>
-      <c r="F2" s="262">
+      <c r="F2" s="245">
         <v>43676</v>
       </c>
-      <c r="G2" s="262">
+      <c r="G2" s="245">
         <v>43677</v>
       </c>
-      <c r="H2" s="262">
+      <c r="H2" s="245">
         <v>43678</v>
       </c>
-      <c r="I2" s="262">
+      <c r="I2" s="245">
         <v>43679</v>
       </c>
-      <c r="J2" s="261">
+      <c r="J2" s="244">
         <v>43682</v>
       </c>
-      <c r="K2" s="261">
+      <c r="K2" s="244">
         <v>43683</v>
       </c>
-      <c r="L2" s="261">
+      <c r="L2" s="244">
         <v>43684</v>
       </c>
-      <c r="M2" s="261">
+      <c r="M2" s="244">
         <v>43685</v>
       </c>
-      <c r="N2" s="261">
+      <c r="N2" s="244">
         <v>43686</v>
       </c>
-      <c r="O2" s="262">
+      <c r="O2" s="245">
         <v>43689</v>
       </c>
-      <c r="P2" s="262">
+      <c r="P2" s="245">
         <v>43690</v>
       </c>
-      <c r="Q2" s="266">
+      <c r="Q2" s="249">
         <v>43691</v>
       </c>
-      <c r="R2" s="268">
+      <c r="R2" s="251">
         <v>43692</v>
       </c>
-      <c r="S2" s="262">
+      <c r="S2" s="245">
         <v>43693</v>
       </c>
-      <c r="T2" s="261">
+      <c r="T2" s="244">
         <v>43696</v>
       </c>
-      <c r="U2" s="261">
+      <c r="U2" s="244">
         <v>43697</v>
       </c>
-      <c r="V2" s="261">
+      <c r="V2" s="244">
         <v>43698</v>
       </c>
-      <c r="W2" s="261">
+      <c r="W2" s="244">
         <v>43699</v>
       </c>
-      <c r="X2" s="261">
+      <c r="X2" s="244">
         <v>43700</v>
       </c>
-      <c r="Y2" s="262">
+      <c r="Y2" s="245">
         <v>43703</v>
       </c>
-      <c r="Z2" s="262">
+      <c r="Z2" s="245">
         <v>43704</v>
       </c>
-      <c r="AA2" s="262">
+      <c r="AA2" s="245">
         <v>43705</v>
       </c>
-      <c r="AB2" s="262">
+      <c r="AB2" s="245">
         <v>43706</v>
       </c>
-      <c r="AC2" s="262">
+      <c r="AC2" s="245">
         <v>43707</v>
       </c>
-      <c r="AD2" s="261">
+      <c r="AD2" s="244">
         <v>43710</v>
       </c>
-      <c r="AE2" s="261">
+      <c r="AE2" s="244">
         <v>43711</v>
       </c>
-      <c r="AF2" s="261">
+      <c r="AF2" s="244">
         <v>43712</v>
       </c>
-      <c r="AG2" s="261">
+      <c r="AG2" s="244">
         <v>43713</v>
       </c>
-      <c r="AH2" s="261">
+      <c r="AH2" s="244">
         <v>43714</v>
       </c>
-      <c r="AI2" s="262">
+      <c r="AI2" s="245">
         <v>43717</v>
       </c>
-      <c r="AJ2" s="262">
+      <c r="AJ2" s="245">
         <v>43718</v>
       </c>
-      <c r="AK2" s="262">
+      <c r="AK2" s="245">
         <v>43719</v>
       </c>
-      <c r="AL2" s="263">
+      <c r="AL2" s="246">
         <v>43720</v>
       </c>
-      <c r="AM2" s="267">
+      <c r="AM2" s="250">
         <v>43721</v>
       </c>
-      <c r="AN2" s="265">
+      <c r="AN2" s="248">
         <v>43724</v>
       </c>
-      <c r="AO2" s="261">
+      <c r="AO2" s="244">
         <v>43725</v>
       </c>
-      <c r="AP2" s="261">
+      <c r="AP2" s="244">
         <v>43726</v>
       </c>
-      <c r="AQ2" s="261">
+      <c r="AQ2" s="244">
         <v>43727</v>
       </c>
-      <c r="AR2" s="261">
+      <c r="AR2" s="244">
         <v>43728</v>
       </c>
-      <c r="AS2" s="262">
+      <c r="AS2" s="245">
         <v>43731</v>
       </c>
-      <c r="AT2" s="262">
+      <c r="AT2" s="245">
         <v>43732</v>
       </c>
-      <c r="AU2" s="262">
+      <c r="AU2" s="245">
         <v>43733</v>
       </c>
-      <c r="AV2" s="262">
+      <c r="AV2" s="245">
         <v>43734</v>
       </c>
-      <c r="AW2" s="262">
+      <c r="AW2" s="245">
         <v>43735</v>
       </c>
-      <c r="AX2" s="261">
+      <c r="AX2" s="244">
         <v>43738</v>
       </c>
-      <c r="AY2" s="261">
+      <c r="AY2" s="244">
         <v>43739</v>
       </c>
-      <c r="AZ2" s="261">
+      <c r="AZ2" s="244">
         <v>43740</v>
       </c>
-      <c r="BA2" s="261">
+      <c r="BA2" s="244">
         <v>43741</v>
       </c>
-      <c r="BB2" s="261">
+      <c r="BB2" s="244">
         <v>43742</v>
       </c>
-      <c r="BC2" s="262">
+      <c r="BC2" s="245">
         <v>43745</v>
       </c>
-      <c r="BD2" s="262">
+      <c r="BD2" s="245">
         <v>43746</v>
       </c>
-      <c r="BE2" s="262">
+      <c r="BE2" s="245">
         <v>43747</v>
       </c>
-      <c r="BF2" s="262">
+      <c r="BF2" s="245">
         <v>43748</v>
       </c>
-      <c r="BG2" s="262">
+      <c r="BG2" s="245">
         <v>43749</v>
       </c>
-      <c r="BH2" s="264">
+      <c r="BH2" s="247">
         <v>43754</v>
       </c>
-      <c r="BI2" s="261">
+      <c r="BI2" s="244">
         <v>43755</v>
       </c>
-      <c r="BJ2" s="271">
+      <c r="BJ2" s="254">
         <v>43756</v>
       </c>
-      <c r="BK2" s="268">
+      <c r="BK2" s="251">
         <v>43759</v>
       </c>
-      <c r="BL2" s="262">
+      <c r="BL2" s="245">
         <v>43760</v>
       </c>
-      <c r="BM2" s="262">
+      <c r="BM2" s="245">
         <v>43761</v>
       </c>
-      <c r="BN2" s="262">
+      <c r="BN2" s="245">
         <v>43762</v>
       </c>
-      <c r="BO2" s="262">
+      <c r="BO2" s="245">
         <v>43763</v>
       </c>
-      <c r="BP2" s="261">
+      <c r="BP2" s="244">
         <v>43766</v>
       </c>
-      <c r="BQ2" s="261">
+      <c r="BQ2" s="244">
         <v>43767</v>
       </c>
-      <c r="BR2" s="261">
+      <c r="BR2" s="244">
         <v>43768</v>
       </c>
-      <c r="BS2" s="261">
+      <c r="BS2" s="244">
         <v>43769</v>
       </c>
-      <c r="BT2" s="261">
+      <c r="BT2" s="244">
         <v>43770</v>
       </c>
-      <c r="BU2" s="262">
+      <c r="BU2" s="245">
         <v>43773</v>
       </c>
-      <c r="BV2" s="262">
+      <c r="BV2" s="245">
         <v>43774</v>
       </c>
-      <c r="BW2" s="262">
+      <c r="BW2" s="245">
         <v>43775</v>
       </c>
-      <c r="BX2" s="262">
+      <c r="BX2" s="245">
         <v>43776</v>
       </c>
-      <c r="BY2" s="262">
+      <c r="BY2" s="245">
         <v>43777</v>
       </c>
-      <c r="BZ2" s="261">
+      <c r="BZ2" s="244">
         <v>43780</v>
       </c>
-      <c r="CA2" s="261">
+      <c r="CA2" s="244">
         <v>43781</v>
       </c>
-      <c r="CB2" s="261">
+      <c r="CB2" s="244">
         <v>43782</v>
       </c>
-      <c r="CC2" s="261">
+      <c r="CC2" s="244">
         <v>43783</v>
       </c>
-      <c r="CD2" s="263">
+      <c r="CD2" s="246">
         <v>43787</v>
       </c>
-      <c r="CE2" s="262">
+      <c r="CE2" s="245">
         <v>43788</v>
       </c>
-      <c r="CF2" s="262">
+      <c r="CF2" s="245">
         <v>43790</v>
       </c>
-      <c r="CG2" s="267">
+      <c r="CG2" s="250">
         <v>43791</v>
       </c>
-      <c r="CH2" s="265">
+      <c r="CH2" s="248">
         <v>43794</v>
       </c>
-      <c r="CI2" s="261">
+      <c r="CI2" s="244">
         <v>43795</v>
       </c>
-      <c r="CJ2" s="261">
+      <c r="CJ2" s="244">
         <v>43796</v>
       </c>
-      <c r="CK2" s="261">
+      <c r="CK2" s="244">
         <v>43797</v>
       </c>
-      <c r="CL2" s="261">
+      <c r="CL2" s="244">
         <v>43798</v>
       </c>
-      <c r="CM2" s="263">
+      <c r="CM2" s="246">
         <v>43801</v>
       </c>
-      <c r="CN2" s="262">
+      <c r="CN2" s="245">
         <v>43802</v>
       </c>
-      <c r="CO2" s="262">
+      <c r="CO2" s="245">
         <v>43803</v>
       </c>
-      <c r="CP2" s="262">
+      <c r="CP2" s="245">
         <v>43804</v>
       </c>
-      <c r="CQ2" s="267">
+      <c r="CQ2" s="250">
         <v>43805</v>
       </c>
-      <c r="CR2" s="265">
+      <c r="CR2" s="248">
         <v>43808</v>
       </c>
-      <c r="CS2" s="261">
+      <c r="CS2" s="244">
         <v>43809</v>
       </c>
-      <c r="CT2" s="261">
+      <c r="CT2" s="244">
         <v>43810</v>
       </c>
-      <c r="CU2" s="261">
+      <c r="CU2" s="244">
         <v>43811</v>
       </c>
-      <c r="CV2" s="261">
+      <c r="CV2" s="244">
         <v>43812</v>
       </c>
-      <c r="CW2" s="266">
+      <c r="CW2" s="249">
         <v>43815</v>
       </c>
       <c r="CX2" s="208"/>
@@ -24482,7 +24812,7 @@
       <c r="M3" s="110"/>
       <c r="N3" s="110"/>
       <c r="O3" s="110"/>
-      <c r="P3" s="244"/>
+      <c r="P3" s="227"/>
       <c r="Q3" s="111"/>
       <c r="R3" s="109"/>
       <c r="S3" s="110"/>
@@ -24505,7 +24835,7 @@
       <c r="AJ3" s="112"/>
       <c r="AK3" s="190"/>
       <c r="AL3" s="110"/>
-      <c r="AM3" s="272"/>
+      <c r="AM3" s="255"/>
       <c r="AN3" s="109"/>
       <c r="AO3" s="110"/>
       <c r="AP3" s="110"/>
@@ -24575,13 +24905,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="86"/>
-      <c r="P4" s="245"/>
+      <c r="P4" s="228"/>
       <c r="Q4" s="87"/>
       <c r="R4" s="88"/>
       <c r="AH4" s="191"/>
       <c r="AJ4" s="71"/>
       <c r="AK4" s="191"/>
-      <c r="AM4" s="273"/>
+      <c r="AM4" s="256"/>
       <c r="AN4" s="88"/>
       <c r="BD4" s="71"/>
       <c r="BG4" s="191"/>
@@ -24606,13 +24936,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="86"/>
-      <c r="P5" s="245"/>
+      <c r="P5" s="228"/>
       <c r="Q5" s="87"/>
       <c r="R5" s="88"/>
       <c r="AH5" s="191"/>
       <c r="AJ5" s="71"/>
       <c r="AK5" s="191"/>
-      <c r="AM5" s="273"/>
+      <c r="AM5" s="256"/>
       <c r="AN5" s="88"/>
       <c r="BD5" s="71"/>
       <c r="BG5" s="191"/>
@@ -24640,13 +24970,13 @@
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
-      <c r="P6" s="245"/>
+      <c r="P6" s="228"/>
       <c r="Q6" s="87"/>
       <c r="R6" s="88"/>
       <c r="AH6" s="191"/>
       <c r="AJ6" s="71"/>
       <c r="AK6" s="191"/>
-      <c r="AM6" s="273"/>
+      <c r="AM6" s="256"/>
       <c r="AN6" s="88"/>
       <c r="BD6" s="71"/>
       <c r="BG6" s="191"/>
@@ -24674,13 +25004,13 @@
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
       <c r="E7" s="65"/>
-      <c r="P7" s="245"/>
+      <c r="P7" s="228"/>
       <c r="Q7" s="87"/>
       <c r="R7" s="88"/>
       <c r="AH7" s="191"/>
       <c r="AJ7" s="71"/>
       <c r="AK7" s="191"/>
-      <c r="AM7" s="273"/>
+      <c r="AM7" s="256"/>
       <c r="AN7" s="88"/>
       <c r="BD7" s="71"/>
       <c r="BG7" s="191"/>
@@ -24708,13 +25038,13 @@
       <c r="F8" s="65"/>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
-      <c r="P8" s="245"/>
+      <c r="P8" s="228"/>
       <c r="Q8" s="87"/>
       <c r="R8" s="88"/>
       <c r="AH8" s="191"/>
       <c r="AJ8" s="71"/>
       <c r="AK8" s="191"/>
-      <c r="AM8" s="273"/>
+      <c r="AM8" s="256"/>
       <c r="AN8" s="88"/>
       <c r="BD8" s="71"/>
       <c r="BG8" s="191"/>
@@ -24742,13 +25072,13 @@
       <c r="F9" s="65"/>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
-      <c r="P9" s="245"/>
+      <c r="P9" s="228"/>
       <c r="Q9" s="87"/>
       <c r="R9" s="88"/>
       <c r="AH9" s="191"/>
       <c r="AJ9" s="71"/>
       <c r="AK9" s="191"/>
-      <c r="AM9" s="273"/>
+      <c r="AM9" s="256"/>
       <c r="AN9" s="88"/>
       <c r="BD9" s="71"/>
       <c r="BG9" s="191"/>
@@ -24776,13 +25106,13 @@
       <c r="F10" s="65"/>
       <c r="G10" s="65"/>
       <c r="H10" s="65"/>
-      <c r="P10" s="245"/>
+      <c r="P10" s="228"/>
       <c r="Q10" s="87"/>
       <c r="R10" s="88"/>
       <c r="AH10" s="191"/>
       <c r="AJ10" s="71"/>
       <c r="AK10" s="191"/>
-      <c r="AM10" s="273"/>
+      <c r="AM10" s="256"/>
       <c r="AN10" s="88"/>
       <c r="BD10" s="71"/>
       <c r="BG10" s="191"/>
@@ -24810,13 +25140,13 @@
       <c r="F11" s="65"/>
       <c r="G11" s="65"/>
       <c r="H11" s="65"/>
-      <c r="P11" s="245"/>
+      <c r="P11" s="228"/>
       <c r="Q11" s="87"/>
       <c r="R11" s="88"/>
       <c r="AH11" s="191"/>
       <c r="AJ11" s="71"/>
       <c r="AK11" s="191"/>
-      <c r="AM11" s="273"/>
+      <c r="AM11" s="256"/>
       <c r="AN11" s="88"/>
       <c r="BD11" s="71"/>
       <c r="BG11" s="191"/>
@@ -24842,13 +25172,13 @@
       </c>
       <c r="B12" s="88"/>
       <c r="I12" s="65"/>
-      <c r="P12" s="245"/>
+      <c r="P12" s="228"/>
       <c r="Q12" s="87"/>
       <c r="R12" s="88"/>
       <c r="AH12" s="191"/>
       <c r="AJ12" s="71"/>
       <c r="AK12" s="191"/>
-      <c r="AM12" s="273"/>
+      <c r="AM12" s="256"/>
       <c r="AN12" s="88"/>
       <c r="BD12" s="71"/>
       <c r="BG12" s="191"/>
@@ -24874,13 +25204,13 @@
       </c>
       <c r="B13" s="88"/>
       <c r="J13" s="65"/>
-      <c r="P13" s="245"/>
+      <c r="P13" s="228"/>
       <c r="Q13" s="87"/>
       <c r="R13" s="88"/>
       <c r="AH13" s="191"/>
       <c r="AJ13" s="71"/>
       <c r="AK13" s="191"/>
-      <c r="AM13" s="273"/>
+      <c r="AM13" s="256"/>
       <c r="AN13" s="88"/>
       <c r="BD13" s="71"/>
       <c r="BG13" s="191"/>
@@ -24906,13 +25236,13 @@
       </c>
       <c r="B14" s="88"/>
       <c r="J14" s="65"/>
-      <c r="P14" s="245"/>
+      <c r="P14" s="228"/>
       <c r="Q14" s="87"/>
       <c r="R14" s="88"/>
       <c r="AH14" s="191"/>
       <c r="AJ14" s="71"/>
       <c r="AK14" s="191"/>
-      <c r="AM14" s="273"/>
+      <c r="AM14" s="256"/>
       <c r="AN14" s="88"/>
       <c r="BD14" s="71"/>
       <c r="BG14" s="191"/>
@@ -24939,13 +25269,13 @@
       <c r="B15" s="88"/>
       <c r="K15" s="65"/>
       <c r="L15" s="65"/>
-      <c r="P15" s="245"/>
+      <c r="P15" s="228"/>
       <c r="Q15" s="87"/>
       <c r="R15" s="88"/>
       <c r="AH15" s="191"/>
       <c r="AJ15" s="71"/>
       <c r="AK15" s="191"/>
-      <c r="AM15" s="273"/>
+      <c r="AM15" s="256"/>
       <c r="AN15" s="88"/>
       <c r="BD15" s="71"/>
       <c r="BG15" s="191"/>
@@ -24973,7 +25303,7 @@
       <c r="M16" s="117"/>
       <c r="N16" s="117"/>
       <c r="O16" s="117"/>
-      <c r="P16" s="246"/>
+      <c r="P16" s="229"/>
       <c r="Q16" s="168">
         <v>16</v>
       </c>
@@ -24981,7 +25311,7 @@
       <c r="AH16" s="192"/>
       <c r="AJ16" s="118"/>
       <c r="AK16" s="192"/>
-      <c r="AM16" s="274"/>
+      <c r="AM16" s="257"/>
       <c r="AN16" s="115"/>
       <c r="BD16" s="118"/>
       <c r="BG16" s="192"/>
@@ -25006,13 +25336,13 @@
         <v>96</v>
       </c>
       <c r="B17" s="120"/>
-      <c r="P17" s="247"/>
+      <c r="P17" s="230"/>
       <c r="Q17" s="122"/>
       <c r="R17" s="120"/>
       <c r="AH17" s="193"/>
       <c r="AJ17" s="123"/>
       <c r="AK17" s="193"/>
-      <c r="AM17" s="275"/>
+      <c r="AM17" s="258"/>
       <c r="AN17" s="120"/>
       <c r="BD17" s="123"/>
       <c r="BG17" s="193"/>
@@ -25037,11 +25367,11 @@
         <v>18</v>
       </c>
       <c r="B18" s="89"/>
-      <c r="P18" s="248"/>
+      <c r="P18" s="231"/>
       <c r="Q18" s="90"/>
       <c r="R18" s="167"/>
       <c r="AK18" s="194"/>
-      <c r="AM18" s="276"/>
+      <c r="AM18" s="259"/>
       <c r="AN18" s="89"/>
       <c r="BD18" s="72"/>
       <c r="BG18" s="194"/>
@@ -25066,11 +25396,11 @@
         <v>19</v>
       </c>
       <c r="B19" s="89"/>
-      <c r="P19" s="248"/>
+      <c r="P19" s="231"/>
       <c r="Q19" s="90"/>
       <c r="R19" s="167"/>
       <c r="AK19" s="194"/>
-      <c r="AM19" s="276"/>
+      <c r="AM19" s="259"/>
       <c r="AN19" s="89"/>
       <c r="BD19" s="72"/>
       <c r="BG19" s="194"/>
@@ -25095,12 +25425,12 @@
         <v>21</v>
       </c>
       <c r="B20" s="89"/>
-      <c r="P20" s="248"/>
+      <c r="P20" s="231"/>
       <c r="Q20" s="90"/>
       <c r="R20" s="89"/>
       <c r="S20" s="67"/>
       <c r="AK20" s="194"/>
-      <c r="AM20" s="276"/>
+      <c r="AM20" s="259"/>
       <c r="AN20" s="89"/>
       <c r="BD20" s="72"/>
       <c r="BG20" s="194"/>
@@ -25125,7 +25455,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="89"/>
-      <c r="P21" s="248"/>
+      <c r="P21" s="231"/>
       <c r="Q21" s="90"/>
       <c r="R21" s="89"/>
       <c r="Y21" s="67"/>
@@ -25135,7 +25465,7 @@
       <c r="AC21" s="67"/>
       <c r="AD21" s="67"/>
       <c r="AK21" s="194"/>
-      <c r="AM21" s="276"/>
+      <c r="AM21" s="259"/>
       <c r="AN21" s="89"/>
       <c r="BD21" s="72"/>
       <c r="BG21" s="194"/>
@@ -25160,13 +25490,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="89"/>
-      <c r="P22" s="248"/>
+      <c r="P22" s="231"/>
       <c r="Q22" s="90"/>
       <c r="R22" s="89"/>
       <c r="W22" s="67"/>
       <c r="X22" s="67"/>
       <c r="AK22" s="194"/>
-      <c r="AM22" s="276"/>
+      <c r="AM22" s="259"/>
       <c r="AN22" s="89"/>
       <c r="BD22" s="72"/>
       <c r="BG22" s="194"/>
@@ -25191,7 +25521,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="89"/>
-      <c r="P23" s="248"/>
+      <c r="P23" s="231"/>
       <c r="Q23" s="90"/>
       <c r="R23" s="89"/>
       <c r="S23" s="169" t="s">
@@ -25201,7 +25531,7 @@
       <c r="U23" s="67"/>
       <c r="V23" s="67"/>
       <c r="AK23" s="194"/>
-      <c r="AM23" s="276"/>
+      <c r="AM23" s="259"/>
       <c r="AN23" s="89"/>
       <c r="BD23" s="72"/>
       <c r="BG23" s="194"/>
@@ -25226,11 +25556,11 @@
         <v>26</v>
       </c>
       <c r="B24" s="89"/>
-      <c r="P24" s="248"/>
+      <c r="P24" s="231"/>
       <c r="Q24" s="90"/>
       <c r="R24" s="89"/>
       <c r="AK24" s="194"/>
-      <c r="AM24" s="276"/>
+      <c r="AM24" s="259"/>
       <c r="AN24" s="89"/>
       <c r="BD24" s="72"/>
       <c r="BG24" s="194"/>
@@ -25255,12 +25585,12 @@
         <v>109</v>
       </c>
       <c r="B25" s="89"/>
-      <c r="P25" s="248"/>
+      <c r="P25" s="231"/>
       <c r="Q25" s="90"/>
       <c r="R25" s="89"/>
       <c r="AB25" s="67"/>
       <c r="AK25" s="194"/>
-      <c r="AM25" s="276"/>
+      <c r="AM25" s="259"/>
       <c r="AN25" s="89"/>
       <c r="BD25" s="72"/>
       <c r="BG25" s="194"/>
@@ -25285,12 +25615,12 @@
         <v>110</v>
       </c>
       <c r="B26" s="89"/>
-      <c r="P26" s="248"/>
+      <c r="P26" s="231"/>
       <c r="Q26" s="90"/>
       <c r="R26" s="89"/>
       <c r="AC26" s="67"/>
       <c r="AK26" s="194"/>
-      <c r="AM26" s="276"/>
+      <c r="AM26" s="259"/>
       <c r="AN26" s="89"/>
       <c r="BD26" s="72"/>
       <c r="BG26" s="194"/>
@@ -25315,12 +25645,12 @@
         <v>112</v>
       </c>
       <c r="B27" s="89"/>
-      <c r="P27" s="248"/>
+      <c r="P27" s="231"/>
       <c r="Q27" s="90"/>
       <c r="R27" s="89"/>
       <c r="AA27" s="67"/>
       <c r="AK27" s="194"/>
-      <c r="AM27" s="276"/>
+      <c r="AM27" s="259"/>
       <c r="AN27" s="89"/>
       <c r="BD27" s="72"/>
       <c r="BG27" s="194"/>
@@ -25345,12 +25675,12 @@
         <v>111</v>
       </c>
       <c r="B28" s="89"/>
-      <c r="P28" s="248"/>
+      <c r="P28" s="231"/>
       <c r="Q28" s="90"/>
       <c r="R28" s="89"/>
       <c r="Z28" s="67"/>
       <c r="AK28" s="194"/>
-      <c r="AM28" s="276"/>
+      <c r="AM28" s="259"/>
       <c r="AN28" s="89"/>
       <c r="BD28" s="72"/>
       <c r="BG28" s="194"/>
@@ -25375,12 +25705,12 @@
         <v>113</v>
       </c>
       <c r="B29" s="89"/>
-      <c r="P29" s="248"/>
+      <c r="P29" s="231"/>
       <c r="Q29" s="90"/>
       <c r="R29" s="89"/>
       <c r="Y29" s="67"/>
       <c r="AK29" s="194"/>
-      <c r="AM29" s="276"/>
+      <c r="AM29" s="259"/>
       <c r="AN29" s="89"/>
       <c r="BD29" s="72"/>
       <c r="BG29" s="194"/>
@@ -25405,12 +25735,12 @@
         <v>114</v>
       </c>
       <c r="B30" s="89"/>
-      <c r="P30" s="248"/>
+      <c r="P30" s="231"/>
       <c r="Q30" s="90"/>
       <c r="R30" s="89"/>
       <c r="AD30" s="67"/>
       <c r="AK30" s="194"/>
-      <c r="AM30" s="276"/>
+      <c r="AM30" s="259"/>
       <c r="AN30" s="89"/>
       <c r="BD30" s="72"/>
       <c r="BG30" s="194"/>
@@ -25435,12 +25765,12 @@
         <v>20</v>
       </c>
       <c r="B31" s="89"/>
-      <c r="P31" s="248"/>
+      <c r="P31" s="231"/>
       <c r="Q31" s="90"/>
       <c r="R31" s="89"/>
       <c r="S31" s="67"/>
       <c r="AK31" s="194"/>
-      <c r="AM31" s="276"/>
+      <c r="AM31" s="259"/>
       <c r="AN31" s="89"/>
       <c r="BD31" s="72"/>
       <c r="BG31" s="194"/>
@@ -25465,12 +25795,12 @@
         <v>24</v>
       </c>
       <c r="B32" s="89"/>
-      <c r="P32" s="248"/>
+      <c r="P32" s="231"/>
       <c r="Q32" s="90"/>
       <c r="R32" s="89"/>
       <c r="AE32" s="67"/>
       <c r="AK32" s="194"/>
-      <c r="AM32" s="276"/>
+      <c r="AM32" s="259"/>
       <c r="AN32" s="89"/>
       <c r="BD32" s="72"/>
       <c r="BG32" s="194"/>
@@ -25495,12 +25825,12 @@
         <v>28</v>
       </c>
       <c r="B33" s="89"/>
-      <c r="P33" s="248"/>
+      <c r="P33" s="231"/>
       <c r="Q33" s="90"/>
       <c r="R33" s="89"/>
       <c r="AE33" s="67"/>
       <c r="AK33" s="194"/>
-      <c r="AM33" s="276"/>
+      <c r="AM33" s="259"/>
       <c r="AN33" s="89"/>
       <c r="BD33" s="72"/>
       <c r="BG33" s="194"/>
@@ -25525,7 +25855,7 @@
         <v>99</v>
       </c>
       <c r="B34" s="125"/>
-      <c r="P34" s="249"/>
+      <c r="P34" s="232"/>
       <c r="Q34" s="127"/>
       <c r="R34" s="125"/>
       <c r="S34" s="128"/>
@@ -25563,13 +25893,13 @@
         <v>97</v>
       </c>
       <c r="B35" s="130"/>
-      <c r="P35" s="250"/>
+      <c r="P35" s="233"/>
       <c r="Q35" s="132"/>
       <c r="R35" s="130"/>
       <c r="AH35" s="196"/>
       <c r="AJ35" s="133"/>
       <c r="AK35" s="196"/>
-      <c r="AM35" s="277"/>
+      <c r="AM35" s="260"/>
       <c r="AN35" s="130"/>
       <c r="BD35" s="133"/>
       <c r="BG35" s="196"/>
@@ -25594,7 +25924,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="91"/>
-      <c r="P36" s="251"/>
+      <c r="P36" s="234"/>
       <c r="Q36" s="92"/>
       <c r="R36" s="91"/>
       <c r="AH36" s="197"/>
@@ -25622,7 +25952,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="91"/>
-      <c r="P37" s="251"/>
+      <c r="P37" s="234"/>
       <c r="Q37" s="92"/>
       <c r="R37" s="91"/>
       <c r="AH37" s="197"/>
@@ -25652,7 +25982,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="91"/>
-      <c r="P38" s="251"/>
+      <c r="P38" s="234"/>
       <c r="Q38" s="92"/>
       <c r="R38" s="91"/>
       <c r="AH38" s="197"/>
@@ -25681,7 +26011,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="91"/>
-      <c r="P39" s="251"/>
+      <c r="P39" s="234"/>
       <c r="Q39" s="92"/>
       <c r="R39" s="91"/>
       <c r="AH39" s="197"/>
@@ -25709,7 +26039,7 @@
         <v>116</v>
       </c>
       <c r="B40" s="173"/>
-      <c r="P40" s="252"/>
+      <c r="P40" s="235"/>
       <c r="Q40" s="175"/>
       <c r="R40" s="173"/>
       <c r="AH40" s="198"/>
@@ -25738,7 +26068,7 @@
         <v>104</v>
       </c>
       <c r="B41" s="173"/>
-      <c r="P41" s="252"/>
+      <c r="P41" s="235"/>
       <c r="Q41" s="175"/>
       <c r="R41" s="173"/>
       <c r="AH41" s="198"/>
@@ -25767,7 +26097,7 @@
         <v>105</v>
       </c>
       <c r="B42" s="173"/>
-      <c r="P42" s="252"/>
+      <c r="P42" s="235"/>
       <c r="Q42" s="175"/>
       <c r="R42" s="173"/>
       <c r="AH42" s="198"/>
@@ -25796,7 +26126,7 @@
         <v>106</v>
       </c>
       <c r="B43" s="173"/>
-      <c r="P43" s="252"/>
+      <c r="P43" s="235"/>
       <c r="Q43" s="175"/>
       <c r="R43" s="173"/>
       <c r="AH43" s="198"/>
@@ -25825,7 +26155,7 @@
         <v>107</v>
       </c>
       <c r="B44" s="173"/>
-      <c r="P44" s="252"/>
+      <c r="P44" s="235"/>
       <c r="Q44" s="175"/>
       <c r="R44" s="173"/>
       <c r="AH44" s="198"/>
@@ -25854,7 +26184,7 @@
         <v>108</v>
       </c>
       <c r="B45" s="173"/>
-      <c r="P45" s="252"/>
+      <c r="P45" s="235"/>
       <c r="Q45" s="175"/>
       <c r="R45" s="173"/>
       <c r="AH45" s="198"/>
@@ -25883,7 +26213,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="91"/>
-      <c r="P46" s="251"/>
+      <c r="P46" s="234"/>
       <c r="Q46" s="92"/>
       <c r="R46" s="91"/>
       <c r="AH46" s="197"/>
@@ -25913,26 +26243,26 @@
         <v>100</v>
       </c>
       <c r="B47" s="135"/>
-      <c r="P47" s="253"/>
+      <c r="P47" s="236"/>
       <c r="Q47" s="137"/>
       <c r="R47" s="135"/>
       <c r="AH47" s="199"/>
       <c r="AK47" s="199"/>
       <c r="AM47" s="137"/>
       <c r="AN47" s="135"/>
-      <c r="AY47" s="231" t="s">
+      <c r="AY47" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="232"/>
-      <c r="BA47" s="233"/>
+      <c r="AZ47" s="279"/>
+      <c r="BA47" s="280"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
       <c r="BD47" s="178"/>
       <c r="BE47" s="178"/>
       <c r="BF47" s="178"/>
       <c r="BG47" s="178"/>
-      <c r="BH47" s="243"/>
-      <c r="BI47" s="243"/>
+      <c r="BH47" s="226"/>
+      <c r="BI47" s="226"/>
       <c r="BJ47" s="180">
         <v>23</v>
       </c>
@@ -25955,13 +26285,13 @@
         <v>98</v>
       </c>
       <c r="B48" s="140"/>
-      <c r="P48" s="254"/>
+      <c r="P48" s="237"/>
       <c r="Q48" s="142"/>
       <c r="R48" s="140"/>
       <c r="AH48" s="200"/>
       <c r="AJ48" s="143"/>
       <c r="AK48" s="200"/>
-      <c r="AM48" s="278"/>
+      <c r="AM48" s="261"/>
       <c r="AN48" s="140"/>
       <c r="BD48" s="143"/>
       <c r="BG48" s="200"/>
@@ -25986,13 +26316,13 @@
         <v>29</v>
       </c>
       <c r="B49" s="93"/>
-      <c r="P49" s="255"/>
+      <c r="P49" s="238"/>
       <c r="Q49" s="94"/>
       <c r="R49" s="93"/>
       <c r="AH49" s="201"/>
       <c r="AJ49" s="74"/>
       <c r="AK49" s="201"/>
-      <c r="AM49" s="279"/>
+      <c r="AM49" s="262"/>
       <c r="AN49" s="93"/>
       <c r="BG49" s="201"/>
       <c r="BJ49" s="94"/>
@@ -26014,17 +26344,17 @@
         <v>31</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="P50" s="255"/>
+      <c r="P50" s="238"/>
       <c r="Q50" s="94"/>
       <c r="R50" s="93"/>
       <c r="AH50" s="201"/>
       <c r="AJ50" s="74"/>
       <c r="AK50" s="201"/>
-      <c r="AM50" s="279"/>
+      <c r="AM50" s="262"/>
       <c r="AN50" s="93"/>
       <c r="BG50" s="201"/>
       <c r="BJ50" s="94"/>
-      <c r="BK50" s="269"/>
+      <c r="BK50" s="252"/>
       <c r="CE50" s="201"/>
       <c r="CG50" s="94"/>
       <c r="CH50" s="93"/>
@@ -26041,13 +26371,13 @@
         <v>35</v>
       </c>
       <c r="B51" s="93"/>
-      <c r="P51" s="255"/>
+      <c r="P51" s="238"/>
       <c r="Q51" s="94"/>
       <c r="R51" s="93"/>
       <c r="AH51" s="201"/>
       <c r="AJ51" s="74"/>
       <c r="AK51" s="201"/>
-      <c r="AM51" s="279"/>
+      <c r="AM51" s="262"/>
       <c r="AN51" s="93"/>
       <c r="BG51" s="201"/>
       <c r="BJ51" s="94"/>
@@ -26069,13 +26399,13 @@
         <v>30</v>
       </c>
       <c r="B52" s="93"/>
-      <c r="P52" s="255"/>
+      <c r="P52" s="238"/>
       <c r="Q52" s="94"/>
       <c r="R52" s="93"/>
       <c r="AH52" s="201"/>
       <c r="AJ52" s="74"/>
       <c r="AK52" s="201"/>
-      <c r="AM52" s="279"/>
+      <c r="AM52" s="262"/>
       <c r="AN52" s="93"/>
       <c r="BG52" s="201"/>
       <c r="BJ52" s="94"/>
@@ -26097,13 +26427,13 @@
         <v>33</v>
       </c>
       <c r="B53" s="93"/>
-      <c r="P53" s="255"/>
+      <c r="P53" s="238"/>
       <c r="Q53" s="94"/>
       <c r="R53" s="93"/>
       <c r="AH53" s="201"/>
       <c r="AJ53" s="74"/>
       <c r="AK53" s="201"/>
-      <c r="AM53" s="279"/>
+      <c r="AM53" s="262"/>
       <c r="AN53" s="93"/>
       <c r="BG53" s="201"/>
       <c r="BJ53" s="94"/>
@@ -26125,13 +26455,13 @@
         <v>34</v>
       </c>
       <c r="B54" s="93"/>
-      <c r="P54" s="255"/>
+      <c r="P54" s="238"/>
       <c r="Q54" s="94"/>
       <c r="R54" s="93"/>
       <c r="AH54" s="201"/>
       <c r="AJ54" s="74"/>
       <c r="AK54" s="201"/>
-      <c r="AM54" s="279"/>
+      <c r="AM54" s="262"/>
       <c r="AN54" s="93"/>
       <c r="BG54" s="201"/>
       <c r="BJ54" s="94"/>
@@ -26153,13 +26483,13 @@
         <v>32</v>
       </c>
       <c r="B55" s="93"/>
-      <c r="P55" s="255"/>
+      <c r="P55" s="238"/>
       <c r="Q55" s="94"/>
       <c r="R55" s="93"/>
       <c r="AH55" s="201"/>
       <c r="AJ55" s="74"/>
       <c r="AK55" s="201"/>
-      <c r="AM55" s="279"/>
+      <c r="AM55" s="262"/>
       <c r="AN55" s="93"/>
       <c r="BG55" s="201"/>
       <c r="BJ55" s="94"/>
@@ -26180,13 +26510,13 @@
         <v>109</v>
       </c>
       <c r="B56" s="93"/>
-      <c r="P56" s="255"/>
+      <c r="P56" s="238"/>
       <c r="Q56" s="94"/>
       <c r="R56" s="93"/>
       <c r="AH56" s="201"/>
       <c r="AJ56" s="74"/>
       <c r="AK56" s="201"/>
-      <c r="AM56" s="279"/>
+      <c r="AM56" s="262"/>
       <c r="AN56" s="93"/>
       <c r="BG56" s="201"/>
       <c r="BJ56" s="94"/>
@@ -26208,13 +26538,13 @@
         <v>117</v>
       </c>
       <c r="B57" s="93"/>
-      <c r="P57" s="255"/>
+      <c r="P57" s="238"/>
       <c r="Q57" s="94"/>
       <c r="R57" s="93"/>
       <c r="AH57" s="201"/>
       <c r="AJ57" s="74"/>
       <c r="AK57" s="201"/>
-      <c r="AM57" s="279"/>
+      <c r="AM57" s="262"/>
       <c r="AN57" s="93"/>
       <c r="BG57" s="201"/>
       <c r="BJ57" s="94"/>
@@ -26237,13 +26567,13 @@
         <v>118</v>
       </c>
       <c r="B58" s="93"/>
-      <c r="P58" s="255"/>
+      <c r="P58" s="238"/>
       <c r="Q58" s="94"/>
       <c r="R58" s="93"/>
       <c r="AH58" s="201"/>
       <c r="AJ58" s="74"/>
       <c r="AK58" s="201"/>
-      <c r="AM58" s="279"/>
+      <c r="AM58" s="262"/>
       <c r="AN58" s="93"/>
       <c r="BG58" s="201"/>
       <c r="BJ58" s="94"/>
@@ -26265,13 +26595,13 @@
         <v>119</v>
       </c>
       <c r="B59" s="93"/>
-      <c r="P59" s="255"/>
+      <c r="P59" s="238"/>
       <c r="Q59" s="94"/>
       <c r="R59" s="93"/>
       <c r="AH59" s="201"/>
       <c r="AJ59" s="74"/>
       <c r="AK59" s="201"/>
-      <c r="AM59" s="279"/>
+      <c r="AM59" s="262"/>
       <c r="AN59" s="93"/>
       <c r="BG59" s="201"/>
       <c r="BJ59" s="94"/>
@@ -26293,23 +26623,23 @@
         <v>101</v>
       </c>
       <c r="B60" s="145"/>
-      <c r="P60" s="256"/>
+      <c r="P60" s="239"/>
       <c r="Q60" s="147"/>
       <c r="R60" s="145"/>
       <c r="AH60" s="202"/>
       <c r="AJ60" s="148"/>
       <c r="AK60" s="202"/>
-      <c r="AM60" s="280"/>
+      <c r="AM60" s="263"/>
       <c r="AN60" s="145"/>
       <c r="BG60" s="202"/>
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="234" t="s">
+      <c r="BU60" s="281" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="235"/>
-      <c r="BW60" s="236"/>
+      <c r="BV60" s="282"/>
+      <c r="BW60" s="283"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -26317,9 +26647,9 @@
       <c r="CB60" s="184"/>
       <c r="CC60" s="184"/>
       <c r="CD60" s="184"/>
-      <c r="CE60" s="242"/>
-      <c r="CF60" s="242"/>
-      <c r="CG60" s="270">
+      <c r="CE60" s="225"/>
+      <c r="CF60" s="225"/>
+      <c r="CG60" s="253">
         <v>23</v>
       </c>
       <c r="CH60" s="145"/>
@@ -26336,13 +26666,13 @@
         <v>93</v>
       </c>
       <c r="B61" s="155"/>
-      <c r="P61" s="257"/>
+      <c r="P61" s="240"/>
       <c r="Q61" s="157"/>
       <c r="R61" s="155"/>
       <c r="AH61" s="203"/>
       <c r="AJ61" s="158"/>
       <c r="AK61" s="203"/>
-      <c r="AM61" s="281"/>
+      <c r="AM61" s="264"/>
       <c r="AN61" s="155"/>
       <c r="BD61" s="158"/>
       <c r="BG61" s="203"/>
@@ -26373,7 +26703,7 @@
       <c r="AH62" s="204"/>
       <c r="AJ62" s="75"/>
       <c r="AK62" s="204"/>
-      <c r="AM62" s="282"/>
+      <c r="AM62" s="265"/>
       <c r="AN62" s="95"/>
       <c r="BD62" s="75"/>
       <c r="BG62" s="204"/>
@@ -26403,7 +26733,7 @@
       <c r="AH63" s="204"/>
       <c r="AJ63" s="75"/>
       <c r="AK63" s="204"/>
-      <c r="AM63" s="282"/>
+      <c r="AM63" s="265"/>
       <c r="AN63" s="95"/>
       <c r="BD63" s="75"/>
       <c r="BG63" s="204"/>
@@ -26433,7 +26763,7 @@
       <c r="AH64" s="204"/>
       <c r="AJ64" s="75"/>
       <c r="AK64" s="204"/>
-      <c r="AM64" s="282"/>
+      <c r="AM64" s="265"/>
       <c r="AN64" s="95"/>
       <c r="BD64" s="75"/>
       <c r="BG64" s="204"/>
@@ -26462,7 +26792,7 @@
       <c r="AH65" s="204"/>
       <c r="AJ65" s="75"/>
       <c r="AK65" s="204"/>
-      <c r="AM65" s="282"/>
+      <c r="AM65" s="265"/>
       <c r="AN65" s="95"/>
       <c r="BD65" s="75"/>
       <c r="BG65" s="204"/>
@@ -26492,7 +26822,7 @@
       <c r="AH66" s="204"/>
       <c r="AJ66" s="75"/>
       <c r="AK66" s="204"/>
-      <c r="AM66" s="282"/>
+      <c r="AM66" s="265"/>
       <c r="AN66" s="95"/>
       <c r="BD66" s="75"/>
       <c r="BG66" s="204"/>
@@ -26522,7 +26852,7 @@
       <c r="AH67" s="204"/>
       <c r="AJ67" s="75"/>
       <c r="AK67" s="204"/>
-      <c r="AM67" s="282"/>
+      <c r="AM67" s="265"/>
       <c r="AN67" s="95"/>
       <c r="BD67" s="75"/>
       <c r="BG67" s="204"/>
@@ -26551,7 +26881,7 @@
       <c r="AH68" s="204"/>
       <c r="AJ68" s="75"/>
       <c r="AK68" s="204"/>
-      <c r="AM68" s="282"/>
+      <c r="AM68" s="265"/>
       <c r="AN68" s="95"/>
       <c r="BD68" s="75"/>
       <c r="BG68" s="204"/>
@@ -26582,7 +26912,7 @@
       <c r="AH69" s="205"/>
       <c r="AJ69" s="163"/>
       <c r="AK69" s="205"/>
-      <c r="AM69" s="283"/>
+      <c r="AM69" s="266"/>
       <c r="AN69" s="160"/>
       <c r="BD69" s="163"/>
       <c r="BG69" s="205"/>
@@ -26595,8 +26925,8 @@
       <c r="CH69" s="160"/>
       <c r="CM69" s="186"/>
       <c r="CN69" s="186"/>
-      <c r="CO69" s="241"/>
-      <c r="CP69" s="241"/>
+      <c r="CO69" s="224"/>
+      <c r="CP69" s="224"/>
       <c r="CQ69" s="188">
         <v>10</v>
       </c>
@@ -26610,13 +26940,13 @@
         <v>120</v>
       </c>
       <c r="B70" s="211"/>
-      <c r="P70" s="258"/>
+      <c r="P70" s="241"/>
       <c r="Q70" s="213"/>
       <c r="R70" s="211"/>
       <c r="AH70" s="215"/>
       <c r="AJ70" s="214"/>
       <c r="AK70" s="215"/>
-      <c r="AM70" s="284"/>
+      <c r="AM70" s="267"/>
       <c r="AN70" s="211"/>
       <c r="BD70" s="214"/>
       <c r="BG70" s="215"/>
@@ -26641,13 +26971,13 @@
     <row r="71" spans="1:102" s="151" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
-      <c r="P71" s="259"/>
+      <c r="P71" s="242"/>
       <c r="Q71" s="152"/>
       <c r="R71" s="150"/>
       <c r="AH71" s="206"/>
       <c r="AJ71" s="153"/>
       <c r="AK71" s="206"/>
-      <c r="AM71" s="285"/>
+      <c r="AM71" s="268"/>
       <c r="AN71" s="150"/>
       <c r="BD71" s="153"/>
       <c r="BG71" s="206"/>
@@ -26669,6 +26999,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:Q1"/>
     <mergeCell ref="CR1:CW1"/>
     <mergeCell ref="CH1:CQ1"/>
     <mergeCell ref="AY47:BA47"/>
@@ -26676,339 +27007,8 @@
     <mergeCell ref="R1:AM1"/>
     <mergeCell ref="AN1:BJ1"/>
     <mergeCell ref="BK1:CG1"/>
-    <mergeCell ref="B1:Q1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV1"/>
-  <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
-      <selection sqref="A1:CV1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="28" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="34" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="56" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="70" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="76" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="89" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="95" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="100" width="5.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A1" s="240">
-        <v>43670</v>
-      </c>
-      <c r="B1" s="240">
-        <v>43671</v>
-      </c>
-      <c r="C1" s="240">
-        <v>43672</v>
-      </c>
-      <c r="D1" s="240">
-        <v>43675</v>
-      </c>
-      <c r="E1" s="240">
-        <v>43676</v>
-      </c>
-      <c r="F1" s="240">
-        <v>43677</v>
-      </c>
-      <c r="G1" s="240">
-        <v>43678</v>
-      </c>
-      <c r="H1" s="240">
-        <v>43679</v>
-      </c>
-      <c r="I1" s="240">
-        <v>43682</v>
-      </c>
-      <c r="J1" s="240">
-        <v>43683</v>
-      </c>
-      <c r="K1" s="240">
-        <v>43684</v>
-      </c>
-      <c r="L1" s="240">
-        <v>43685</v>
-      </c>
-      <c r="M1" s="240">
-        <v>43686</v>
-      </c>
-      <c r="N1" s="240">
-        <v>43689</v>
-      </c>
-      <c r="O1" s="240">
-        <v>43690</v>
-      </c>
-      <c r="P1" s="240">
-        <v>43691</v>
-      </c>
-      <c r="Q1" s="240">
-        <v>43692</v>
-      </c>
-      <c r="R1" s="240">
-        <v>43693</v>
-      </c>
-      <c r="S1" s="240">
-        <v>43696</v>
-      </c>
-      <c r="T1" s="240">
-        <v>43697</v>
-      </c>
-      <c r="U1" s="240">
-        <v>43698</v>
-      </c>
-      <c r="V1" s="240">
-        <v>43699</v>
-      </c>
-      <c r="W1" s="240">
-        <v>43700</v>
-      </c>
-      <c r="X1" s="240">
-        <v>43703</v>
-      </c>
-      <c r="Y1" s="240">
-        <v>43704</v>
-      </c>
-      <c r="Z1" s="240">
-        <v>43705</v>
-      </c>
-      <c r="AA1" s="240">
-        <v>43706</v>
-      </c>
-      <c r="AB1" s="240">
-        <v>43707</v>
-      </c>
-      <c r="AC1" s="240">
-        <v>43710</v>
-      </c>
-      <c r="AD1" s="240">
-        <v>43711</v>
-      </c>
-      <c r="AE1" s="240">
-        <v>43712</v>
-      </c>
-      <c r="AF1" s="240">
-        <v>43713</v>
-      </c>
-      <c r="AG1" s="240">
-        <v>43714</v>
-      </c>
-      <c r="AH1" s="240">
-        <v>43717</v>
-      </c>
-      <c r="AI1" s="240">
-        <v>43718</v>
-      </c>
-      <c r="AJ1" s="240">
-        <v>43719</v>
-      </c>
-      <c r="AK1" s="240">
-        <v>43720</v>
-      </c>
-      <c r="AL1" s="240">
-        <v>43721</v>
-      </c>
-      <c r="AM1" s="240">
-        <v>43724</v>
-      </c>
-      <c r="AN1" s="240">
-        <v>43725</v>
-      </c>
-      <c r="AO1" s="240">
-        <v>43726</v>
-      </c>
-      <c r="AP1" s="240">
-        <v>43727</v>
-      </c>
-      <c r="AQ1" s="240">
-        <v>43728</v>
-      </c>
-      <c r="AR1" s="240">
-        <v>43731</v>
-      </c>
-      <c r="AS1" s="240">
-        <v>43732</v>
-      </c>
-      <c r="AT1" s="240">
-        <v>43733</v>
-      </c>
-      <c r="AU1" s="240">
-        <v>43734</v>
-      </c>
-      <c r="AV1" s="240">
-        <v>43735</v>
-      </c>
-      <c r="AW1" s="240">
-        <v>43738</v>
-      </c>
-      <c r="AX1" s="240">
-        <v>43739</v>
-      </c>
-      <c r="AY1" s="240">
-        <v>43740</v>
-      </c>
-      <c r="AZ1" s="240">
-        <v>43741</v>
-      </c>
-      <c r="BA1" s="240">
-        <v>43742</v>
-      </c>
-      <c r="BB1" s="240">
-        <v>43745</v>
-      </c>
-      <c r="BC1" s="240">
-        <v>43746</v>
-      </c>
-      <c r="BD1" s="240">
-        <v>43747</v>
-      </c>
-      <c r="BE1" s="240">
-        <v>43748</v>
-      </c>
-      <c r="BF1" s="240">
-        <v>43749</v>
-      </c>
-      <c r="BG1" s="240">
-        <v>43754</v>
-      </c>
-      <c r="BH1" s="240">
-        <v>43755</v>
-      </c>
-      <c r="BI1" s="240">
-        <v>43756</v>
-      </c>
-      <c r="BJ1" s="240">
-        <v>43759</v>
-      </c>
-      <c r="BK1" s="240">
-        <v>43760</v>
-      </c>
-      <c r="BL1" s="240">
-        <v>43761</v>
-      </c>
-      <c r="BM1" s="240">
-        <v>43762</v>
-      </c>
-      <c r="BN1" s="240">
-        <v>43763</v>
-      </c>
-      <c r="BO1" s="240">
-        <v>43766</v>
-      </c>
-      <c r="BP1" s="240">
-        <v>43767</v>
-      </c>
-      <c r="BQ1" s="240">
-        <v>43768</v>
-      </c>
-      <c r="BR1" s="240">
-        <v>43769</v>
-      </c>
-      <c r="BS1" s="240">
-        <v>43770</v>
-      </c>
-      <c r="BT1" s="240">
-        <v>43773</v>
-      </c>
-      <c r="BU1" s="240">
-        <v>43774</v>
-      </c>
-      <c r="BV1" s="240">
-        <v>43775</v>
-      </c>
-      <c r="BW1" s="240">
-        <v>43776</v>
-      </c>
-      <c r="BX1" s="240">
-        <v>43777</v>
-      </c>
-      <c r="BY1" s="240">
-        <v>43780</v>
-      </c>
-      <c r="BZ1" s="240">
-        <v>43781</v>
-      </c>
-      <c r="CA1" s="240">
-        <v>43782</v>
-      </c>
-      <c r="CB1" s="240">
-        <v>43783</v>
-      </c>
-      <c r="CC1" s="240">
-        <v>43787</v>
-      </c>
-      <c r="CD1" s="240">
-        <v>43788</v>
-      </c>
-      <c r="CE1" s="240">
-        <v>43790</v>
-      </c>
-      <c r="CF1" s="240">
-        <v>43791</v>
-      </c>
-      <c r="CG1" s="240">
-        <v>43794</v>
-      </c>
-      <c r="CH1" s="240">
-        <v>43795</v>
-      </c>
-      <c r="CI1" s="240">
-        <v>43796</v>
-      </c>
-      <c r="CJ1" s="240">
-        <v>43797</v>
-      </c>
-      <c r="CK1" s="240">
-        <v>43798</v>
-      </c>
-      <c r="CL1" s="240">
-        <v>43801</v>
-      </c>
-      <c r="CM1" s="240">
-        <v>43802</v>
-      </c>
-      <c r="CN1" s="240">
-        <v>43803</v>
-      </c>
-      <c r="CO1" s="240">
-        <v>43804</v>
-      </c>
-      <c r="CP1" s="240">
-        <v>43805</v>
-      </c>
-      <c r="CQ1" s="240">
-        <v>43808</v>
-      </c>
-      <c r="CR1" s="240">
-        <v>43809</v>
-      </c>
-      <c r="CS1" s="240">
-        <v>43810</v>
-      </c>
-      <c r="CT1" s="240">
-        <v>43811</v>
-      </c>
-      <c r="CU1" s="240">
-        <v>43812</v>
-      </c>
-      <c r="CV1" s="240">
-        <v>43815</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/planejamento/cronograma.xlsx
+++ b/planejamento/cronograma.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -21776,8 +21776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection sqref="A1:CV1"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BN8" sqref="BN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24314,9 +24314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX71"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25003,7 +25003,9 @@
       <c r="B7" s="88"/>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+      <c r="E7" s="65">
+        <v>2</v>
+      </c>
       <c r="P7" s="228"/>
       <c r="Q7" s="87"/>
       <c r="R7" s="88"/>

--- a/planejamento/cronograma.xlsx
+++ b/planejamento/cronograma.xlsx
@@ -1370,7 +1370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -2018,11 +2018,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2321,23 +2426,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2357,11 +2458,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2418,6 +2517,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3004,123 +3156,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="272" t="s">
+      <c r="B1" s="266" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="272" t="s">
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
+      <c r="N1" s="267"/>
+      <c r="O1" s="267"/>
+      <c r="P1" s="267"/>
+      <c r="Q1" s="267"/>
+      <c r="R1" s="266" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="273"/>
-      <c r="T1" s="273"/>
-      <c r="U1" s="273"/>
-      <c r="V1" s="273"/>
-      <c r="W1" s="273"/>
-      <c r="X1" s="273"/>
-      <c r="Y1" s="273"/>
-      <c r="Z1" s="273"/>
-      <c r="AA1" s="273"/>
-      <c r="AB1" s="273"/>
-      <c r="AC1" s="273"/>
-      <c r="AD1" s="273"/>
-      <c r="AE1" s="273"/>
-      <c r="AF1" s="273"/>
-      <c r="AG1" s="273"/>
-      <c r="AH1" s="273"/>
-      <c r="AI1" s="273"/>
-      <c r="AJ1" s="273"/>
-      <c r="AK1" s="273"/>
-      <c r="AL1" s="273"/>
-      <c r="AM1" s="274"/>
-      <c r="AN1" s="272" t="s">
+      <c r="S1" s="267"/>
+      <c r="T1" s="267"/>
+      <c r="U1" s="267"/>
+      <c r="V1" s="267"/>
+      <c r="W1" s="267"/>
+      <c r="X1" s="267"/>
+      <c r="Y1" s="267"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="267"/>
+      <c r="AB1" s="267"/>
+      <c r="AC1" s="267"/>
+      <c r="AD1" s="267"/>
+      <c r="AE1" s="267"/>
+      <c r="AF1" s="267"/>
+      <c r="AG1" s="267"/>
+      <c r="AH1" s="267"/>
+      <c r="AI1" s="267"/>
+      <c r="AJ1" s="267"/>
+      <c r="AK1" s="267"/>
+      <c r="AL1" s="267"/>
+      <c r="AM1" s="268"/>
+      <c r="AN1" s="266" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="273"/>
-      <c r="AP1" s="273"/>
-      <c r="AQ1" s="273"/>
-      <c r="AR1" s="273"/>
-      <c r="AS1" s="273"/>
-      <c r="AT1" s="274"/>
-      <c r="AU1" s="272" t="s">
+      <c r="AO1" s="267"/>
+      <c r="AP1" s="267"/>
+      <c r="AQ1" s="267"/>
+      <c r="AR1" s="267"/>
+      <c r="AS1" s="267"/>
+      <c r="AT1" s="268"/>
+      <c r="AU1" s="266" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="273"/>
-      <c r="AW1" s="273"/>
-      <c r="AX1" s="273"/>
-      <c r="AY1" s="273"/>
-      <c r="AZ1" s="273"/>
-      <c r="BA1" s="273"/>
-      <c r="BB1" s="273"/>
-      <c r="BC1" s="273"/>
-      <c r="BD1" s="273"/>
-      <c r="BE1" s="273"/>
-      <c r="BF1" s="273"/>
-      <c r="BG1" s="273"/>
-      <c r="BH1" s="273"/>
-      <c r="BI1" s="273"/>
-      <c r="BJ1" s="273"/>
-      <c r="BK1" s="273"/>
-      <c r="BL1" s="273"/>
-      <c r="BM1" s="273"/>
-      <c r="BN1" s="273"/>
-      <c r="BO1" s="273"/>
-      <c r="BP1" s="273"/>
-      <c r="BQ1" s="274"/>
-      <c r="BR1" s="272" t="s">
+      <c r="AV1" s="267"/>
+      <c r="AW1" s="267"/>
+      <c r="AX1" s="267"/>
+      <c r="AY1" s="267"/>
+      <c r="AZ1" s="267"/>
+      <c r="BA1" s="267"/>
+      <c r="BB1" s="267"/>
+      <c r="BC1" s="267"/>
+      <c r="BD1" s="267"/>
+      <c r="BE1" s="267"/>
+      <c r="BF1" s="267"/>
+      <c r="BG1" s="267"/>
+      <c r="BH1" s="267"/>
+      <c r="BI1" s="267"/>
+      <c r="BJ1" s="267"/>
+      <c r="BK1" s="267"/>
+      <c r="BL1" s="267"/>
+      <c r="BM1" s="267"/>
+      <c r="BN1" s="267"/>
+      <c r="BO1" s="267"/>
+      <c r="BP1" s="267"/>
+      <c r="BQ1" s="268"/>
+      <c r="BR1" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="273"/>
-      <c r="BT1" s="273"/>
-      <c r="BU1" s="273"/>
-      <c r="BV1" s="273"/>
-      <c r="BW1" s="273"/>
-      <c r="BX1" s="273"/>
-      <c r="BY1" s="273"/>
-      <c r="BZ1" s="273"/>
-      <c r="CA1" s="273"/>
-      <c r="CB1" s="273"/>
-      <c r="CC1" s="273"/>
-      <c r="CD1" s="273"/>
-      <c r="CE1" s="273"/>
-      <c r="CF1" s="273"/>
-      <c r="CG1" s="273"/>
-      <c r="CH1" s="273"/>
-      <c r="CI1" s="273"/>
-      <c r="CJ1" s="273"/>
-      <c r="CK1" s="274"/>
-      <c r="CL1" s="272" t="s">
+      <c r="BS1" s="267"/>
+      <c r="BT1" s="267"/>
+      <c r="BU1" s="267"/>
+      <c r="BV1" s="267"/>
+      <c r="BW1" s="267"/>
+      <c r="BX1" s="267"/>
+      <c r="BY1" s="267"/>
+      <c r="BZ1" s="267"/>
+      <c r="CA1" s="267"/>
+      <c r="CB1" s="267"/>
+      <c r="CC1" s="267"/>
+      <c r="CD1" s="267"/>
+      <c r="CE1" s="267"/>
+      <c r="CF1" s="267"/>
+      <c r="CG1" s="267"/>
+      <c r="CH1" s="267"/>
+      <c r="CI1" s="267"/>
+      <c r="CJ1" s="267"/>
+      <c r="CK1" s="268"/>
+      <c r="CL1" s="266" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="273"/>
-      <c r="CN1" s="273"/>
-      <c r="CO1" s="273"/>
-      <c r="CP1" s="273"/>
-      <c r="CQ1" s="273"/>
-      <c r="CR1" s="273"/>
-      <c r="CS1" s="273"/>
-      <c r="CT1" s="273"/>
-      <c r="CU1" s="273"/>
-      <c r="CV1" s="273"/>
-      <c r="CW1" s="273"/>
-      <c r="CX1" s="273"/>
-      <c r="CY1" s="273"/>
-      <c r="CZ1" s="273"/>
-      <c r="DA1" s="273"/>
-      <c r="DB1" s="273"/>
+      <c r="CM1" s="267"/>
+      <c r="CN1" s="267"/>
+      <c r="CO1" s="267"/>
+      <c r="CP1" s="267"/>
+      <c r="CQ1" s="267"/>
+      <c r="CR1" s="267"/>
+      <c r="CS1" s="267"/>
+      <c r="CT1" s="267"/>
+      <c r="CU1" s="267"/>
+      <c r="CV1" s="267"/>
+      <c r="CW1" s="267"/>
+      <c r="CX1" s="267"/>
+      <c r="CY1" s="267"/>
+      <c r="CZ1" s="267"/>
+      <c r="DA1" s="267"/>
+      <c r="DB1" s="267"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -21747,15 +21899,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="270" t="s">
+      <c r="CW86" s="264" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="270"/>
-      <c r="CY86" s="270"/>
-      <c r="CZ86" s="270"/>
-      <c r="DA86" s="270"/>
-      <c r="DB86" s="270"/>
-      <c r="DC86" s="271"/>
+      <c r="CX86" s="264"/>
+      <c r="CY86" s="264"/>
+      <c r="CZ86" s="264"/>
+      <c r="DA86" s="264"/>
+      <c r="DB86" s="264"/>
+      <c r="DC86" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22147,118 +22299,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="284" t="s">
+      <c r="B1" s="278" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-      <c r="P1" s="285"/>
-      <c r="Q1" s="286"/>
-      <c r="R1" s="275" t="s">
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="279"/>
+      <c r="J1" s="279"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="279"/>
+      <c r="N1" s="279"/>
+      <c r="O1" s="279"/>
+      <c r="P1" s="279"/>
+      <c r="Q1" s="280"/>
+      <c r="R1" s="269" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="276"/>
-      <c r="T1" s="276"/>
-      <c r="U1" s="276"/>
-      <c r="V1" s="276"/>
-      <c r="W1" s="276"/>
-      <c r="X1" s="276"/>
-      <c r="Y1" s="276"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="276"/>
-      <c r="AB1" s="276"/>
-      <c r="AC1" s="276"/>
-      <c r="AD1" s="276"/>
-      <c r="AE1" s="276"/>
-      <c r="AF1" s="276"/>
-      <c r="AG1" s="276"/>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="276"/>
-      <c r="AJ1" s="276"/>
-      <c r="AK1" s="276"/>
-      <c r="AL1" s="277"/>
-      <c r="AM1" s="275" t="s">
+      <c r="S1" s="270"/>
+      <c r="T1" s="270"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="270"/>
+      <c r="AA1" s="270"/>
+      <c r="AB1" s="270"/>
+      <c r="AC1" s="270"/>
+      <c r="AD1" s="270"/>
+      <c r="AE1" s="270"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="270"/>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="270"/>
+      <c r="AJ1" s="270"/>
+      <c r="AK1" s="270"/>
+      <c r="AL1" s="271"/>
+      <c r="AM1" s="269" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="276"/>
-      <c r="AO1" s="276"/>
-      <c r="AP1" s="276"/>
-      <c r="AQ1" s="276"/>
-      <c r="AR1" s="276"/>
-      <c r="AS1" s="276"/>
-      <c r="AT1" s="276"/>
-      <c r="AU1" s="276"/>
-      <c r="AV1" s="276"/>
-      <c r="AW1" s="276"/>
-      <c r="AX1" s="276"/>
-      <c r="AY1" s="276"/>
-      <c r="AZ1" s="276"/>
-      <c r="BA1" s="276"/>
-      <c r="BB1" s="276"/>
-      <c r="BC1" s="276"/>
-      <c r="BD1" s="276"/>
-      <c r="BE1" s="276"/>
-      <c r="BF1" s="276"/>
-      <c r="BG1" s="276"/>
-      <c r="BH1" s="277"/>
-      <c r="BI1" s="275" t="s">
+      <c r="AN1" s="270"/>
+      <c r="AO1" s="270"/>
+      <c r="AP1" s="270"/>
+      <c r="AQ1" s="270"/>
+      <c r="AR1" s="270"/>
+      <c r="AS1" s="270"/>
+      <c r="AT1" s="270"/>
+      <c r="AU1" s="270"/>
+      <c r="AV1" s="270"/>
+      <c r="AW1" s="270"/>
+      <c r="AX1" s="270"/>
+      <c r="AY1" s="270"/>
+      <c r="AZ1" s="270"/>
+      <c r="BA1" s="270"/>
+      <c r="BB1" s="270"/>
+      <c r="BC1" s="270"/>
+      <c r="BD1" s="270"/>
+      <c r="BE1" s="270"/>
+      <c r="BF1" s="270"/>
+      <c r="BG1" s="270"/>
+      <c r="BH1" s="271"/>
+      <c r="BI1" s="269" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="276"/>
-      <c r="BK1" s="276"/>
-      <c r="BL1" s="276"/>
-      <c r="BM1" s="276"/>
-      <c r="BN1" s="276"/>
-      <c r="BO1" s="276"/>
-      <c r="BP1" s="276"/>
-      <c r="BQ1" s="276"/>
-      <c r="BR1" s="276"/>
-      <c r="BS1" s="276"/>
-      <c r="BT1" s="276"/>
-      <c r="BU1" s="276"/>
-      <c r="BV1" s="276"/>
-      <c r="BW1" s="276"/>
-      <c r="BX1" s="276"/>
-      <c r="BY1" s="276"/>
-      <c r="BZ1" s="276"/>
-      <c r="CA1" s="276"/>
-      <c r="CB1" s="276"/>
-      <c r="CC1" s="276"/>
-      <c r="CD1" s="277"/>
-      <c r="CE1" s="275" t="s">
+      <c r="BJ1" s="270"/>
+      <c r="BK1" s="270"/>
+      <c r="BL1" s="270"/>
+      <c r="BM1" s="270"/>
+      <c r="BN1" s="270"/>
+      <c r="BO1" s="270"/>
+      <c r="BP1" s="270"/>
+      <c r="BQ1" s="270"/>
+      <c r="BR1" s="270"/>
+      <c r="BS1" s="270"/>
+      <c r="BT1" s="270"/>
+      <c r="BU1" s="270"/>
+      <c r="BV1" s="270"/>
+      <c r="BW1" s="270"/>
+      <c r="BX1" s="270"/>
+      <c r="BY1" s="270"/>
+      <c r="BZ1" s="270"/>
+      <c r="CA1" s="270"/>
+      <c r="CB1" s="270"/>
+      <c r="CC1" s="270"/>
+      <c r="CD1" s="271"/>
+      <c r="CE1" s="269" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="276"/>
-      <c r="CG1" s="276"/>
-      <c r="CH1" s="276"/>
-      <c r="CI1" s="276"/>
-      <c r="CJ1" s="276"/>
-      <c r="CK1" s="276"/>
-      <c r="CL1" s="276"/>
-      <c r="CM1" s="277"/>
-      <c r="CN1" s="275" t="s">
+      <c r="CF1" s="270"/>
+      <c r="CG1" s="270"/>
+      <c r="CH1" s="270"/>
+      <c r="CI1" s="270"/>
+      <c r="CJ1" s="270"/>
+      <c r="CK1" s="270"/>
+      <c r="CL1" s="270"/>
+      <c r="CM1" s="271"/>
+      <c r="CN1" s="269" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="276"/>
-      <c r="CP1" s="276"/>
-      <c r="CQ1" s="276"/>
-      <c r="CR1" s="276"/>
-      <c r="CS1" s="276"/>
-      <c r="CT1" s="276"/>
-      <c r="CU1" s="276"/>
-      <c r="CV1" s="276"/>
-      <c r="CW1" s="277"/>
+      <c r="CO1" s="270"/>
+      <c r="CP1" s="270"/>
+      <c r="CQ1" s="270"/>
+      <c r="CR1" s="270"/>
+      <c r="CS1" s="270"/>
+      <c r="CT1" s="270"/>
+      <c r="CU1" s="270"/>
+      <c r="CV1" s="270"/>
+      <c r="CW1" s="271"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23705,11 +23857,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="278" t="s">
+      <c r="AX47" s="272" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="279"/>
-      <c r="AZ47" s="280"/>
+      <c r="AY47" s="273"/>
+      <c r="AZ47" s="274"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -24008,11 +24160,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="281" t="s">
+      <c r="BS60" s="275" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="282"/>
-      <c r="BU60" s="283"/>
+      <c r="BT60" s="276"/>
+      <c r="BU60" s="277"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -24312,11 +24464,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX71"/>
+  <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="DA49" sqref="DA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24326,7 +24478,7 @@
     <col min="3" max="7" width="5" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="4" style="63" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="63" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" style="243" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="239" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="98" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="97" bestFit="1" customWidth="1"/>
     <col min="19" max="29" width="5" style="63" bestFit="1" customWidth="1"/>
@@ -24336,7 +24488,7 @@
     <col min="36" max="36" width="5" style="76" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="5" style="207" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="5" style="63" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5" style="269" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5" style="263" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5" style="97" bestFit="1" customWidth="1"/>
     <col min="41" max="55" width="5" style="63" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5" style="76" bestFit="1" customWidth="1"/>
@@ -24367,434 +24519,444 @@
     <col min="96" max="96" width="5" style="97" bestFit="1" customWidth="1"/>
     <col min="97" max="99" width="6" style="63" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="6" style="207" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="6" style="98" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="8.28515625" style="76"/>
-    <col min="103" max="16384" width="8.28515625" style="63"/>
+    <col min="101" max="101" width="6" style="17" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="6" style="76" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="6" style="98" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="8.28515625" style="76"/>
+    <col min="105" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="284" t="s">
+      <c r="B1" s="278" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-      <c r="P1" s="285"/>
-      <c r="Q1" s="286"/>
-      <c r="R1" s="275" t="s">
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="279"/>
+      <c r="J1" s="279"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="279"/>
+      <c r="N1" s="279"/>
+      <c r="O1" s="279"/>
+      <c r="P1" s="279"/>
+      <c r="Q1" s="280"/>
+      <c r="R1" s="269" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="276"/>
-      <c r="T1" s="276"/>
-      <c r="U1" s="276"/>
-      <c r="V1" s="276"/>
-      <c r="W1" s="276"/>
-      <c r="X1" s="276"/>
-      <c r="Y1" s="276"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="276"/>
-      <c r="AB1" s="276"/>
-      <c r="AC1" s="276"/>
-      <c r="AD1" s="276"/>
-      <c r="AE1" s="276"/>
-      <c r="AF1" s="276"/>
-      <c r="AG1" s="276"/>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="276"/>
-      <c r="AJ1" s="276"/>
-      <c r="AK1" s="276"/>
-      <c r="AL1" s="276"/>
-      <c r="AM1" s="277"/>
-      <c r="AN1" s="275" t="s">
+      <c r="S1" s="270"/>
+      <c r="T1" s="270"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="270"/>
+      <c r="AA1" s="270"/>
+      <c r="AB1" s="270"/>
+      <c r="AC1" s="270"/>
+      <c r="AD1" s="270"/>
+      <c r="AE1" s="270"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="270"/>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="270"/>
+      <c r="AJ1" s="270"/>
+      <c r="AK1" s="270"/>
+      <c r="AL1" s="270"/>
+      <c r="AM1" s="271"/>
+      <c r="AN1" s="269" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="276"/>
-      <c r="AP1" s="276"/>
-      <c r="AQ1" s="276"/>
-      <c r="AR1" s="276"/>
-      <c r="AS1" s="276"/>
-      <c r="AT1" s="276"/>
-      <c r="AU1" s="276"/>
-      <c r="AV1" s="276"/>
-      <c r="AW1" s="276"/>
-      <c r="AX1" s="276"/>
-      <c r="AY1" s="276"/>
-      <c r="AZ1" s="276"/>
-      <c r="BA1" s="276"/>
-      <c r="BB1" s="276"/>
-      <c r="BC1" s="276"/>
-      <c r="BD1" s="276"/>
-      <c r="BE1" s="276"/>
-      <c r="BF1" s="276"/>
-      <c r="BG1" s="276"/>
-      <c r="BH1" s="276"/>
-      <c r="BI1" s="276"/>
-      <c r="BJ1" s="277"/>
-      <c r="BK1" s="275" t="s">
+      <c r="AO1" s="270"/>
+      <c r="AP1" s="270"/>
+      <c r="AQ1" s="270"/>
+      <c r="AR1" s="270"/>
+      <c r="AS1" s="270"/>
+      <c r="AT1" s="270"/>
+      <c r="AU1" s="270"/>
+      <c r="AV1" s="270"/>
+      <c r="AW1" s="270"/>
+      <c r="AX1" s="270"/>
+      <c r="AY1" s="270"/>
+      <c r="AZ1" s="270"/>
+      <c r="BA1" s="270"/>
+      <c r="BB1" s="270"/>
+      <c r="BC1" s="270"/>
+      <c r="BD1" s="270"/>
+      <c r="BE1" s="270"/>
+      <c r="BF1" s="270"/>
+      <c r="BG1" s="270"/>
+      <c r="BH1" s="270"/>
+      <c r="BI1" s="270"/>
+      <c r="BJ1" s="271"/>
+      <c r="BK1" s="269" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="276"/>
-      <c r="BM1" s="276"/>
-      <c r="BN1" s="276"/>
-      <c r="BO1" s="276"/>
-      <c r="BP1" s="276"/>
-      <c r="BQ1" s="276"/>
-      <c r="BR1" s="276"/>
-      <c r="BS1" s="276"/>
-      <c r="BT1" s="276"/>
-      <c r="BU1" s="276"/>
-      <c r="BV1" s="276"/>
-      <c r="BW1" s="276"/>
-      <c r="BX1" s="276"/>
-      <c r="BY1" s="276"/>
-      <c r="BZ1" s="276"/>
-      <c r="CA1" s="276"/>
-      <c r="CB1" s="276"/>
-      <c r="CC1" s="276"/>
-      <c r="CD1" s="276"/>
-      <c r="CE1" s="276"/>
-      <c r="CF1" s="276"/>
-      <c r="CG1" s="277"/>
-      <c r="CH1" s="275" t="s">
+      <c r="BL1" s="270"/>
+      <c r="BM1" s="270"/>
+      <c r="BN1" s="270"/>
+      <c r="BO1" s="270"/>
+      <c r="BP1" s="270"/>
+      <c r="BQ1" s="270"/>
+      <c r="BR1" s="270"/>
+      <c r="BS1" s="270"/>
+      <c r="BT1" s="270"/>
+      <c r="BU1" s="270"/>
+      <c r="BV1" s="270"/>
+      <c r="BW1" s="270"/>
+      <c r="BX1" s="270"/>
+      <c r="BY1" s="270"/>
+      <c r="BZ1" s="270"/>
+      <c r="CA1" s="270"/>
+      <c r="CB1" s="270"/>
+      <c r="CC1" s="270"/>
+      <c r="CD1" s="270"/>
+      <c r="CE1" s="270"/>
+      <c r="CF1" s="270"/>
+      <c r="CG1" s="271"/>
+      <c r="CH1" s="269" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="276"/>
-      <c r="CJ1" s="276"/>
-      <c r="CK1" s="276"/>
-      <c r="CL1" s="276"/>
-      <c r="CM1" s="276"/>
-      <c r="CN1" s="276"/>
-      <c r="CO1" s="276"/>
-      <c r="CP1" s="276"/>
-      <c r="CQ1" s="277"/>
-      <c r="CR1" s="275" t="s">
+      <c r="CI1" s="270"/>
+      <c r="CJ1" s="270"/>
+      <c r="CK1" s="270"/>
+      <c r="CL1" s="270"/>
+      <c r="CM1" s="270"/>
+      <c r="CN1" s="270"/>
+      <c r="CO1" s="270"/>
+      <c r="CP1" s="270"/>
+      <c r="CQ1" s="271"/>
+      <c r="CR1" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="276"/>
-      <c r="CT1" s="276"/>
-      <c r="CU1" s="276"/>
-      <c r="CV1" s="276"/>
-      <c r="CW1" s="277"/>
-      <c r="CX1" s="99"/>
+      <c r="CS1" s="283"/>
+      <c r="CT1" s="283"/>
+      <c r="CU1" s="283"/>
+      <c r="CV1" s="283"/>
+      <c r="CW1" s="283"/>
+      <c r="CX1" s="283"/>
+      <c r="CY1" s="284"/>
+      <c r="CZ1" s="99"/>
     </row>
-    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="248">
+      <c r="B2" s="244">
         <v>43670</v>
       </c>
-      <c r="C2" s="244">
+      <c r="C2" s="240">
         <v>43671</v>
       </c>
-      <c r="D2" s="244">
+      <c r="D2" s="240">
         <v>43672</v>
       </c>
-      <c r="E2" s="245">
+      <c r="E2" s="241">
         <v>43675</v>
       </c>
-      <c r="F2" s="245">
+      <c r="F2" s="241">
         <v>43676</v>
       </c>
-      <c r="G2" s="245">
+      <c r="G2" s="241">
         <v>43677</v>
       </c>
-      <c r="H2" s="245">
+      <c r="H2" s="241">
         <v>43678</v>
       </c>
-      <c r="I2" s="245">
+      <c r="I2" s="241">
         <v>43679</v>
       </c>
-      <c r="J2" s="244">
+      <c r="J2" s="240">
         <v>43682</v>
       </c>
-      <c r="K2" s="244">
+      <c r="K2" s="240">
         <v>43683</v>
       </c>
-      <c r="L2" s="244">
+      <c r="L2" s="240">
         <v>43684</v>
       </c>
-      <c r="M2" s="244">
+      <c r="M2" s="240">
         <v>43685</v>
       </c>
-      <c r="N2" s="244">
+      <c r="N2" s="240">
         <v>43686</v>
       </c>
-      <c r="O2" s="245">
+      <c r="O2" s="241">
         <v>43689</v>
       </c>
-      <c r="P2" s="245">
+      <c r="P2" s="241">
         <v>43690</v>
       </c>
-      <c r="Q2" s="249">
+      <c r="Q2" s="245">
         <v>43691</v>
       </c>
-      <c r="R2" s="251">
+      <c r="R2" s="247">
         <v>43692</v>
       </c>
-      <c r="S2" s="245">
+      <c r="S2" s="241">
         <v>43693</v>
       </c>
-      <c r="T2" s="244">
+      <c r="T2" s="240">
         <v>43696</v>
       </c>
-      <c r="U2" s="244">
+      <c r="U2" s="240">
         <v>43697</v>
       </c>
-      <c r="V2" s="244">
+      <c r="V2" s="240">
         <v>43698</v>
       </c>
-      <c r="W2" s="244">
+      <c r="W2" s="240">
         <v>43699</v>
       </c>
-      <c r="X2" s="244">
+      <c r="X2" s="240">
         <v>43700</v>
       </c>
-      <c r="Y2" s="245">
+      <c r="Y2" s="241">
         <v>43703</v>
       </c>
-      <c r="Z2" s="245">
+      <c r="Z2" s="241">
         <v>43704</v>
       </c>
-      <c r="AA2" s="245">
+      <c r="AA2" s="241">
         <v>43705</v>
       </c>
-      <c r="AB2" s="245">
+      <c r="AB2" s="241">
         <v>43706</v>
       </c>
-      <c r="AC2" s="245">
+      <c r="AC2" s="241">
         <v>43707</v>
       </c>
-      <c r="AD2" s="244">
+      <c r="AD2" s="240">
         <v>43710</v>
       </c>
-      <c r="AE2" s="244">
+      <c r="AE2" s="240">
         <v>43711</v>
       </c>
-      <c r="AF2" s="244">
+      <c r="AF2" s="240">
         <v>43712</v>
       </c>
-      <c r="AG2" s="244">
+      <c r="AG2" s="240">
         <v>43713</v>
       </c>
-      <c r="AH2" s="244">
+      <c r="AH2" s="240">
         <v>43714</v>
       </c>
-      <c r="AI2" s="245">
+      <c r="AI2" s="241">
         <v>43717</v>
       </c>
-      <c r="AJ2" s="245">
+      <c r="AJ2" s="241">
         <v>43718</v>
       </c>
-      <c r="AK2" s="245">
+      <c r="AK2" s="241">
         <v>43719</v>
       </c>
-      <c r="AL2" s="246">
+      <c r="AL2" s="242">
         <v>43720</v>
       </c>
-      <c r="AM2" s="250">
+      <c r="AM2" s="246">
         <v>43721</v>
       </c>
-      <c r="AN2" s="248">
+      <c r="AN2" s="244">
         <v>43724</v>
       </c>
-      <c r="AO2" s="244">
+      <c r="AO2" s="240">
         <v>43725</v>
       </c>
-      <c r="AP2" s="244">
+      <c r="AP2" s="240">
         <v>43726</v>
       </c>
-      <c r="AQ2" s="244">
+      <c r="AQ2" s="240">
         <v>43727</v>
       </c>
-      <c r="AR2" s="244">
+      <c r="AR2" s="240">
         <v>43728</v>
       </c>
-      <c r="AS2" s="245">
+      <c r="AS2" s="241">
         <v>43731</v>
       </c>
-      <c r="AT2" s="245">
+      <c r="AT2" s="241">
         <v>43732</v>
       </c>
-      <c r="AU2" s="245">
+      <c r="AU2" s="241">
         <v>43733</v>
       </c>
-      <c r="AV2" s="245">
+      <c r="AV2" s="241">
         <v>43734</v>
       </c>
-      <c r="AW2" s="245">
+      <c r="AW2" s="241">
         <v>43735</v>
       </c>
-      <c r="AX2" s="244">
+      <c r="AX2" s="240">
         <v>43738</v>
       </c>
-      <c r="AY2" s="244">
+      <c r="AY2" s="240">
         <v>43739</v>
       </c>
-      <c r="AZ2" s="244">
+      <c r="AZ2" s="240">
         <v>43740</v>
       </c>
-      <c r="BA2" s="244">
+      <c r="BA2" s="240">
         <v>43741</v>
       </c>
-      <c r="BB2" s="244">
+      <c r="BB2" s="240">
         <v>43742</v>
       </c>
-      <c r="BC2" s="245">
+      <c r="BC2" s="241">
         <v>43745</v>
       </c>
-      <c r="BD2" s="245">
+      <c r="BD2" s="241">
         <v>43746</v>
       </c>
-      <c r="BE2" s="245">
+      <c r="BE2" s="241">
         <v>43747</v>
       </c>
-      <c r="BF2" s="245">
+      <c r="BF2" s="241">
         <v>43748</v>
       </c>
-      <c r="BG2" s="245">
+      <c r="BG2" s="241">
         <v>43749</v>
       </c>
-      <c r="BH2" s="247">
+      <c r="BH2" s="243">
         <v>43754</v>
       </c>
-      <c r="BI2" s="244">
+      <c r="BI2" s="240">
         <v>43755</v>
       </c>
-      <c r="BJ2" s="254">
+      <c r="BJ2" s="250">
         <v>43756</v>
       </c>
-      <c r="BK2" s="251">
+      <c r="BK2" s="247">
         <v>43759</v>
       </c>
-      <c r="BL2" s="245">
+      <c r="BL2" s="241">
         <v>43760</v>
       </c>
-      <c r="BM2" s="245">
+      <c r="BM2" s="241">
         <v>43761</v>
       </c>
-      <c r="BN2" s="245">
+      <c r="BN2" s="241">
         <v>43762</v>
       </c>
-      <c r="BO2" s="245">
+      <c r="BO2" s="241">
         <v>43763</v>
       </c>
-      <c r="BP2" s="244">
+      <c r="BP2" s="240">
         <v>43766</v>
       </c>
-      <c r="BQ2" s="244">
+      <c r="BQ2" s="240">
         <v>43767</v>
       </c>
-      <c r="BR2" s="244">
+      <c r="BR2" s="240">
         <v>43768</v>
       </c>
-      <c r="BS2" s="244">
+      <c r="BS2" s="240">
         <v>43769</v>
       </c>
-      <c r="BT2" s="244">
+      <c r="BT2" s="240">
         <v>43770</v>
       </c>
-      <c r="BU2" s="245">
+      <c r="BU2" s="241">
         <v>43773</v>
       </c>
-      <c r="BV2" s="245">
+      <c r="BV2" s="241">
         <v>43774</v>
       </c>
-      <c r="BW2" s="245">
+      <c r="BW2" s="241">
         <v>43775</v>
       </c>
-      <c r="BX2" s="245">
+      <c r="BX2" s="241">
         <v>43776</v>
       </c>
-      <c r="BY2" s="245">
+      <c r="BY2" s="241">
         <v>43777</v>
       </c>
-      <c r="BZ2" s="244">
+      <c r="BZ2" s="240">
         <v>43780</v>
       </c>
-      <c r="CA2" s="244">
+      <c r="CA2" s="240">
         <v>43781</v>
       </c>
-      <c r="CB2" s="244">
+      <c r="CB2" s="240">
         <v>43782</v>
       </c>
-      <c r="CC2" s="244">
+      <c r="CC2" s="240">
         <v>43783</v>
       </c>
-      <c r="CD2" s="246">
+      <c r="CD2" s="242">
         <v>43787</v>
       </c>
-      <c r="CE2" s="245">
+      <c r="CE2" s="241">
         <v>43788</v>
       </c>
-      <c r="CF2" s="245">
+      <c r="CF2" s="241">
         <v>43790</v>
       </c>
-      <c r="CG2" s="250">
+      <c r="CG2" s="246">
         <v>43791</v>
       </c>
-      <c r="CH2" s="248">
+      <c r="CH2" s="244">
         <v>43794</v>
       </c>
-      <c r="CI2" s="244">
+      <c r="CI2" s="240">
         <v>43795</v>
       </c>
-      <c r="CJ2" s="244">
+      <c r="CJ2" s="240">
         <v>43796</v>
       </c>
-      <c r="CK2" s="244">
+      <c r="CK2" s="240">
         <v>43797</v>
       </c>
-      <c r="CL2" s="244">
+      <c r="CL2" s="240">
         <v>43798</v>
       </c>
-      <c r="CM2" s="246">
+      <c r="CM2" s="242">
         <v>43801</v>
       </c>
-      <c r="CN2" s="245">
+      <c r="CN2" s="241">
         <v>43802</v>
       </c>
-      <c r="CO2" s="245">
+      <c r="CO2" s="241">
         <v>43803</v>
       </c>
-      <c r="CP2" s="245">
+      <c r="CP2" s="241">
         <v>43804</v>
       </c>
-      <c r="CQ2" s="250">
+      <c r="CQ2" s="246">
         <v>43805</v>
       </c>
-      <c r="CR2" s="248">
+      <c r="CR2" s="244">
         <v>43808</v>
       </c>
-      <c r="CS2" s="244">
+      <c r="CS2" s="240">
         <v>43809</v>
       </c>
-      <c r="CT2" s="244">
+      <c r="CT2" s="240">
         <v>43810</v>
       </c>
-      <c r="CU2" s="244">
+      <c r="CU2" s="240">
         <v>43811</v>
       </c>
-      <c r="CV2" s="244">
+      <c r="CV2" s="240">
         <v>43812</v>
       </c>
-      <c r="CW2" s="249">
+      <c r="CW2" s="241">
         <v>43815</v>
       </c>
-      <c r="CX2" s="208"/>
+      <c r="CX2" s="241">
+        <v>43816</v>
+      </c>
+      <c r="CY2" s="246">
+        <v>43817</v>
+      </c>
+      <c r="CZ2" s="208"/>
     </row>
-    <row r="3" spans="1:102" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:104" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -24812,7 +24974,7 @@
       <c r="M3" s="110"/>
       <c r="N3" s="110"/>
       <c r="O3" s="110"/>
-      <c r="P3" s="227"/>
+      <c r="P3" s="226"/>
       <c r="Q3" s="111"/>
       <c r="R3" s="109"/>
       <c r="S3" s="110"/>
@@ -24835,7 +24997,7 @@
       <c r="AJ3" s="112"/>
       <c r="AK3" s="190"/>
       <c r="AL3" s="110"/>
-      <c r="AM3" s="255"/>
+      <c r="AM3" s="251"/>
       <c r="AN3" s="109"/>
       <c r="AO3" s="110"/>
       <c r="AP3" s="110"/>
@@ -24897,21 +25059,22 @@
       <c r="CT3" s="110"/>
       <c r="CU3" s="110"/>
       <c r="CV3" s="190"/>
-      <c r="CW3" s="111"/>
       <c r="CX3" s="209"/>
+      <c r="CY3" s="289"/>
+      <c r="CZ3" s="209"/>
     </row>
-    <row r="4" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="86"/>
-      <c r="P4" s="228"/>
+      <c r="P4" s="227"/>
       <c r="Q4" s="87"/>
       <c r="R4" s="88"/>
       <c r="AH4" s="191"/>
       <c r="AJ4" s="71"/>
       <c r="AK4" s="191"/>
-      <c r="AM4" s="256"/>
+      <c r="AM4" s="252"/>
       <c r="AN4" s="88"/>
       <c r="BD4" s="71"/>
       <c r="BG4" s="191"/>
@@ -24928,21 +25091,22 @@
       <c r="CQ4" s="87"/>
       <c r="CR4" s="88"/>
       <c r="CV4" s="191"/>
-      <c r="CW4" s="87"/>
       <c r="CX4" s="71"/>
+      <c r="CY4" s="87"/>
+      <c r="CZ4" s="71"/>
     </row>
-    <row r="5" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="86"/>
-      <c r="P5" s="228"/>
+      <c r="P5" s="227"/>
       <c r="Q5" s="87"/>
       <c r="R5" s="88"/>
       <c r="AH5" s="191"/>
       <c r="AJ5" s="71"/>
       <c r="AK5" s="191"/>
-      <c r="AM5" s="256"/>
+      <c r="AM5" s="252"/>
       <c r="AN5" s="88"/>
       <c r="BD5" s="71"/>
       <c r="BG5" s="191"/>
@@ -24959,10 +25123,11 @@
       <c r="CQ5" s="87"/>
       <c r="CR5" s="88"/>
       <c r="CV5" s="191"/>
-      <c r="CW5" s="87"/>
       <c r="CX5" s="71"/>
+      <c r="CY5" s="87"/>
+      <c r="CZ5" s="71"/>
     </row>
-    <row r="6" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -24970,13 +25135,13 @@
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
-      <c r="P6" s="228"/>
+      <c r="P6" s="227"/>
       <c r="Q6" s="87"/>
       <c r="R6" s="88"/>
       <c r="AH6" s="191"/>
       <c r="AJ6" s="71"/>
       <c r="AK6" s="191"/>
-      <c r="AM6" s="256"/>
+      <c r="AM6" s="252"/>
       <c r="AN6" s="88"/>
       <c r="BD6" s="71"/>
       <c r="BG6" s="191"/>
@@ -24993,10 +25158,11 @@
       <c r="CQ6" s="87"/>
       <c r="CR6" s="88"/>
       <c r="CV6" s="191"/>
-      <c r="CW6" s="87"/>
       <c r="CX6" s="71"/>
+      <c r="CY6" s="87"/>
+      <c r="CZ6" s="71"/>
     </row>
-    <row r="7" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -25006,13 +25172,13 @@
       <c r="E7" s="65">
         <v>2</v>
       </c>
-      <c r="P7" s="228"/>
+      <c r="P7" s="227"/>
       <c r="Q7" s="87"/>
       <c r="R7" s="88"/>
       <c r="AH7" s="191"/>
       <c r="AJ7" s="71"/>
       <c r="AK7" s="191"/>
-      <c r="AM7" s="256"/>
+      <c r="AM7" s="252"/>
       <c r="AN7" s="88"/>
       <c r="BD7" s="71"/>
       <c r="BG7" s="191"/>
@@ -25029,10 +25195,11 @@
       <c r="CQ7" s="87"/>
       <c r="CR7" s="88"/>
       <c r="CV7" s="191"/>
-      <c r="CW7" s="87"/>
       <c r="CX7" s="71"/>
+      <c r="CY7" s="87"/>
+      <c r="CZ7" s="71"/>
     </row>
-    <row r="8" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -25040,13 +25207,13 @@
       <c r="F8" s="65"/>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
-      <c r="P8" s="228"/>
+      <c r="P8" s="227"/>
       <c r="Q8" s="87"/>
       <c r="R8" s="88"/>
       <c r="AH8" s="191"/>
       <c r="AJ8" s="71"/>
       <c r="AK8" s="191"/>
-      <c r="AM8" s="256"/>
+      <c r="AM8" s="252"/>
       <c r="AN8" s="88"/>
       <c r="BD8" s="71"/>
       <c r="BG8" s="191"/>
@@ -25063,10 +25230,11 @@
       <c r="CQ8" s="87"/>
       <c r="CR8" s="88"/>
       <c r="CV8" s="191"/>
-      <c r="CW8" s="87"/>
       <c r="CX8" s="71"/>
+      <c r="CY8" s="87"/>
+      <c r="CZ8" s="71"/>
     </row>
-    <row r="9" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -25074,13 +25242,13 @@
       <c r="F9" s="65"/>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
-      <c r="P9" s="228"/>
+      <c r="P9" s="227"/>
       <c r="Q9" s="87"/>
       <c r="R9" s="88"/>
       <c r="AH9" s="191"/>
       <c r="AJ9" s="71"/>
       <c r="AK9" s="191"/>
-      <c r="AM9" s="256"/>
+      <c r="AM9" s="252"/>
       <c r="AN9" s="88"/>
       <c r="BD9" s="71"/>
       <c r="BG9" s="191"/>
@@ -25097,10 +25265,11 @@
       <c r="CQ9" s="87"/>
       <c r="CR9" s="88"/>
       <c r="CV9" s="191"/>
-      <c r="CW9" s="87"/>
       <c r="CX9" s="71"/>
+      <c r="CY9" s="87"/>
+      <c r="CZ9" s="71"/>
     </row>
-    <row r="10" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -25108,13 +25277,13 @@
       <c r="F10" s="65"/>
       <c r="G10" s="65"/>
       <c r="H10" s="65"/>
-      <c r="P10" s="228"/>
+      <c r="P10" s="227"/>
       <c r="Q10" s="87"/>
       <c r="R10" s="88"/>
       <c r="AH10" s="191"/>
       <c r="AJ10" s="71"/>
       <c r="AK10" s="191"/>
-      <c r="AM10" s="256"/>
+      <c r="AM10" s="252"/>
       <c r="AN10" s="88"/>
       <c r="BD10" s="71"/>
       <c r="BG10" s="191"/>
@@ -25131,10 +25300,11 @@
       <c r="CQ10" s="87"/>
       <c r="CR10" s="88"/>
       <c r="CV10" s="191"/>
-      <c r="CW10" s="87"/>
       <c r="CX10" s="71"/>
+      <c r="CY10" s="87"/>
+      <c r="CZ10" s="71"/>
     </row>
-    <row r="11" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -25142,13 +25312,13 @@
       <c r="F11" s="65"/>
       <c r="G11" s="65"/>
       <c r="H11" s="65"/>
-      <c r="P11" s="228"/>
+      <c r="P11" s="227"/>
       <c r="Q11" s="87"/>
       <c r="R11" s="88"/>
       <c r="AH11" s="191"/>
       <c r="AJ11" s="71"/>
       <c r="AK11" s="191"/>
-      <c r="AM11" s="256"/>
+      <c r="AM11" s="252"/>
       <c r="AN11" s="88"/>
       <c r="BD11" s="71"/>
       <c r="BG11" s="191"/>
@@ -25165,22 +25335,23 @@
       <c r="CQ11" s="87"/>
       <c r="CR11" s="88"/>
       <c r="CV11" s="191"/>
-      <c r="CW11" s="87"/>
       <c r="CX11" s="71"/>
+      <c r="CY11" s="87"/>
+      <c r="CZ11" s="71"/>
     </row>
-    <row r="12" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="88"/>
       <c r="I12" s="65"/>
-      <c r="P12" s="228"/>
+      <c r="P12" s="227"/>
       <c r="Q12" s="87"/>
       <c r="R12" s="88"/>
       <c r="AH12" s="191"/>
       <c r="AJ12" s="71"/>
       <c r="AK12" s="191"/>
-      <c r="AM12" s="256"/>
+      <c r="AM12" s="252"/>
       <c r="AN12" s="88"/>
       <c r="BD12" s="71"/>
       <c r="BG12" s="191"/>
@@ -25197,22 +25368,23 @@
       <c r="CQ12" s="87"/>
       <c r="CR12" s="88"/>
       <c r="CV12" s="191"/>
-      <c r="CW12" s="87"/>
       <c r="CX12" s="71"/>
+      <c r="CY12" s="87"/>
+      <c r="CZ12" s="71"/>
     </row>
-    <row r="13" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="88"/>
       <c r="J13" s="65"/>
-      <c r="P13" s="228"/>
+      <c r="P13" s="227"/>
       <c r="Q13" s="87"/>
       <c r="R13" s="88"/>
       <c r="AH13" s="191"/>
       <c r="AJ13" s="71"/>
       <c r="AK13" s="191"/>
-      <c r="AM13" s="256"/>
+      <c r="AM13" s="252"/>
       <c r="AN13" s="88"/>
       <c r="BD13" s="71"/>
       <c r="BG13" s="191"/>
@@ -25229,22 +25401,23 @@
       <c r="CQ13" s="87"/>
       <c r="CR13" s="88"/>
       <c r="CV13" s="191"/>
-      <c r="CW13" s="87"/>
       <c r="CX13" s="71"/>
+      <c r="CY13" s="87"/>
+      <c r="CZ13" s="71"/>
     </row>
-    <row r="14" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="88"/>
       <c r="J14" s="65"/>
-      <c r="P14" s="228"/>
+      <c r="P14" s="227"/>
       <c r="Q14" s="87"/>
       <c r="R14" s="88"/>
       <c r="AH14" s="191"/>
       <c r="AJ14" s="71"/>
       <c r="AK14" s="191"/>
-      <c r="AM14" s="256"/>
+      <c r="AM14" s="252"/>
       <c r="AN14" s="88"/>
       <c r="BD14" s="71"/>
       <c r="BG14" s="191"/>
@@ -25261,23 +25434,24 @@
       <c r="CQ14" s="87"/>
       <c r="CR14" s="88"/>
       <c r="CV14" s="191"/>
-      <c r="CW14" s="87"/>
       <c r="CX14" s="71"/>
+      <c r="CY14" s="87"/>
+      <c r="CZ14" s="71"/>
     </row>
-    <row r="15" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="88"/>
       <c r="K15" s="65"/>
       <c r="L15" s="65"/>
-      <c r="P15" s="228"/>
+      <c r="P15" s="227"/>
       <c r="Q15" s="87"/>
       <c r="R15" s="88"/>
       <c r="AH15" s="191"/>
       <c r="AJ15" s="71"/>
       <c r="AK15" s="191"/>
-      <c r="AM15" s="256"/>
+      <c r="AM15" s="252"/>
       <c r="AN15" s="88"/>
       <c r="BD15" s="71"/>
       <c r="BG15" s="191"/>
@@ -25294,10 +25468,11 @@
       <c r="CQ15" s="87"/>
       <c r="CR15" s="88"/>
       <c r="CV15" s="191"/>
-      <c r="CW15" s="87"/>
       <c r="CX15" s="71"/>
+      <c r="CY15" s="87"/>
+      <c r="CZ15" s="71"/>
     </row>
-    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -25305,7 +25480,7 @@
       <c r="M16" s="117"/>
       <c r="N16" s="117"/>
       <c r="O16" s="117"/>
-      <c r="P16" s="229"/>
+      <c r="P16" s="228"/>
       <c r="Q16" s="168">
         <v>16</v>
       </c>
@@ -25313,7 +25488,7 @@
       <c r="AH16" s="192"/>
       <c r="AJ16" s="118"/>
       <c r="AK16" s="192"/>
-      <c r="AM16" s="257"/>
+      <c r="AM16" s="253"/>
       <c r="AN16" s="115"/>
       <c r="BD16" s="118"/>
       <c r="BG16" s="192"/>
@@ -25330,21 +25505,23 @@
       <c r="CQ16" s="166"/>
       <c r="CR16" s="115"/>
       <c r="CV16" s="192"/>
-      <c r="CW16" s="166"/>
+      <c r="CW16" s="118"/>
       <c r="CX16" s="118"/>
+      <c r="CY16" s="166"/>
+      <c r="CZ16" s="118"/>
     </row>
-    <row r="17" spans="1:102" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:104" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B17" s="120"/>
-      <c r="P17" s="230"/>
+      <c r="P17" s="229"/>
       <c r="Q17" s="122"/>
       <c r="R17" s="120"/>
       <c r="AH17" s="193"/>
       <c r="AJ17" s="123"/>
       <c r="AK17" s="193"/>
-      <c r="AM17" s="258"/>
+      <c r="AM17" s="254"/>
       <c r="AN17" s="120"/>
       <c r="BD17" s="123"/>
       <c r="BG17" s="193"/>
@@ -25360,20 +25537,20 @@
       <c r="CN17" s="123"/>
       <c r="CQ17" s="122"/>
       <c r="CR17" s="120"/>
-      <c r="CV17" s="193"/>
-      <c r="CW17" s="122"/>
       <c r="CX17" s="123"/>
+      <c r="CY17" s="122"/>
+      <c r="CZ17" s="123"/>
     </row>
-    <row r="18" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="89"/>
-      <c r="P18" s="231"/>
+      <c r="P18" s="230"/>
       <c r="Q18" s="90"/>
       <c r="R18" s="167"/>
       <c r="AK18" s="194"/>
-      <c r="AM18" s="259"/>
+      <c r="AM18" s="255"/>
       <c r="AN18" s="89"/>
       <c r="BD18" s="72"/>
       <c r="BG18" s="194"/>
@@ -25389,20 +25566,20 @@
       <c r="CN18" s="72"/>
       <c r="CQ18" s="90"/>
       <c r="CR18" s="89"/>
-      <c r="CV18" s="194"/>
-      <c r="CW18" s="90"/>
       <c r="CX18" s="72"/>
+      <c r="CY18" s="90"/>
+      <c r="CZ18" s="72"/>
     </row>
-    <row r="19" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="89"/>
-      <c r="P19" s="231"/>
+      <c r="P19" s="230"/>
       <c r="Q19" s="90"/>
       <c r="R19" s="167"/>
       <c r="AK19" s="194"/>
-      <c r="AM19" s="259"/>
+      <c r="AM19" s="255"/>
       <c r="AN19" s="89"/>
       <c r="BD19" s="72"/>
       <c r="BG19" s="194"/>
@@ -25418,21 +25595,22 @@
       <c r="CN19" s="72"/>
       <c r="CQ19" s="90"/>
       <c r="CR19" s="89"/>
-      <c r="CV19" s="194"/>
-      <c r="CW19" s="90"/>
+      <c r="CW19" s="288"/>
       <c r="CX19" s="72"/>
+      <c r="CY19" s="90"/>
+      <c r="CZ19" s="72"/>
     </row>
-    <row r="20" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="89"/>
-      <c r="P20" s="231"/>
+      <c r="P20" s="230"/>
       <c r="Q20" s="90"/>
       <c r="R20" s="89"/>
       <c r="S20" s="67"/>
       <c r="AK20" s="194"/>
-      <c r="AM20" s="259"/>
+      <c r="AM20" s="255"/>
       <c r="AN20" s="89"/>
       <c r="BD20" s="72"/>
       <c r="BG20" s="194"/>
@@ -25448,16 +25626,16 @@
       <c r="CN20" s="72"/>
       <c r="CQ20" s="90"/>
       <c r="CR20" s="89"/>
-      <c r="CV20" s="194"/>
-      <c r="CW20" s="90"/>
       <c r="CX20" s="72"/>
+      <c r="CY20" s="90"/>
+      <c r="CZ20" s="72"/>
     </row>
-    <row r="21" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="89"/>
-      <c r="P21" s="231"/>
+      <c r="P21" s="230"/>
       <c r="Q21" s="90"/>
       <c r="R21" s="89"/>
       <c r="Y21" s="67"/>
@@ -25467,7 +25645,7 @@
       <c r="AC21" s="67"/>
       <c r="AD21" s="67"/>
       <c r="AK21" s="194"/>
-      <c r="AM21" s="259"/>
+      <c r="AM21" s="255"/>
       <c r="AN21" s="89"/>
       <c r="BD21" s="72"/>
       <c r="BG21" s="194"/>
@@ -25483,22 +25661,22 @@
       <c r="CN21" s="72"/>
       <c r="CQ21" s="90"/>
       <c r="CR21" s="89"/>
-      <c r="CV21" s="194"/>
-      <c r="CW21" s="90"/>
       <c r="CX21" s="72"/>
+      <c r="CY21" s="90"/>
+      <c r="CZ21" s="72"/>
     </row>
-    <row r="22" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="89"/>
-      <c r="P22" s="231"/>
+      <c r="P22" s="230"/>
       <c r="Q22" s="90"/>
       <c r="R22" s="89"/>
       <c r="W22" s="67"/>
       <c r="X22" s="67"/>
       <c r="AK22" s="194"/>
-      <c r="AM22" s="259"/>
+      <c r="AM22" s="255"/>
       <c r="AN22" s="89"/>
       <c r="BD22" s="72"/>
       <c r="BG22" s="194"/>
@@ -25514,16 +25692,17 @@
       <c r="CN22" s="72"/>
       <c r="CQ22" s="90"/>
       <c r="CR22" s="89"/>
-      <c r="CV22" s="194"/>
-      <c r="CW22" s="90"/>
+      <c r="CW22" s="287"/>
       <c r="CX22" s="72"/>
+      <c r="CY22" s="90"/>
+      <c r="CZ22" s="72"/>
     </row>
-    <row r="23" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="89"/>
-      <c r="P23" s="231"/>
+      <c r="P23" s="230"/>
       <c r="Q23" s="90"/>
       <c r="R23" s="89"/>
       <c r="S23" s="169" t="s">
@@ -25533,7 +25712,7 @@
       <c r="U23" s="67"/>
       <c r="V23" s="67"/>
       <c r="AK23" s="194"/>
-      <c r="AM23" s="259"/>
+      <c r="AM23" s="255"/>
       <c r="AN23" s="89"/>
       <c r="BD23" s="72"/>
       <c r="BG23" s="194"/>
@@ -25549,20 +25728,20 @@
       <c r="CN23" s="72"/>
       <c r="CQ23" s="90"/>
       <c r="CR23" s="89"/>
-      <c r="CV23" s="194"/>
-      <c r="CW23" s="90"/>
       <c r="CX23" s="72"/>
+      <c r="CY23" s="90"/>
+      <c r="CZ23" s="72"/>
     </row>
-    <row r="24" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="89"/>
-      <c r="P24" s="231"/>
+      <c r="P24" s="230"/>
       <c r="Q24" s="90"/>
       <c r="R24" s="89"/>
       <c r="AK24" s="194"/>
-      <c r="AM24" s="259"/>
+      <c r="AM24" s="255"/>
       <c r="AN24" s="89"/>
       <c r="BD24" s="72"/>
       <c r="BG24" s="194"/>
@@ -25578,21 +25757,21 @@
       <c r="CN24" s="72"/>
       <c r="CQ24" s="90"/>
       <c r="CR24" s="89"/>
-      <c r="CV24" s="194"/>
-      <c r="CW24" s="90"/>
       <c r="CX24" s="72"/>
+      <c r="CY24" s="90"/>
+      <c r="CZ24" s="72"/>
     </row>
-    <row r="25" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="89"/>
-      <c r="P25" s="231"/>
+      <c r="P25" s="230"/>
       <c r="Q25" s="90"/>
       <c r="R25" s="89"/>
       <c r="AB25" s="67"/>
       <c r="AK25" s="194"/>
-      <c r="AM25" s="259"/>
+      <c r="AM25" s="255"/>
       <c r="AN25" s="89"/>
       <c r="BD25" s="72"/>
       <c r="BG25" s="194"/>
@@ -25608,21 +25787,21 @@
       <c r="CN25" s="72"/>
       <c r="CQ25" s="90"/>
       <c r="CR25" s="89"/>
-      <c r="CV25" s="194"/>
-      <c r="CW25" s="90"/>
       <c r="CX25" s="72"/>
+      <c r="CY25" s="90"/>
+      <c r="CZ25" s="72"/>
     </row>
-    <row r="26" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
       <c r="B26" s="89"/>
-      <c r="P26" s="231"/>
+      <c r="P26" s="230"/>
       <c r="Q26" s="90"/>
       <c r="R26" s="89"/>
       <c r="AC26" s="67"/>
       <c r="AK26" s="194"/>
-      <c r="AM26" s="259"/>
+      <c r="AM26" s="255"/>
       <c r="AN26" s="89"/>
       <c r="BD26" s="72"/>
       <c r="BG26" s="194"/>
@@ -25638,21 +25817,22 @@
       <c r="CN26" s="72"/>
       <c r="CQ26" s="90"/>
       <c r="CR26" s="89"/>
-      <c r="CV26" s="194"/>
-      <c r="CW26" s="90"/>
+      <c r="CW26" s="287"/>
       <c r="CX26" s="72"/>
+      <c r="CY26" s="90"/>
+      <c r="CZ26" s="72"/>
     </row>
-    <row r="27" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
       <c r="B27" s="89"/>
-      <c r="P27" s="231"/>
+      <c r="P27" s="230"/>
       <c r="Q27" s="90"/>
       <c r="R27" s="89"/>
       <c r="AA27" s="67"/>
       <c r="AK27" s="194"/>
-      <c r="AM27" s="259"/>
+      <c r="AM27" s="255"/>
       <c r="AN27" s="89"/>
       <c r="BD27" s="72"/>
       <c r="BG27" s="194"/>
@@ -25668,21 +25848,21 @@
       <c r="CN27" s="72"/>
       <c r="CQ27" s="90"/>
       <c r="CR27" s="89"/>
-      <c r="CV27" s="194"/>
-      <c r="CW27" s="90"/>
       <c r="CX27" s="72"/>
+      <c r="CY27" s="90"/>
+      <c r="CZ27" s="72"/>
     </row>
-    <row r="28" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
       <c r="B28" s="89"/>
-      <c r="P28" s="231"/>
+      <c r="P28" s="230"/>
       <c r="Q28" s="90"/>
       <c r="R28" s="89"/>
       <c r="Z28" s="67"/>
       <c r="AK28" s="194"/>
-      <c r="AM28" s="259"/>
+      <c r="AM28" s="255"/>
       <c r="AN28" s="89"/>
       <c r="BD28" s="72"/>
       <c r="BG28" s="194"/>
@@ -25698,21 +25878,21 @@
       <c r="CN28" s="72"/>
       <c r="CQ28" s="90"/>
       <c r="CR28" s="89"/>
-      <c r="CV28" s="194"/>
-      <c r="CW28" s="90"/>
       <c r="CX28" s="72"/>
+      <c r="CY28" s="90"/>
+      <c r="CZ28" s="72"/>
     </row>
-    <row r="29" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
       <c r="B29" s="89"/>
-      <c r="P29" s="231"/>
+      <c r="P29" s="230"/>
       <c r="Q29" s="90"/>
       <c r="R29" s="89"/>
       <c r="Y29" s="67"/>
       <c r="AK29" s="194"/>
-      <c r="AM29" s="259"/>
+      <c r="AM29" s="255"/>
       <c r="AN29" s="89"/>
       <c r="BD29" s="72"/>
       <c r="BG29" s="194"/>
@@ -25728,21 +25908,21 @@
       <c r="CN29" s="72"/>
       <c r="CQ29" s="90"/>
       <c r="CR29" s="89"/>
-      <c r="CV29" s="194"/>
-      <c r="CW29" s="90"/>
       <c r="CX29" s="72"/>
+      <c r="CY29" s="90"/>
+      <c r="CZ29" s="72"/>
     </row>
-    <row r="30" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
       <c r="B30" s="89"/>
-      <c r="P30" s="231"/>
+      <c r="P30" s="230"/>
       <c r="Q30" s="90"/>
       <c r="R30" s="89"/>
       <c r="AD30" s="67"/>
       <c r="AK30" s="194"/>
-      <c r="AM30" s="259"/>
+      <c r="AM30" s="255"/>
       <c r="AN30" s="89"/>
       <c r="BD30" s="72"/>
       <c r="BG30" s="194"/>
@@ -25758,21 +25938,21 @@
       <c r="CN30" s="72"/>
       <c r="CQ30" s="90"/>
       <c r="CR30" s="89"/>
-      <c r="CV30" s="194"/>
-      <c r="CW30" s="90"/>
       <c r="CX30" s="72"/>
+      <c r="CY30" s="90"/>
+      <c r="CZ30" s="72"/>
     </row>
-    <row r="31" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="89"/>
-      <c r="P31" s="231"/>
+      <c r="P31" s="230"/>
       <c r="Q31" s="90"/>
       <c r="R31" s="89"/>
       <c r="S31" s="67"/>
       <c r="AK31" s="194"/>
-      <c r="AM31" s="259"/>
+      <c r="AM31" s="255"/>
       <c r="AN31" s="89"/>
       <c r="BD31" s="72"/>
       <c r="BG31" s="194"/>
@@ -25788,21 +25968,21 @@
       <c r="CN31" s="72"/>
       <c r="CQ31" s="90"/>
       <c r="CR31" s="89"/>
-      <c r="CV31" s="194"/>
-      <c r="CW31" s="90"/>
       <c r="CX31" s="72"/>
+      <c r="CY31" s="90"/>
+      <c r="CZ31" s="72"/>
     </row>
-    <row r="32" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="89"/>
-      <c r="P32" s="231"/>
+      <c r="P32" s="230"/>
       <c r="Q32" s="90"/>
       <c r="R32" s="89"/>
       <c r="AE32" s="67"/>
       <c r="AK32" s="194"/>
-      <c r="AM32" s="259"/>
+      <c r="AM32" s="255"/>
       <c r="AN32" s="89"/>
       <c r="BD32" s="72"/>
       <c r="BG32" s="194"/>
@@ -25818,21 +25998,21 @@
       <c r="CN32" s="72"/>
       <c r="CQ32" s="90"/>
       <c r="CR32" s="89"/>
-      <c r="CV32" s="194"/>
-      <c r="CW32" s="90"/>
       <c r="CX32" s="72"/>
+      <c r="CY32" s="90"/>
+      <c r="CZ32" s="72"/>
     </row>
-    <row r="33" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="89"/>
-      <c r="P33" s="231"/>
+      <c r="P33" s="230"/>
       <c r="Q33" s="90"/>
       <c r="R33" s="89"/>
       <c r="AE33" s="67"/>
       <c r="AK33" s="194"/>
-      <c r="AM33" s="259"/>
+      <c r="AM33" s="255"/>
       <c r="AN33" s="89"/>
       <c r="BD33" s="72"/>
       <c r="BG33" s="194"/>
@@ -25848,16 +26028,17 @@
       <c r="CN33" s="72"/>
       <c r="CQ33" s="90"/>
       <c r="CR33" s="89"/>
-      <c r="CV33" s="194"/>
-      <c r="CW33" s="90"/>
+      <c r="CW33" s="286"/>
       <c r="CX33" s="72"/>
+      <c r="CY33" s="90"/>
+      <c r="CZ33" s="72"/>
     </row>
-    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
       <c r="B34" s="125"/>
-      <c r="P34" s="232"/>
+      <c r="P34" s="231"/>
       <c r="Q34" s="127"/>
       <c r="R34" s="125"/>
       <c r="S34" s="128"/>
@@ -25886,47 +26067,48 @@
       <c r="CN34" s="128"/>
       <c r="CQ34" s="127"/>
       <c r="CR34" s="125"/>
-      <c r="CV34" s="195"/>
-      <c r="CW34" s="127"/>
+      <c r="CV34" s="285"/>
+      <c r="CW34" s="298"/>
       <c r="CX34" s="128"/>
+      <c r="CY34" s="127"/>
+      <c r="CZ34" s="128"/>
     </row>
-    <row r="35" spans="1:102" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="129" t="s">
+    <row r="35" spans="1:104" s="292" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="290" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="P35" s="233"/>
-      <c r="Q35" s="132"/>
-      <c r="R35" s="130"/>
-      <c r="AH35" s="196"/>
-      <c r="AJ35" s="133"/>
-      <c r="AK35" s="196"/>
-      <c r="AM35" s="260"/>
-      <c r="AN35" s="130"/>
-      <c r="BD35" s="133"/>
-      <c r="BG35" s="196"/>
-      <c r="BI35" s="133"/>
-      <c r="BJ35" s="132"/>
-      <c r="BK35" s="130"/>
-      <c r="BV35" s="133"/>
-      <c r="CC35" s="196"/>
-      <c r="CE35" s="133"/>
-      <c r="CG35" s="132"/>
-      <c r="CH35" s="130"/>
-      <c r="CL35" s="196"/>
-      <c r="CN35" s="133"/>
-      <c r="CQ35" s="132"/>
-      <c r="CR35" s="130"/>
-      <c r="CV35" s="196"/>
-      <c r="CW35" s="132"/>
-      <c r="CX35" s="133"/>
+      <c r="B35" s="291"/>
+      <c r="P35" s="293"/>
+      <c r="Q35" s="294"/>
+      <c r="R35" s="291"/>
+      <c r="AH35" s="295"/>
+      <c r="AJ35" s="296"/>
+      <c r="AK35" s="295"/>
+      <c r="AM35" s="297"/>
+      <c r="AN35" s="291"/>
+      <c r="BD35" s="296"/>
+      <c r="BG35" s="295"/>
+      <c r="BI35" s="296"/>
+      <c r="BJ35" s="294"/>
+      <c r="BK35" s="291"/>
+      <c r="BV35" s="296"/>
+      <c r="CC35" s="295"/>
+      <c r="CE35" s="296"/>
+      <c r="CG35" s="294"/>
+      <c r="CH35" s="291"/>
+      <c r="CL35" s="295"/>
+      <c r="CN35" s="296"/>
+      <c r="CQ35" s="294"/>
+      <c r="CR35" s="291"/>
+      <c r="CY35" s="294"/>
+      <c r="CZ35" s="296"/>
     </row>
-    <row r="36" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="91"/>
-      <c r="P36" s="234"/>
+      <c r="P36" s="232"/>
       <c r="Q36" s="92"/>
       <c r="R36" s="91"/>
       <c r="AH36" s="197"/>
@@ -25946,15 +26128,17 @@
       <c r="CQ36" s="92"/>
       <c r="CR36" s="91"/>
       <c r="CV36" s="197"/>
-      <c r="CW36" s="92"/>
+      <c r="CW36" s="174"/>
       <c r="CX36" s="73"/>
+      <c r="CY36" s="92"/>
+      <c r="CZ36" s="73"/>
     </row>
-    <row r="37" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="91"/>
-      <c r="P37" s="234"/>
+      <c r="P37" s="232"/>
       <c r="Q37" s="92"/>
       <c r="R37" s="91"/>
       <c r="AH37" s="197"/>
@@ -25976,15 +26160,17 @@
       <c r="CQ37" s="92"/>
       <c r="CR37" s="91"/>
       <c r="CV37" s="197"/>
-      <c r="CW37" s="92"/>
+      <c r="CW37" s="174"/>
       <c r="CX37" s="73"/>
+      <c r="CY37" s="92"/>
+      <c r="CZ37" s="73"/>
     </row>
-    <row r="38" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="91"/>
-      <c r="P38" s="234"/>
+      <c r="P38" s="232"/>
       <c r="Q38" s="92"/>
       <c r="R38" s="91"/>
       <c r="AH38" s="197"/>
@@ -26005,15 +26191,17 @@
       <c r="CQ38" s="92"/>
       <c r="CR38" s="91"/>
       <c r="CV38" s="197"/>
-      <c r="CW38" s="92"/>
+      <c r="CW38" s="174"/>
       <c r="CX38" s="73"/>
+      <c r="CY38" s="92"/>
+      <c r="CZ38" s="73"/>
     </row>
-    <row r="39" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="91"/>
-      <c r="P39" s="234"/>
+      <c r="P39" s="232"/>
       <c r="Q39" s="92"/>
       <c r="R39" s="91"/>
       <c r="AH39" s="197"/>
@@ -26033,15 +26221,17 @@
       <c r="CQ39" s="92"/>
       <c r="CR39" s="91"/>
       <c r="CV39" s="197"/>
-      <c r="CW39" s="92"/>
+      <c r="CW39" s="174"/>
       <c r="CX39" s="73"/>
+      <c r="CY39" s="92"/>
+      <c r="CZ39" s="73"/>
     </row>
-    <row r="40" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="173"/>
-      <c r="P40" s="235"/>
+      <c r="P40" s="233"/>
       <c r="Q40" s="175"/>
       <c r="R40" s="173"/>
       <c r="AH40" s="198"/>
@@ -26062,15 +26252,16 @@
       <c r="CQ40" s="175"/>
       <c r="CR40" s="173"/>
       <c r="CV40" s="198"/>
-      <c r="CW40" s="175"/>
       <c r="CX40" s="176"/>
+      <c r="CY40" s="175"/>
+      <c r="CZ40" s="176"/>
     </row>
-    <row r="41" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
       <c r="B41" s="173"/>
-      <c r="P41" s="235"/>
+      <c r="P41" s="233"/>
       <c r="Q41" s="175"/>
       <c r="R41" s="173"/>
       <c r="AH41" s="198"/>
@@ -26091,15 +26282,16 @@
       <c r="CQ41" s="175"/>
       <c r="CR41" s="173"/>
       <c r="CV41" s="198"/>
-      <c r="CW41" s="175"/>
       <c r="CX41" s="176"/>
+      <c r="CY41" s="175"/>
+      <c r="CZ41" s="176"/>
     </row>
-    <row r="42" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
       <c r="B42" s="173"/>
-      <c r="P42" s="235"/>
+      <c r="P42" s="233"/>
       <c r="Q42" s="175"/>
       <c r="R42" s="173"/>
       <c r="AH42" s="198"/>
@@ -26120,15 +26312,16 @@
       <c r="CQ42" s="175"/>
       <c r="CR42" s="173"/>
       <c r="CV42" s="198"/>
-      <c r="CW42" s="175"/>
       <c r="CX42" s="176"/>
+      <c r="CY42" s="175"/>
+      <c r="CZ42" s="176"/>
     </row>
-    <row r="43" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="173"/>
-      <c r="P43" s="235"/>
+      <c r="P43" s="233"/>
       <c r="Q43" s="175"/>
       <c r="R43" s="173"/>
       <c r="AH43" s="198"/>
@@ -26149,15 +26342,16 @@
       <c r="CQ43" s="175"/>
       <c r="CR43" s="173"/>
       <c r="CV43" s="198"/>
-      <c r="CW43" s="175"/>
       <c r="CX43" s="176"/>
+      <c r="CY43" s="175"/>
+      <c r="CZ43" s="176"/>
     </row>
-    <row r="44" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="173"/>
-      <c r="P44" s="235"/>
+      <c r="P44" s="233"/>
       <c r="Q44" s="175"/>
       <c r="R44" s="173"/>
       <c r="AH44" s="198"/>
@@ -26178,15 +26372,16 @@
       <c r="CQ44" s="175"/>
       <c r="CR44" s="173"/>
       <c r="CV44" s="198"/>
-      <c r="CW44" s="175"/>
       <c r="CX44" s="176"/>
+      <c r="CY44" s="175"/>
+      <c r="CZ44" s="176"/>
     </row>
-    <row r="45" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="173"/>
-      <c r="P45" s="235"/>
+      <c r="P45" s="233"/>
       <c r="Q45" s="175"/>
       <c r="R45" s="173"/>
       <c r="AH45" s="198"/>
@@ -26207,15 +26402,16 @@
       <c r="CQ45" s="175"/>
       <c r="CR45" s="173"/>
       <c r="CV45" s="198"/>
-      <c r="CW45" s="175"/>
       <c r="CX45" s="176"/>
+      <c r="CY45" s="175"/>
+      <c r="CZ45" s="176"/>
     </row>
-    <row r="46" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="91"/>
-      <c r="P46" s="234"/>
+      <c r="P46" s="232"/>
       <c r="Q46" s="92"/>
       <c r="R46" s="91"/>
       <c r="AH46" s="197"/>
@@ -26236,64 +26432,68 @@
       <c r="CN46" s="73"/>
       <c r="CQ46" s="92"/>
       <c r="CR46" s="91"/>
-      <c r="CV46" s="197"/>
-      <c r="CW46" s="92"/>
-      <c r="CX46" s="73"/>
+      <c r="CV46" s="198"/>
+      <c r="CW46" s="174"/>
+      <c r="CX46" s="176"/>
+      <c r="CY46" s="92"/>
+      <c r="CZ46" s="73"/>
     </row>
-    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="134" t="s">
+    <row r="47" spans="1:104" s="301" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="299" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="135"/>
-      <c r="P47" s="236"/>
-      <c r="Q47" s="137"/>
-      <c r="R47" s="135"/>
-      <c r="AH47" s="199"/>
-      <c r="AK47" s="199"/>
-      <c r="AM47" s="137"/>
-      <c r="AN47" s="135"/>
-      <c r="AY47" s="278" t="s">
+      <c r="B47" s="300"/>
+      <c r="P47" s="302"/>
+      <c r="Q47" s="303"/>
+      <c r="R47" s="300"/>
+      <c r="AH47" s="304"/>
+      <c r="AK47" s="304"/>
+      <c r="AM47" s="303"/>
+      <c r="AN47" s="300"/>
+      <c r="AY47" s="305" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="279"/>
-      <c r="BA47" s="280"/>
-      <c r="BB47" s="178"/>
-      <c r="BC47" s="178"/>
-      <c r="BD47" s="178"/>
-      <c r="BE47" s="178"/>
-      <c r="BF47" s="178"/>
-      <c r="BG47" s="178"/>
-      <c r="BH47" s="226"/>
-      <c r="BI47" s="226"/>
-      <c r="BJ47" s="180">
+      <c r="AZ47" s="306"/>
+      <c r="BA47" s="307"/>
+      <c r="BB47" s="308"/>
+      <c r="BC47" s="308"/>
+      <c r="BD47" s="308"/>
+      <c r="BE47" s="308"/>
+      <c r="BF47" s="308"/>
+      <c r="BG47" s="308"/>
+      <c r="BH47" s="309"/>
+      <c r="BI47" s="309"/>
+      <c r="BJ47" s="310">
         <v>23</v>
       </c>
-      <c r="BK47" s="135"/>
-      <c r="BV47" s="138"/>
-      <c r="CC47" s="199"/>
-      <c r="CE47" s="138"/>
-      <c r="CG47" s="137"/>
-      <c r="CH47" s="135"/>
-      <c r="CL47" s="199"/>
-      <c r="CN47" s="138"/>
-      <c r="CQ47" s="137"/>
-      <c r="CR47" s="135"/>
-      <c r="CV47" s="199"/>
-      <c r="CW47" s="137"/>
-      <c r="CX47" s="138"/>
+      <c r="BK47" s="300"/>
+      <c r="BV47" s="311"/>
+      <c r="CC47" s="304"/>
+      <c r="CE47" s="311"/>
+      <c r="CG47" s="303"/>
+      <c r="CH47" s="300"/>
+      <c r="CL47" s="304"/>
+      <c r="CN47" s="311"/>
+      <c r="CQ47" s="303"/>
+      <c r="CR47" s="300"/>
+      <c r="CV47" s="304"/>
+      <c r="CW47" s="281"/>
+      <c r="CX47" s="311"/>
+      <c r="CY47" s="303"/>
+      <c r="CZ47" s="311"/>
     </row>
-    <row r="48" spans="1:102" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:104" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="140"/>
-      <c r="P48" s="237"/>
+      <c r="P48" s="234"/>
       <c r="Q48" s="142"/>
       <c r="R48" s="140"/>
       <c r="AH48" s="200"/>
       <c r="AJ48" s="143"/>
       <c r="AK48" s="200"/>
-      <c r="AM48" s="261"/>
+      <c r="AM48" s="256"/>
       <c r="AN48" s="140"/>
       <c r="BD48" s="143"/>
       <c r="BG48" s="200"/>
@@ -26309,22 +26509,21 @@
       <c r="CN48" s="143"/>
       <c r="CQ48" s="142"/>
       <c r="CR48" s="140"/>
-      <c r="CV48" s="200"/>
-      <c r="CW48" s="142"/>
-      <c r="CX48" s="143"/>
+      <c r="CY48" s="142"/>
+      <c r="CZ48" s="143"/>
     </row>
-    <row r="49" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="93"/>
-      <c r="P49" s="238"/>
+      <c r="P49" s="235"/>
       <c r="Q49" s="94"/>
       <c r="R49" s="93"/>
       <c r="AH49" s="201"/>
       <c r="AJ49" s="74"/>
       <c r="AK49" s="201"/>
-      <c r="AM49" s="262"/>
+      <c r="AM49" s="257"/>
       <c r="AN49" s="93"/>
       <c r="BG49" s="201"/>
       <c r="BJ49" s="94"/>
@@ -26338,25 +26537,26 @@
       <c r="CQ49" s="94"/>
       <c r="CR49" s="93"/>
       <c r="CV49" s="201"/>
-      <c r="CW49" s="94"/>
       <c r="CX49" s="74"/>
+      <c r="CY49" s="94"/>
+      <c r="CZ49" s="74"/>
     </row>
-    <row r="50" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
       <c r="B50" s="93"/>
-      <c r="P50" s="238"/>
+      <c r="P50" s="235"/>
       <c r="Q50" s="94"/>
       <c r="R50" s="93"/>
       <c r="AH50" s="201"/>
       <c r="AJ50" s="74"/>
       <c r="AK50" s="201"/>
-      <c r="AM50" s="262"/>
+      <c r="AM50" s="257"/>
       <c r="AN50" s="93"/>
       <c r="BG50" s="201"/>
       <c r="BJ50" s="94"/>
-      <c r="BK50" s="252"/>
+      <c r="BK50" s="248"/>
       <c r="CE50" s="201"/>
       <c r="CG50" s="94"/>
       <c r="CH50" s="93"/>
@@ -26365,21 +26565,22 @@
       <c r="CQ50" s="94"/>
       <c r="CR50" s="93"/>
       <c r="CV50" s="201"/>
-      <c r="CW50" s="94"/>
       <c r="CX50" s="74"/>
+      <c r="CY50" s="94"/>
+      <c r="CZ50" s="74"/>
     </row>
-    <row r="51" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
       <c r="B51" s="93"/>
-      <c r="P51" s="238"/>
+      <c r="P51" s="235"/>
       <c r="Q51" s="94"/>
       <c r="R51" s="93"/>
       <c r="AH51" s="201"/>
       <c r="AJ51" s="74"/>
       <c r="AK51" s="201"/>
-      <c r="AM51" s="262"/>
+      <c r="AM51" s="257"/>
       <c r="AN51" s="93"/>
       <c r="BG51" s="201"/>
       <c r="BJ51" s="94"/>
@@ -26393,21 +26594,22 @@
       <c r="CQ51" s="94"/>
       <c r="CR51" s="93"/>
       <c r="CV51" s="201"/>
-      <c r="CW51" s="94"/>
       <c r="CX51" s="74"/>
+      <c r="CY51" s="94"/>
+      <c r="CZ51" s="74"/>
     </row>
-    <row r="52" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="93"/>
-      <c r="P52" s="238"/>
+      <c r="P52" s="235"/>
       <c r="Q52" s="94"/>
       <c r="R52" s="93"/>
       <c r="AH52" s="201"/>
       <c r="AJ52" s="74"/>
       <c r="AK52" s="201"/>
-      <c r="AM52" s="262"/>
+      <c r="AM52" s="257"/>
       <c r="AN52" s="93"/>
       <c r="BG52" s="201"/>
       <c r="BJ52" s="94"/>
@@ -26421,21 +26623,22 @@
       <c r="CQ52" s="94"/>
       <c r="CR52" s="93"/>
       <c r="CV52" s="201"/>
-      <c r="CW52" s="94"/>
       <c r="CX52" s="74"/>
+      <c r="CY52" s="94"/>
+      <c r="CZ52" s="74"/>
     </row>
-    <row r="53" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
       <c r="B53" s="93"/>
-      <c r="P53" s="238"/>
+      <c r="P53" s="235"/>
       <c r="Q53" s="94"/>
       <c r="R53" s="93"/>
       <c r="AH53" s="201"/>
       <c r="AJ53" s="74"/>
       <c r="AK53" s="201"/>
-      <c r="AM53" s="262"/>
+      <c r="AM53" s="257"/>
       <c r="AN53" s="93"/>
       <c r="BG53" s="201"/>
       <c r="BJ53" s="94"/>
@@ -26449,21 +26652,22 @@
       <c r="CQ53" s="94"/>
       <c r="CR53" s="93"/>
       <c r="CV53" s="201"/>
-      <c r="CW53" s="94"/>
       <c r="CX53" s="74"/>
+      <c r="CY53" s="94"/>
+      <c r="CZ53" s="74"/>
     </row>
-    <row r="54" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="93"/>
-      <c r="P54" s="238"/>
+      <c r="P54" s="235"/>
       <c r="Q54" s="94"/>
       <c r="R54" s="93"/>
       <c r="AH54" s="201"/>
       <c r="AJ54" s="74"/>
       <c r="AK54" s="201"/>
-      <c r="AM54" s="262"/>
+      <c r="AM54" s="257"/>
       <c r="AN54" s="93"/>
       <c r="BG54" s="201"/>
       <c r="BJ54" s="94"/>
@@ -26477,21 +26681,22 @@
       <c r="CQ54" s="94"/>
       <c r="CR54" s="93"/>
       <c r="CV54" s="201"/>
-      <c r="CW54" s="94"/>
       <c r="CX54" s="74"/>
+      <c r="CY54" s="94"/>
+      <c r="CZ54" s="74"/>
     </row>
-    <row r="55" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
       <c r="B55" s="93"/>
-      <c r="P55" s="238"/>
+      <c r="P55" s="235"/>
       <c r="Q55" s="94"/>
       <c r="R55" s="93"/>
       <c r="AH55" s="201"/>
       <c r="AJ55" s="74"/>
       <c r="AK55" s="201"/>
-      <c r="AM55" s="262"/>
+      <c r="AM55" s="257"/>
       <c r="AN55" s="93"/>
       <c r="BG55" s="201"/>
       <c r="BJ55" s="94"/>
@@ -26504,21 +26709,22 @@
       <c r="CQ55" s="94"/>
       <c r="CR55" s="93"/>
       <c r="CV55" s="201"/>
-      <c r="CW55" s="94"/>
       <c r="CX55" s="74"/>
+      <c r="CY55" s="94"/>
+      <c r="CZ55" s="74"/>
     </row>
-    <row r="56" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
       <c r="B56" s="93"/>
-      <c r="P56" s="238"/>
+      <c r="P56" s="235"/>
       <c r="Q56" s="94"/>
       <c r="R56" s="93"/>
       <c r="AH56" s="201"/>
       <c r="AJ56" s="74"/>
       <c r="AK56" s="201"/>
-      <c r="AM56" s="262"/>
+      <c r="AM56" s="257"/>
       <c r="AN56" s="93"/>
       <c r="BG56" s="201"/>
       <c r="BJ56" s="94"/>
@@ -26532,21 +26738,22 @@
       <c r="CQ56" s="94"/>
       <c r="CR56" s="93"/>
       <c r="CV56" s="201"/>
-      <c r="CW56" s="94"/>
       <c r="CX56" s="74"/>
+      <c r="CY56" s="94"/>
+      <c r="CZ56" s="74"/>
     </row>
-    <row r="57" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
       <c r="B57" s="93"/>
-      <c r="P57" s="238"/>
+      <c r="P57" s="235"/>
       <c r="Q57" s="94"/>
       <c r="R57" s="93"/>
       <c r="AH57" s="201"/>
       <c r="AJ57" s="74"/>
       <c r="AK57" s="201"/>
-      <c r="AM57" s="262"/>
+      <c r="AM57" s="257"/>
       <c r="AN57" s="93"/>
       <c r="BG57" s="201"/>
       <c r="BJ57" s="94"/>
@@ -26561,21 +26768,22 @@
       <c r="CQ57" s="94"/>
       <c r="CR57" s="93"/>
       <c r="CV57" s="201"/>
-      <c r="CW57" s="94"/>
       <c r="CX57" s="74"/>
+      <c r="CY57" s="94"/>
+      <c r="CZ57" s="74"/>
     </row>
-    <row r="58" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="93"/>
-      <c r="P58" s="238"/>
+      <c r="P58" s="235"/>
       <c r="Q58" s="94"/>
       <c r="R58" s="93"/>
       <c r="AH58" s="201"/>
       <c r="AJ58" s="74"/>
       <c r="AK58" s="201"/>
-      <c r="AM58" s="262"/>
+      <c r="AM58" s="257"/>
       <c r="AN58" s="93"/>
       <c r="BG58" s="201"/>
       <c r="BJ58" s="94"/>
@@ -26589,21 +26797,22 @@
       <c r="CQ58" s="94"/>
       <c r="CR58" s="93"/>
       <c r="CV58" s="201"/>
-      <c r="CW58" s="94"/>
       <c r="CX58" s="74"/>
+      <c r="CY58" s="94"/>
+      <c r="CZ58" s="74"/>
     </row>
-    <row r="59" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
       <c r="B59" s="93"/>
-      <c r="P59" s="238"/>
+      <c r="P59" s="235"/>
       <c r="Q59" s="94"/>
       <c r="R59" s="93"/>
       <c r="AH59" s="201"/>
       <c r="AJ59" s="74"/>
       <c r="AK59" s="201"/>
-      <c r="AM59" s="262"/>
+      <c r="AM59" s="257"/>
       <c r="AN59" s="93"/>
       <c r="BG59" s="201"/>
       <c r="BJ59" s="94"/>
@@ -26617,31 +26826,32 @@
       <c r="CQ59" s="94"/>
       <c r="CR59" s="93"/>
       <c r="CV59" s="201"/>
-      <c r="CW59" s="94"/>
       <c r="CX59" s="74"/>
+      <c r="CY59" s="94"/>
+      <c r="CZ59" s="74"/>
     </row>
-    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
       <c r="B60" s="145"/>
-      <c r="P60" s="239"/>
+      <c r="P60" s="236"/>
       <c r="Q60" s="147"/>
       <c r="R60" s="145"/>
       <c r="AH60" s="202"/>
       <c r="AJ60" s="148"/>
       <c r="AK60" s="202"/>
-      <c r="AM60" s="263"/>
+      <c r="AM60" s="258"/>
       <c r="AN60" s="145"/>
       <c r="BG60" s="202"/>
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="281" t="s">
+      <c r="BU60" s="275" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="282"/>
-      <c r="BW60" s="283"/>
+      <c r="BV60" s="276"/>
+      <c r="BW60" s="277"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -26651,7 +26861,7 @@
       <c r="CD60" s="184"/>
       <c r="CE60" s="225"/>
       <c r="CF60" s="225"/>
-      <c r="CG60" s="253">
+      <c r="CG60" s="249">
         <v>23</v>
       </c>
       <c r="CH60" s="145"/>
@@ -26660,41 +26870,44 @@
       <c r="CQ60" s="147"/>
       <c r="CR60" s="145"/>
       <c r="CV60" s="202"/>
-      <c r="CW60" s="147"/>
+      <c r="CW60" s="320"/>
       <c r="CX60" s="148"/>
+      <c r="CY60" s="147"/>
+      <c r="CZ60" s="148"/>
     </row>
-    <row r="61" spans="1:102" s="156" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="154" t="s">
+    <row r="61" spans="1:104" s="314" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="312" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="155"/>
-      <c r="P61" s="240"/>
-      <c r="Q61" s="157"/>
-      <c r="R61" s="155"/>
-      <c r="AH61" s="203"/>
-      <c r="AJ61" s="158"/>
-      <c r="AK61" s="203"/>
-      <c r="AM61" s="264"/>
-      <c r="AN61" s="155"/>
-      <c r="BD61" s="158"/>
-      <c r="BG61" s="203"/>
-      <c r="BI61" s="158"/>
-      <c r="BJ61" s="157"/>
-      <c r="BK61" s="155"/>
-      <c r="BV61" s="158"/>
-      <c r="CC61" s="203"/>
-      <c r="CE61" s="158"/>
-      <c r="CG61" s="157"/>
-      <c r="CH61" s="155"/>
-      <c r="CL61" s="203"/>
-      <c r="CN61" s="158"/>
-      <c r="CQ61" s="157"/>
-      <c r="CR61" s="155"/>
-      <c r="CV61" s="203"/>
-      <c r="CW61" s="157"/>
-      <c r="CX61" s="158"/>
+      <c r="B61" s="313"/>
+      <c r="P61" s="315"/>
+      <c r="Q61" s="316"/>
+      <c r="R61" s="313"/>
+      <c r="AH61" s="317"/>
+      <c r="AJ61" s="318"/>
+      <c r="AK61" s="317"/>
+      <c r="AM61" s="319"/>
+      <c r="AN61" s="313"/>
+      <c r="BD61" s="318"/>
+      <c r="BG61" s="317"/>
+      <c r="BI61" s="318"/>
+      <c r="BJ61" s="316"/>
+      <c r="BK61" s="313"/>
+      <c r="BV61" s="318"/>
+      <c r="CC61" s="317"/>
+      <c r="CE61" s="318"/>
+      <c r="CG61" s="316"/>
+      <c r="CH61" s="313"/>
+      <c r="CL61" s="317"/>
+      <c r="CN61" s="318"/>
+      <c r="CQ61" s="316"/>
+      <c r="CR61" s="313"/>
+      <c r="CV61" s="317"/>
+      <c r="CX61" s="318"/>
+      <c r="CY61" s="316"/>
+      <c r="CZ61" s="318"/>
     </row>
-    <row r="62" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -26705,7 +26918,7 @@
       <c r="AH62" s="204"/>
       <c r="AJ62" s="75"/>
       <c r="AK62" s="204"/>
-      <c r="AM62" s="265"/>
+      <c r="AM62" s="259"/>
       <c r="AN62" s="95"/>
       <c r="BD62" s="75"/>
       <c r="BG62" s="204"/>
@@ -26721,10 +26934,11 @@
       <c r="CQ62" s="96"/>
       <c r="CR62" s="95"/>
       <c r="CV62" s="204"/>
-      <c r="CW62" s="96"/>
       <c r="CX62" s="75"/>
+      <c r="CY62" s="96"/>
+      <c r="CZ62" s="75"/>
     </row>
-    <row r="63" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -26735,7 +26949,7 @@
       <c r="AH63" s="204"/>
       <c r="AJ63" s="75"/>
       <c r="AK63" s="204"/>
-      <c r="AM63" s="265"/>
+      <c r="AM63" s="259"/>
       <c r="AN63" s="95"/>
       <c r="BD63" s="75"/>
       <c r="BG63" s="204"/>
@@ -26751,10 +26965,11 @@
       <c r="CQ63" s="96"/>
       <c r="CR63" s="95"/>
       <c r="CV63" s="204"/>
-      <c r="CW63" s="96"/>
       <c r="CX63" s="75"/>
+      <c r="CY63" s="96"/>
+      <c r="CZ63" s="75"/>
     </row>
-    <row r="64" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -26765,7 +26980,7 @@
       <c r="AH64" s="204"/>
       <c r="AJ64" s="75"/>
       <c r="AK64" s="204"/>
-      <c r="AM64" s="265"/>
+      <c r="AM64" s="259"/>
       <c r="AN64" s="95"/>
       <c r="BD64" s="75"/>
       <c r="BG64" s="204"/>
@@ -26780,10 +26995,11 @@
       <c r="CQ64" s="96"/>
       <c r="CR64" s="95"/>
       <c r="CV64" s="204"/>
-      <c r="CW64" s="96"/>
       <c r="CX64" s="75"/>
+      <c r="CY64" s="96"/>
+      <c r="CZ64" s="75"/>
     </row>
-    <row r="65" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -26794,7 +27010,7 @@
       <c r="AH65" s="204"/>
       <c r="AJ65" s="75"/>
       <c r="AK65" s="204"/>
-      <c r="AM65" s="265"/>
+      <c r="AM65" s="259"/>
       <c r="AN65" s="95"/>
       <c r="BD65" s="75"/>
       <c r="BG65" s="204"/>
@@ -26810,10 +27026,11 @@
       <c r="CQ65" s="96"/>
       <c r="CR65" s="95"/>
       <c r="CV65" s="204"/>
-      <c r="CW65" s="96"/>
       <c r="CX65" s="75"/>
+      <c r="CY65" s="96"/>
+      <c r="CZ65" s="75"/>
     </row>
-    <row r="66" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -26824,7 +27041,7 @@
       <c r="AH66" s="204"/>
       <c r="AJ66" s="75"/>
       <c r="AK66" s="204"/>
-      <c r="AM66" s="265"/>
+      <c r="AM66" s="259"/>
       <c r="AN66" s="95"/>
       <c r="BD66" s="75"/>
       <c r="BG66" s="204"/>
@@ -26840,10 +27057,11 @@
       <c r="CQ66" s="96"/>
       <c r="CR66" s="95"/>
       <c r="CV66" s="204"/>
-      <c r="CW66" s="96"/>
       <c r="CX66" s="75"/>
+      <c r="CY66" s="96"/>
+      <c r="CZ66" s="75"/>
     </row>
-    <row r="67" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -26854,7 +27072,7 @@
       <c r="AH67" s="204"/>
       <c r="AJ67" s="75"/>
       <c r="AK67" s="204"/>
-      <c r="AM67" s="265"/>
+      <c r="AM67" s="259"/>
       <c r="AN67" s="95"/>
       <c r="BD67" s="75"/>
       <c r="BG67" s="204"/>
@@ -26869,10 +27087,11 @@
       <c r="CQ67" s="96"/>
       <c r="CR67" s="95"/>
       <c r="CV67" s="204"/>
-      <c r="CW67" s="96"/>
       <c r="CX67" s="75"/>
+      <c r="CY67" s="96"/>
+      <c r="CZ67" s="75"/>
     </row>
-    <row r="68" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -26883,7 +27102,7 @@
       <c r="AH68" s="204"/>
       <c r="AJ68" s="75"/>
       <c r="AK68" s="204"/>
-      <c r="AM68" s="265"/>
+      <c r="AM68" s="259"/>
       <c r="AN68" s="95"/>
       <c r="BD68" s="75"/>
       <c r="BG68" s="204"/>
@@ -26900,10 +27119,11 @@
       <c r="CQ68" s="96"/>
       <c r="CR68" s="95"/>
       <c r="CV68" s="204"/>
-      <c r="CW68" s="96"/>
       <c r="CX68" s="75"/>
+      <c r="CY68" s="96"/>
+      <c r="CZ68" s="75"/>
     </row>
-    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -26914,7 +27134,7 @@
       <c r="AH69" s="205"/>
       <c r="AJ69" s="163"/>
       <c r="AK69" s="205"/>
-      <c r="AM69" s="266"/>
+      <c r="AM69" s="260"/>
       <c r="AN69" s="160"/>
       <c r="BD69" s="163"/>
       <c r="BG69" s="205"/>
@@ -26933,22 +27153,21 @@
         <v>10</v>
       </c>
       <c r="CR69" s="160"/>
-      <c r="CV69" s="205"/>
-      <c r="CW69" s="162"/>
-      <c r="CX69" s="163"/>
+      <c r="CY69" s="162"/>
+      <c r="CZ69" s="163"/>
     </row>
-    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
       <c r="B70" s="211"/>
-      <c r="P70" s="241"/>
+      <c r="P70" s="237"/>
       <c r="Q70" s="213"/>
       <c r="R70" s="211"/>
       <c r="AH70" s="215"/>
       <c r="AJ70" s="214"/>
       <c r="AK70" s="215"/>
-      <c r="AM70" s="267"/>
+      <c r="AM70" s="261"/>
       <c r="AN70" s="211"/>
       <c r="BD70" s="214"/>
       <c r="BG70" s="215"/>
@@ -26965,21 +27184,22 @@
       <c r="CQ70" s="213"/>
       <c r="CR70" s="211"/>
       <c r="CV70" s="215"/>
-      <c r="CW70" s="216">
-        <v>6</v>
-      </c>
       <c r="CX70" s="214"/>
+      <c r="CY70" s="321">
+        <v>8</v>
+      </c>
+      <c r="CZ70" s="214"/>
     </row>
-    <row r="71" spans="1:102" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:104" s="151" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
-      <c r="P71" s="242"/>
+      <c r="P71" s="238"/>
       <c r="Q71" s="152"/>
       <c r="R71" s="150"/>
       <c r="AH71" s="206"/>
       <c r="AJ71" s="153"/>
       <c r="AK71" s="206"/>
-      <c r="AM71" s="268"/>
+      <c r="AM71" s="262"/>
       <c r="AN71" s="150"/>
       <c r="BD71" s="153"/>
       <c r="BG71" s="206"/>
@@ -26996,19 +27216,21 @@
       <c r="CQ71" s="152"/>
       <c r="CR71" s="150"/>
       <c r="CV71" s="206"/>
-      <c r="CW71" s="152"/>
+      <c r="CW71" s="17"/>
       <c r="CX71" s="153"/>
+      <c r="CY71" s="152"/>
+      <c r="CZ71" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="CR1:CW1"/>
     <mergeCell ref="CH1:CQ1"/>
     <mergeCell ref="AY47:BA47"/>
     <mergeCell ref="BU60:BW60"/>
     <mergeCell ref="R1:AM1"/>
     <mergeCell ref="AN1:BJ1"/>
     <mergeCell ref="BK1:CG1"/>
+    <mergeCell ref="CR1:CY1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
